--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PythonProj\Work\make_xl\data_xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566AC4C0-4550-4EEC-8771-D2A640C90F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575EE189-F9FD-4FE2-A3E3-563214DC450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Шкаф гардероб</t>
+  </si>
+  <si>
+    <t>Шкаф металлический гардероб (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -529,6 +532,36 @@
                  </t>
   </si>
   <si>
+    <t xml:space="preserve">Шкаф металлический гардероб (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421
+Размер: 80/50/182
+Цвет серый
+Цена: 15000 за 1 шт.
+Количество: 18 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -566,6 +599,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/zB3yhbmYRN768w | https://disk.yandex.ru/i/CHAZlqWZWFdfzA | https://disk.yandex.ru/i/xh6vjDOUtCSfww</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/J8owPVd0w4vFHg | https://disk.yandex.ru/i/bOJbtgzNwZzDtg | https://disk.yandex.ru/i/hMzWV0v1pqeBDg | https://disk.yandex.ru/i/NgjfqINiP6j7tQ | https://disk.yandex.ru/i/1dSNkcaopm2Pqg | https://disk.yandex.ru/i/fDRjyWqat4IcRQ</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -617,6 +653,9 @@
     <t>Разноцветный</t>
   </si>
   <si>
+    <t>Серый</t>
+  </si>
+  <si>
     <t>Ольха</t>
   </si>
   <si>
@@ -668,6 +707,12 @@
     <t>МДФ | Металл | Пластик</t>
   </si>
   <si>
+    <t>МДФ</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
     <t>Кабинет | Офис | Балкон | Прихожая | Спальня</t>
   </si>
   <si>
@@ -677,7 +722,7 @@
     <t>Кабинет | Офис | Балкон</t>
   </si>
   <si>
-    <t>МДФ</t>
+    <t>Балкон</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1331,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AF2" t="s">
         <v>44</v>
@@ -1298,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ2" t="s">
         <v>44</v>
@@ -1307,16 +1352,16 @@
         <v>44</v>
       </c>
       <c r="AL2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AM2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AN2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AO2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AP2" t="s">
         <v>44</v>
@@ -1387,7 +1432,7 @@
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W3" t="s">
         <v>43</v>
@@ -1435,7 +1480,7 @@
         <v>45</v>
       </c>
       <c r="AL3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s">
         <v>43</v>
@@ -1447,7 +1492,7 @@
         <v>43</v>
       </c>
       <c r="AP3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -1455,52 +1500,52 @@
         <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>3999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AL4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM4">
         <v>55</v>
@@ -1512,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="AP4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -1520,52 +1565,52 @@
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>5499</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AL5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM5">
         <v>76</v>
@@ -1577,7 +1622,7 @@
         <v>47</v>
       </c>
       <c r="AP5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -1585,52 +1630,52 @@
         <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AH6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM6">
         <v>80</v>
@@ -1642,7 +1687,7 @@
         <v>45</v>
       </c>
       <c r="AP6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -1650,52 +1695,52 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N7">
         <v>5999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AH7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM7">
         <v>80</v>
@@ -1707,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="AP7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1715,52 +1760,52 @@
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8">
         <v>5999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AH8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM8">
         <v>72</v>
@@ -1772,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="AP8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -1780,52 +1825,52 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>4499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM9">
         <v>73</v>
@@ -1837,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="AP9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -1845,52 +1890,52 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AH10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -1902,7 +1947,7 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -1910,52 +1955,52 @@
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>11999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AH11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -1967,7 +2012,7 @@
         <v>42</v>
       </c>
       <c r="AP11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -1975,52 +2020,52 @@
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>14999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AH12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AM12">
         <v>120</v>
@@ -2032,7 +2077,7 @@
         <v>42</v>
       </c>
       <c r="AP12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2040,52 +2085,52 @@
         <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AF13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AH13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM13">
         <v>77</v>
@@ -2097,7 +2142,7 @@
         <v>37</v>
       </c>
       <c r="AP13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -2105,52 +2150,52 @@
         <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>5499</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AH14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AM14">
         <v>77</v>
@@ -2162,54 +2207,54 @@
         <v>38</v>
       </c>
       <c r="AP14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>7999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AH15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AL15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM15">
         <v>82</v>
@@ -2221,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="AP15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -2229,46 +2274,46 @@
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>6500</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AF16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AI16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AL16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM16">
         <v>82</v>
@@ -2280,7 +2325,72 @@
         <v>45</v>
       </c>
       <c r="AP16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17">
+        <v>15000</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK17" t="s">
         <v>116</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM17">
+        <v>80</v>
+      </c>
+      <c r="AN17">
+        <v>182</v>
+      </c>
+      <c r="AO17">
+        <v>50</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2311,6 +2421,8 @@
     <hyperlink ref="Q15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="O16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="Q16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575EE189-F9FD-4FE2-A3E3-563214DC450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082193C2-1EC2-4F3B-828F-E47695A060CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Шкаф металлический гардероб (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421</t>
+  </si>
+  <si>
+    <t>Шкаф металлический</t>
+  </si>
+  <si>
+    <t>Металлические шкафы с полками рольставни</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -562,6 +568,72 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Шкаф металлический
+Гардероб + полки
+Размеры ДхШхВ: 85х39х187
+Цвет: серый 
+Цена: 6 999
+Количество: 4 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Металлические шкафы с полками рольставни
+Шкафы "Besley" 
+Размер
+195х100х45 - 7 штук
+Цвет светло серый и темно серый 
+Цена 15000 (со скидкой 10000)
+Размер 
+100х100х46 - 2 шт.
+Цена:8000
+Есть такие же размеры только отечественного пртизводства по 7000р за шкаф
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -602,6 +674,15 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/J8owPVd0w4vFHg | https://disk.yandex.ru/i/bOJbtgzNwZzDtg | https://disk.yandex.ru/i/hMzWV0v1pqeBDg | https://disk.yandex.ru/i/NgjfqINiP6j7tQ | https://disk.yandex.ru/i/1dSNkcaopm2Pqg | https://disk.yandex.ru/i/fDRjyWqat4IcRQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/a2hNJgRj2EV2zg | https://disk.yandex.ru/i/rJx79clfQ2Q_VA | https://disk.yandex.ru/i/TVQ3xujppCsfPA | https://disk.yandex.ru/i/I6ANj3UQI7EGzw | https://disk.yandex.ru/i/cJ3CgRLjBSGyIA | https://disk.yandex.ru/i/f3jQh74fYUaTAA | https://disk.yandex.ru/i/DuLufl9uEOlfxg | https://disk.yandex.ru/i/GxuKa-a7rBGxJw | https://disk.yandex.ru/i/TqjB7WSVeYWIiA | https://disk.yandex.ru/i/-kkNNN1yFZLNUg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/u89o5M2Ys3kw7g | https://disk.yandex.ru/i/QuVlHZ-1LPGkNg | https://disk.yandex.ru/i/GUgtiCDs7eY5Mg | https://disk.yandex.ru/i/b85D5VmZE2GltQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/N-_DWRwJ03BqUA | https://disk.yandex.ru/i/P7M2sdAhC8M_Xw | https://disk.yandex.ru/i/yEz2Pm0kh1jQoQ | https://disk.yandex.ru/i/V19cpUPONoztaw | https://disk.yandex.ru/i/QYLtvBV8dbi5aQ | https://disk.yandex.ru/i/QWa-P2voIJFivg | https://disk.yandex.ru/i/_q-j_XxJRAEAyA | https://disk.yandex.ru/i/FuVHKv0Li7NIYA | https://disk.yandex.ru/i/wD7jccHCyUx5mg | https://disk.yandex.ru/i/XtSmg9nAsJHAmA</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1103,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1412,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AF2" t="s">
         <v>44</v>
@@ -1343,7 +1424,7 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AJ2" t="s">
         <v>44</v>
@@ -1352,16 +1433,16 @@
         <v>44</v>
       </c>
       <c r="AL2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AM2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AN2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AO2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AP2" t="s">
         <v>44</v>
@@ -1432,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="W3" t="s">
         <v>43</v>
@@ -1480,7 +1561,7 @@
         <v>45</v>
       </c>
       <c r="AL3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="s">
         <v>43</v>
@@ -1492,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="AP3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -1500,52 +1581,52 @@
         <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N4">
         <v>3999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AH4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AL4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM4">
         <v>55</v>
@@ -1557,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="AP4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -1565,52 +1646,52 @@
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>5499</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AH5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AL5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM5">
         <v>76</v>
@@ -1622,7 +1703,7 @@
         <v>47</v>
       </c>
       <c r="AP5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -1630,52 +1711,52 @@
         <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM6">
         <v>80</v>
@@ -1687,7 +1768,7 @@
         <v>45</v>
       </c>
       <c r="AP6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -1695,52 +1776,52 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N7">
         <v>5999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM7">
         <v>80</v>
@@ -1752,7 +1833,7 @@
         <v>45</v>
       </c>
       <c r="AP7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1760,52 +1841,52 @@
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N8">
         <v>5999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM8">
         <v>72</v>
@@ -1817,7 +1898,7 @@
         <v>37</v>
       </c>
       <c r="AP8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -1825,52 +1906,52 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>4499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM9">
         <v>73</v>
@@ -1882,7 +1963,7 @@
         <v>37</v>
       </c>
       <c r="AP9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -1890,52 +1971,52 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AL10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -1947,7 +2028,7 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -1955,52 +2036,52 @@
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>11999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AH11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -2012,7 +2093,7 @@
         <v>42</v>
       </c>
       <c r="AP11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2020,52 +2101,52 @@
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>14999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AH12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AM12">
         <v>120</v>
@@ -2077,7 +2158,7 @@
         <v>42</v>
       </c>
       <c r="AP12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2085,52 +2166,52 @@
         <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM13">
         <v>77</v>
@@ -2142,7 +2223,7 @@
         <v>37</v>
       </c>
       <c r="AP13" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -2150,52 +2231,52 @@
         <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N14">
         <v>5499</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AF14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AH14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AM14">
         <v>77</v>
@@ -2207,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="AP14" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
@@ -2215,46 +2296,46 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>7999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AH15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AL15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AM15">
         <v>82</v>
@@ -2266,7 +2347,7 @@
         <v>45</v>
       </c>
       <c r="AP15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -2274,46 +2355,46 @@
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>6500</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AF16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AH16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AL16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AM16">
         <v>82</v>
@@ -2325,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="AP16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -2336,49 +2417,49 @@
         <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>15000</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AE17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AI17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AJ17" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AM17">
         <v>80</v>
@@ -2390,7 +2471,184 @@
         <v>50</v>
       </c>
       <c r="AP17" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18">
+        <v>15000</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM18">
+        <v>80</v>
+      </c>
+      <c r="AN18">
+        <v>182</v>
+      </c>
+      <c r="AO18">
+        <v>50</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19">
+        <v>6999</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM19">
+        <v>85</v>
+      </c>
+      <c r="AN19">
+        <v>187</v>
+      </c>
+      <c r="AO19">
+        <v>39</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20">
+        <v>15000</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM20">
+        <v>195</v>
+      </c>
+      <c r="AN20">
+        <v>45</v>
+      </c>
+      <c r="AO20">
+        <v>100</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2423,6 +2681,12 @@
     <hyperlink ref="Q16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="O17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="Q17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082193C2-1EC2-4F3B-828F-E47695A060CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -200,6 +194,24 @@
   </si>
   <si>
     <t>Металлические шкафы с полками рольставни</t>
+  </si>
+  <si>
+    <t>Шкаф металлический - сейф</t>
+  </si>
+  <si>
+    <t>Сейф-шкаф</t>
+  </si>
+  <si>
+    <t>Шкаф металлический с полками</t>
+  </si>
+  <si>
+    <t>Шкаф гардероб металлический</t>
+  </si>
+  <si>
+    <t>Шкаф металлический Практик</t>
+  </si>
+  <si>
+    <t>Шкаф гардероб для раздевалки</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -634,6 +646,291 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Шкаф металлический - сейф
+Размеры ДхШхВ: 44х39х186
+Цена 7 500 руб
+Количество 1 шт
+Размеры ДхШхВ: 88х39х186
+Цена: 15 000 руб
+Количество 3
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сейф-шкаф
+Шкаф металлический с полками с надёжным замком и большим весом
+Размер ДхШхВ: 92х46х183
+Цвет: серый
+Цена: 15 000 руб
+Количество: 1 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Шкаф металлический
+Шкаф с 4 полками от отечественного производителя 'Практик'.
+Размер ДхШхВ: 91х37х182
+Цвет: серый
+Цена: 6 999
+Количество 3
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф металлический с полками
+Размер ДхШхВ: 45х92х181
+Цвет: серый
+Цена: 6999 
+Количество: 1 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Шкаф гардероб металлический
+Размеры ДхШхВ: 83х50х183
+Цвет серый
+Цена 6 999
+Количество 1 шт.
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф металлический Практик
+Шкаф-гардероб с полками
+Размер ДхШхВ: 81х50х183
+Цвет : серый 
+Цена: 6999 
+Количество 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф офисный для документов
+Размер: 120х43х183
+Цвет: 
+Цена: 20 000
+Количество: 6 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф гардероб для раздевалки
+Размеры ДхШхВ: 60х60х190
+Цвет: ясень
+Цена: 5 999
+Количество: 16
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Шкаф гардероб
+Размер ДхШхВ: 90х40х207
+Цвет: орех пекан
+Цена: 7 999
+Количество: 4
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф для документов
+Размер ДхШхВ: 90х40х207
+Цвет: орех пекан
+Цена: 7 999
+Количество: 2 - закрытый, 4 - со стеклом
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -683,6 +980,36 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/N-_DWRwJ03BqUA | https://disk.yandex.ru/i/P7M2sdAhC8M_Xw | https://disk.yandex.ru/i/yEz2Pm0kh1jQoQ | https://disk.yandex.ru/i/V19cpUPONoztaw | https://disk.yandex.ru/i/QYLtvBV8dbi5aQ | https://disk.yandex.ru/i/QWa-P2voIJFivg | https://disk.yandex.ru/i/_q-j_XxJRAEAyA | https://disk.yandex.ru/i/FuVHKv0Li7NIYA | https://disk.yandex.ru/i/wD7jccHCyUx5mg | https://disk.yandex.ru/i/XtSmg9nAsJHAmA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mwRpXBP81D_7uA | https://disk.yandex.ru/i/Pv6fRRg7J8iSOQ | https://disk.yandex.ru/i/gs_KgygZkXOoEw | https://disk.yandex.ru/i/vAwkLEQsLKb9qQ | https://disk.yandex.ru/i/L2PWJriD0NRwWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xHcYLLHdubVO3A | https://disk.yandex.ru/i/tKaDLDaoyWm6AQ | https://disk.yandex.ru/i/Omiz3e01wyUrwQ | https://disk.yandex.ru/i/jQARDAyt84PsWA | https://disk.yandex.ru/i/XAISx3K7QOrDMw | https://disk.yandex.ru/i/A3KhEt2OcKaVeQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ujh1bYIelvnJ-g | https://disk.yandex.ru/i/-l-Bli_3TGw2fg | https://disk.yandex.ru/i/da6gZY1e9wJlBw | https://disk.yandex.ru/i/I6UWgIXnfORmWw | https://disk.yandex.ru/i/sd_U5U6n5zCh6Q | https://disk.yandex.ru/i/CUpNBM9KKccDlA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yVcQWqWpDKhjXg | https://disk.yandex.ru/i/93eLQct77xHOrQ | https://disk.yandex.ru/i/lKuMu5uJeTAkqw | https://disk.yandex.ru/i/xpo3Wbgw-Y_LQw | https://disk.yandex.ru/i/GphDOLsdHLarWQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/VE3LUsx2v3FGCQ | https://disk.yandex.ru/i/vFXX1V-IOzAocQ | https://disk.yandex.ru/i/gYJpAUDTO06Wog | https://disk.yandex.ru/i/5aNR0FBLqRZGHQ | https://disk.yandex.ru/i/0aMtH2UM5u87-Q | https://disk.yandex.ru/i/ysMNCkYEq-1rOQ | https://disk.yandex.ru/i/02IUuvIbM-YNLw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/A8ksDVbVMvtvAQ | https://disk.yandex.ru/i/33BJJUm1mURW-A | https://disk.yandex.ru/i/w-JN6bohZzjORQ | https://disk.yandex.ru/i/IhE6qkZfs7SBag | https://disk.yandex.ru/i/qkT61fbH_11rgQ | https://disk.yandex.ru/i/rBSDo2hJ-So7mw | https://disk.yandex.ru/i/Dh33cPcxeJ8M5A | https://disk.yandex.ru/i/H9YS7vJ12OoKPw | https://disk.yandex.ru/i/iuVFJqFivJpJmw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qMQ0Wptl_DTHFQ | https://disk.yandex.ru/i/_FJNwWSIO1sCXw | https://disk.yandex.ru/i/v5lj_p4xO9wFfw | https://disk.yandex.ru/i/iQ6P0q7Z_JuLsA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cFC6_r3GF1uc-g | https://disk.yandex.ru/i/fn7Lh08RTRAjtQ | https://disk.yandex.ru/i/-q8quW_Ch8lmSg | https://disk.yandex.ru/i/2tzE4R-Ex1VyUg | https://disk.yandex.ru/i/_CYoTWp2ZE-0VA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/K2Lv_uhL3R8vWQ | https://disk.yandex.ru/i/M677RH_OjTvOww | https://disk.yandex.ru/i/tPVASDEksAmM_A | https://disk.yandex.ru/i/xfmkipJxT60jEw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RY0dkzQMCfgbcw | https://disk.yandex.ru/i/5pTO7mVGI26_Mw | https://disk.yandex.ru/i/37HZz9J7Hlj2XQ</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -737,6 +1064,9 @@
     <t>Серый</t>
   </si>
   <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
     <t>Ольха</t>
   </si>
   <si>
@@ -794,6 +1124,9 @@
     <t>Металл</t>
   </si>
   <si>
+    <t>МДФ | ДСП</t>
+  </si>
+  <si>
     <t>Кабинет | Офис | Балкон | Прихожая | Спальня</t>
   </si>
   <si>
@@ -804,13 +1137,19 @@
   </si>
   <si>
     <t>Балкон</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Гостинная | Прихожая | Спальня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,26 +1220,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -938,7 +1269,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -972,7 +1303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1007,10 +1337,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1183,16 +1512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AF2" t="s">
         <v>44</v>
@@ -1424,7 +1751,7 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AJ2" t="s">
         <v>44</v>
@@ -1433,22 +1760,22 @@
         <v>44</v>
       </c>
       <c r="AL2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AM2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AN2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AO2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AP2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1513,7 +1840,7 @@
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="W3" t="s">
         <v>43</v>
@@ -1561,7 +1888,7 @@
         <v>45</v>
       </c>
       <c r="AL3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AM3" t="s">
         <v>43</v>
@@ -1573,60 +1900,60 @@
         <v>43</v>
       </c>
       <c r="AP3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="L4" t="s">
         <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>3999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD4" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="AF4" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI4" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ4" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK4" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="AL4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM4">
         <v>55</v>
@@ -1638,60 +1965,60 @@
         <v>47</v>
       </c>
       <c r="AP4" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="L5" t="s">
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>5499</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB5" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="AF5" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AH5" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI5" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ5" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK5" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AL5" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM5">
         <v>76</v>
@@ -1703,60 +2030,60 @@
         <v>47</v>
       </c>
       <c r="AP5" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="L6" t="s">
         <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB6" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC6" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD6" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AF6" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="AH6" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI6" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ6" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK6" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM6">
         <v>80</v>
@@ -1768,60 +2095,60 @@
         <v>45</v>
       </c>
       <c r="AP6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="L7" t="s">
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>5999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AF7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="AH7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI7" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ7" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK7" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM7">
         <v>80</v>
@@ -1833,60 +2160,60 @@
         <v>45</v>
       </c>
       <c r="AP7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="L8" t="s">
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>5999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB8" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC8" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD8" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="AH8" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ8" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK8" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM8">
         <v>72</v>
@@ -1898,60 +2225,60 @@
         <v>37</v>
       </c>
       <c r="AP8" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="L9" t="s">
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="N9">
         <v>4499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB9" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC9" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD9" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AH9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM9">
         <v>73</v>
@@ -1963,60 +2290,60 @@
         <v>37</v>
       </c>
       <c r="AP9" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42">
       <c r="L10" t="s">
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB10" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD10" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AF10" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="AH10" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="AK10" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="AL10" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2028,60 +2355,60 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42">
       <c r="L11" t="s">
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N11">
         <v>11999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB11" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC11" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD11" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE11" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="AF11" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="AK11" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -2093,60 +2420,60 @@
         <v>42</v>
       </c>
       <c r="AP11" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42">
       <c r="L12" t="s">
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N12">
         <v>14999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB12" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC12" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD12" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="AF12" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="AH12" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI12" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="AK12" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AM12">
         <v>120</v>
@@ -2158,60 +2485,60 @@
         <v>42</v>
       </c>
       <c r="AP12" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42">
       <c r="L13" t="s">
         <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB13" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC13" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD13" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AF13" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="AH13" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI13" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM13">
         <v>77</v>
@@ -2223,60 +2550,60 @@
         <v>37</v>
       </c>
       <c r="AP13" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42">
       <c r="L14" t="s">
         <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>5499</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S14" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AC14" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD14" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AH14" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI14" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ14" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK14" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL14" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM14">
         <v>77</v>
@@ -2288,54 +2615,54 @@
         <v>38</v>
       </c>
       <c r="AP14" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42">
       <c r="L15" t="s">
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>7999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB15" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC15" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD15" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="AH15" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI15" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AM15">
         <v>82</v>
@@ -2347,54 +2674,54 @@
         <v>45</v>
       </c>
       <c r="AP15" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42">
       <c r="L16" t="s">
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>6500</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB16" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC16" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD16" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="AH16" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AM16">
         <v>82</v>
@@ -2406,10 +2733,10 @@
         <v>45</v>
       </c>
       <c r="AP16" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2417,49 +2744,49 @@
         <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>15000</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB17" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC17" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD17" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AH17" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AL17" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM17">
         <v>80</v>
@@ -2471,10 +2798,10 @@
         <v>50</v>
       </c>
       <c r="AP17" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2482,43 +2809,43 @@
         <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA18" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB18" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC18" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD18" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AH18" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL18" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM18">
         <v>80</v>
@@ -2530,10 +2857,10 @@
         <v>50</v>
       </c>
       <c r="AP18" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2541,43 +2868,43 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>6999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB19" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC19" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD19" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AH19" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI19" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL19" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM19">
         <v>85</v>
@@ -2589,10 +2916,10 @@
         <v>39</v>
       </c>
       <c r="AP19" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2600,43 +2927,43 @@
         <v>59</v>
       </c>
       <c r="M20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N20">
         <v>15000</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="S20" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AB20" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC20" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AD20" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AE20" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AH20" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="AI20" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM20">
         <v>195</v>
@@ -2648,45 +2975,655 @@
         <v>100</v>
       </c>
       <c r="AP20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>7500</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM21">
+        <v>44</v>
+      </c>
+      <c r="AN21">
+        <v>186</v>
+      </c>
+      <c r="AO21">
+        <v>39</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22">
+        <v>15000</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM22">
+        <v>92</v>
+      </c>
+      <c r="AN22">
+        <v>183</v>
+      </c>
+      <c r="AO22">
+        <v>46</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23">
+        <v>6999</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM23">
+        <v>91</v>
+      </c>
+      <c r="AN23">
+        <v>182</v>
+      </c>
+      <c r="AO23">
+        <v>37</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24">
+        <v>6999</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM24">
+        <v>45</v>
+      </c>
+      <c r="AN24">
+        <v>181</v>
+      </c>
+      <c r="AO24">
+        <v>92</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25">
+        <v>6999</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM25">
+        <v>83</v>
+      </c>
+      <c r="AN25">
+        <v>183</v>
+      </c>
+      <c r="AO25">
+        <v>50</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26">
+        <v>6999</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM26">
+        <v>81</v>
+      </c>
+      <c r="AN26">
+        <v>183</v>
+      </c>
+      <c r="AO26">
+        <v>50</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27">
+        <v>20000</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE27" t="s">
         <v>131</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM27">
+        <v>120</v>
+      </c>
+      <c r="AN27">
+        <v>183</v>
+      </c>
+      <c r="AO27">
+        <v>43</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28">
+        <v>5999</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM28">
+        <v>60</v>
+      </c>
+      <c r="AN28">
+        <v>190</v>
+      </c>
+      <c r="AO28">
+        <v>60</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29">
+        <v>7999</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM29">
+        <v>90</v>
+      </c>
+      <c r="AN29">
+        <v>207</v>
+      </c>
+      <c r="AO29">
+        <v>40</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30">
+        <v>7999</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM30">
+        <v>90</v>
+      </c>
+      <c r="AN30">
+        <v>207</v>
+      </c>
+      <c r="AO30">
+        <v>40</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O4" r:id="rId1"/>
+    <hyperlink ref="Q4" r:id="rId2"/>
+    <hyperlink ref="O5" r:id="rId3"/>
+    <hyperlink ref="Q5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="Q6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="Q7" r:id="rId8"/>
+    <hyperlink ref="O8" r:id="rId9"/>
+    <hyperlink ref="Q8" r:id="rId10"/>
+    <hyperlink ref="O9" r:id="rId11"/>
+    <hyperlink ref="Q9" r:id="rId12"/>
+    <hyperlink ref="O10" r:id="rId13"/>
+    <hyperlink ref="Q10" r:id="rId14"/>
+    <hyperlink ref="O11" r:id="rId15"/>
+    <hyperlink ref="Q11" r:id="rId16"/>
+    <hyperlink ref="O12" r:id="rId17"/>
+    <hyperlink ref="Q12" r:id="rId18"/>
+    <hyperlink ref="O13" r:id="rId19"/>
+    <hyperlink ref="Q13" r:id="rId20"/>
+    <hyperlink ref="O14" r:id="rId21"/>
+    <hyperlink ref="Q14" r:id="rId22"/>
+    <hyperlink ref="O15" r:id="rId23"/>
+    <hyperlink ref="Q15" r:id="rId24"/>
+    <hyperlink ref="O16" r:id="rId25"/>
+    <hyperlink ref="Q16" r:id="rId26"/>
+    <hyperlink ref="O17" r:id="rId27"/>
+    <hyperlink ref="Q17" r:id="rId28"/>
+    <hyperlink ref="O18" r:id="rId29"/>
+    <hyperlink ref="Q18" r:id="rId30"/>
+    <hyperlink ref="O19" r:id="rId31"/>
+    <hyperlink ref="Q19" r:id="rId32"/>
+    <hyperlink ref="O20" r:id="rId33"/>
+    <hyperlink ref="Q20" r:id="rId34"/>
+    <hyperlink ref="O21" r:id="rId35"/>
+    <hyperlink ref="Q21" r:id="rId36"/>
+    <hyperlink ref="O22" r:id="rId37"/>
+    <hyperlink ref="Q22" r:id="rId38"/>
+    <hyperlink ref="O23" r:id="rId39"/>
+    <hyperlink ref="Q23" r:id="rId40"/>
+    <hyperlink ref="O24" r:id="rId41"/>
+    <hyperlink ref="Q24" r:id="rId42"/>
+    <hyperlink ref="O25" r:id="rId43"/>
+    <hyperlink ref="Q25" r:id="rId44"/>
+    <hyperlink ref="O26" r:id="rId45"/>
+    <hyperlink ref="Q26" r:id="rId46"/>
+    <hyperlink ref="O27" r:id="rId47"/>
+    <hyperlink ref="Q27" r:id="rId48"/>
+    <hyperlink ref="O28" r:id="rId49"/>
+    <hyperlink ref="Q28" r:id="rId50"/>
+    <hyperlink ref="O29" r:id="rId51"/>
+    <hyperlink ref="Q29" r:id="rId52"/>
+    <hyperlink ref="O30" r:id="rId53"/>
+    <hyperlink ref="Q30" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="175">
   <si>
     <t>Id</t>
   </si>
@@ -190,18 +190,15 @@
     <t>Шкаф металлический гардероб (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421</t>
   </si>
   <si>
+    <t>Шкаф металлический - сейф</t>
+  </si>
+  <si>
+    <t>Сейф-шкаф</t>
+  </si>
+  <si>
     <t>Шкаф металлический</t>
   </si>
   <si>
-    <t>Металлические шкафы с полками рольставни</t>
-  </si>
-  <si>
-    <t>Шкаф металлический - сейф</t>
-  </si>
-  <si>
-    <t>Сейф-шкаф</t>
-  </si>
-  <si>
     <t>Шкаф металлический с полками</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
   </si>
   <si>
     <t>Шкаф гардероб для раздевалки</t>
+  </si>
+  <si>
+    <t>Шкаф с ячейкми металлический</t>
+  </si>
+  <si>
+    <t>Стеллаж металлический</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -555,72 +558,6 @@
 Цвет серый
 Цена: 15000 за 1 шт.
 Количество: 18 шт
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкаф металлический
-Гардероб + полки
-Размеры ДхШхВ: 85х39х187
-Цвет: серый 
-Цена: 6 999
-Количество: 4 шт
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Металлические шкафы с полками рольставни
-Шкафы "Besley" 
-Размер
-195х100х45 - 7 штук
-Цвет светло серый и темно серый 
-Цена 15000 (со скидкой 10000)
-Размер 
-100х100х46 - 2 шт.
-Цена:8000
-Есть такие же размеры только отечественного пртизводства по 7000р за шкаф
     Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
@@ -931,6 +868,165 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Шкаф металлический
+Шкаф с 4 полками, металлический шкаф фирмы Пакс Металлик
+Размеры ДхШхВ: 85х40х186
+Цвет серый
+Цена 7000
+Количество более 3
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф металлический с полками
+Шкаф с 4 полками практик, производство России 
+Размер ДхШхВ: 91х37х173
+Цвет серый
+Цена 7 000
+Количество более 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф гардероб металлический
+Размер ДхШхВ: 80х50х168
+Цвет серый
+Цена 7 000
+Количество более 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф металлический с полками
+Шкаф с 4 полками практик, производство России 
+Размер ДхШхВ: 85х50х186
+Цвет серый
+Цена 7 000
+Количество более 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф с ячейкми металлический
+Размеры ДхШхВ: 69х22х154
+Цвет серый
+Цена 9 999
+Количество 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стеллаж металлический
+Размеры ДхШхВ: 100х50х200
+Цвет: серый
+Наличии: 3 шт
+Цена: 4 000 руб
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -976,12 +1072,6 @@
     <t>https://disk.yandex.ru/i/a2hNJgRj2EV2zg | https://disk.yandex.ru/i/rJx79clfQ2Q_VA | https://disk.yandex.ru/i/TVQ3xujppCsfPA | https://disk.yandex.ru/i/I6ANj3UQI7EGzw | https://disk.yandex.ru/i/cJ3CgRLjBSGyIA | https://disk.yandex.ru/i/f3jQh74fYUaTAA | https://disk.yandex.ru/i/DuLufl9uEOlfxg | https://disk.yandex.ru/i/GxuKa-a7rBGxJw | https://disk.yandex.ru/i/TqjB7WSVeYWIiA | https://disk.yandex.ru/i/-kkNNN1yFZLNUg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/u89o5M2Ys3kw7g | https://disk.yandex.ru/i/QuVlHZ-1LPGkNg | https://disk.yandex.ru/i/GUgtiCDs7eY5Mg | https://disk.yandex.ru/i/b85D5VmZE2GltQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/N-_DWRwJ03BqUA | https://disk.yandex.ru/i/P7M2sdAhC8M_Xw | https://disk.yandex.ru/i/yEz2Pm0kh1jQoQ | https://disk.yandex.ru/i/V19cpUPONoztaw | https://disk.yandex.ru/i/QYLtvBV8dbi5aQ | https://disk.yandex.ru/i/QWa-P2voIJFivg | https://disk.yandex.ru/i/_q-j_XxJRAEAyA | https://disk.yandex.ru/i/FuVHKv0Li7NIYA | https://disk.yandex.ru/i/wD7jccHCyUx5mg | https://disk.yandex.ru/i/XtSmg9nAsJHAmA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/mwRpXBP81D_7uA | https://disk.yandex.ru/i/Pv6fRRg7J8iSOQ | https://disk.yandex.ru/i/gs_KgygZkXOoEw | https://disk.yandex.ru/i/vAwkLEQsLKb9qQ | https://disk.yandex.ru/i/L2PWJriD0NRwWg</t>
   </si>
   <si>
@@ -1010,6 +1100,24 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/RY0dkzQMCfgbcw | https://disk.yandex.ru/i/5pTO7mVGI26_Mw | https://disk.yandex.ru/i/37HZz9J7Hlj2XQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BTy2sAoCWCCy1A | https://disk.yandex.ru/i/eYbp_kzTGtMPbA | https://disk.yandex.ru/i/URK9Yv2vu93WYg | https://disk.yandex.ru/i/_PGzukPxvzYOSw | https://disk.yandex.ru/i/qLll1WOqPVUImA | https://disk.yandex.ru/i/PNW5blZk0UyHzA | https://disk.yandex.ru/i/hlDDa5nrQxMu_A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/L-25SeK0FljU7w | https://disk.yandex.ru/i/H6FeJj3MVPheuQ | https://disk.yandex.ru/i/T55_UGDZ4HikcA | https://disk.yandex.ru/i/alXqwJeB5mbjtA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qoPiV8dMCOx9Qw | https://disk.yandex.ru/i/qAOUIL0G5lcMbw | https://disk.yandex.ru/i/ijnNC0njFe-wPA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hcCawB3y-foy2A | https://disk.yandex.ru/i/cZ5grj-gVKt9nA | https://disk.yandex.ru/i/_Tvm6aR1h3NF_w | https://disk.yandex.ru/i/AGijfPNCES-RkA | https://disk.yandex.ru/i/M4TbyMUTSxvjVw | https://disk.yandex.ru/i/VrnLs2UNoLR8iA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1143,6 +1251,15 @@
   </si>
   <si>
     <t>Кабинет | Офис | Балкон | Гостинная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1739,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AF2" t="s">
         <v>44</v>
@@ -1751,7 +1868,7 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AJ2" t="s">
         <v>44</v>
@@ -1760,16 +1877,16 @@
         <v>44</v>
       </c>
       <c r="AL2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AM2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AN2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AO2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AP2" t="s">
         <v>44</v>
@@ -1840,7 +1957,7 @@
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="W3" t="s">
         <v>43</v>
@@ -1888,7 +2005,7 @@
         <v>45</v>
       </c>
       <c r="AL3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="s">
         <v>43</v>
@@ -1900,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="AP3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -1908,52 +2025,52 @@
         <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4">
         <v>3999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AF4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AH4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AL4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM4">
         <v>55</v>
@@ -1965,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="AP4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -1973,52 +2090,52 @@
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>5499</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AF5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AH5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AL5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM5">
         <v>76</v>
@@ -2030,7 +2147,7 @@
         <v>47</v>
       </c>
       <c r="AP5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2038,52 +2155,52 @@
         <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AF6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AH6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM6">
         <v>80</v>
@@ -2095,7 +2212,7 @@
         <v>45</v>
       </c>
       <c r="AP6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2103,52 +2220,52 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>5999</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AF7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AH7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM7">
         <v>80</v>
@@ -2160,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="AP7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2168,52 +2285,52 @@
         <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <v>5999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AF8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AH8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM8">
         <v>72</v>
@@ -2225,7 +2342,7 @@
         <v>37</v>
       </c>
       <c r="AP8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2233,52 +2350,52 @@
         <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>4499</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AH9" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL9" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM9">
         <v>73</v>
@@ -2290,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="AP9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2298,52 +2415,52 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AH10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AK10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AL10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2355,7 +2472,7 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2363,52 +2480,52 @@
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N11">
         <v>11999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AH11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -2420,7 +2537,7 @@
         <v>42</v>
       </c>
       <c r="AP11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -2428,52 +2545,52 @@
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>14999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA12" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AH12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI12" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AM12">
         <v>120</v>
@@ -2485,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="AP12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -2493,52 +2610,52 @@
         <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>3999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM13">
         <v>77</v>
@@ -2550,7 +2667,7 @@
         <v>37</v>
       </c>
       <c r="AP13" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -2558,52 +2675,52 @@
         <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>5499</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI14" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ14" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK14" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM14">
         <v>77</v>
@@ -2615,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="AP14" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2623,46 +2740,46 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>7999</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC15" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AH15" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI15" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AM15">
         <v>82</v>
@@ -2674,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="AP15" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -2682,46 +2799,46 @@
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>6500</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA16" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AH16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AM16">
         <v>82</v>
@@ -2733,7 +2850,7 @@
         <v>45</v>
       </c>
       <c r="AP16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -2744,49 +2861,49 @@
         <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>15000</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA17" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC17" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH17" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI17" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AJ17" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AK17" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM17">
         <v>80</v>
@@ -2798,7 +2915,7 @@
         <v>50</v>
       </c>
       <c r="AP17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -2809,43 +2926,43 @@
         <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA18" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC18" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL18" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM18">
         <v>80</v>
@@ -2857,7 +2974,7 @@
         <v>50</v>
       </c>
       <c r="AP18" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -2868,55 +2985,55 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N19">
-        <v>6999</v>
+        <v>7500</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S19" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC19" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD19" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE19" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL19" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM19">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AN19">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO19">
         <v>39</v>
       </c>
       <c r="AP19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -2927,55 +3044,55 @@
         <v>59</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>15000</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S20" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH20" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL20" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM20">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="AN20">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AO20">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AP20" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -2986,55 +3103,55 @@
         <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N21">
-        <v>7500</v>
+        <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S21" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE21" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM21">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AN21">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AO21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AP21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3045,55 +3162,55 @@
         <v>61</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22">
-        <v>15000</v>
+        <v>6999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S22" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA22" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD22" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI22" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM22">
+        <v>45</v>
+      </c>
+      <c r="AN22">
+        <v>181</v>
+      </c>
+      <c r="AO22">
         <v>92</v>
       </c>
-      <c r="AN22">
-        <v>183</v>
-      </c>
-      <c r="AO22">
-        <v>46</v>
-      </c>
       <c r="AP22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3101,58 +3218,58 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23">
         <v>6999</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA23" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB23" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE23" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM23">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AN23">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO23">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AP23" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -3160,58 +3277,58 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N24">
         <v>6999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S24" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB24" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC24" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD24" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AH24" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI24" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL24" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM24">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN24">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO24">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AP24" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:42">
@@ -3219,58 +3336,58 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N25">
-        <v>6999</v>
+        <v>20000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM25">
         <v>120</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM25">
-        <v>83</v>
       </c>
       <c r="AN25">
         <v>183</v>
       </c>
       <c r="AO25">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AP25" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -3281,55 +3398,55 @@
         <v>64</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N26">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA26" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC26" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AH26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI26" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AM26">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AN26">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AO26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP26" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -3337,58 +3454,58 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N27">
-        <v>20000</v>
+        <v>7999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA27" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC27" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="AH27" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL27" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AM27">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN27">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="AO27">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AP27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -3396,58 +3513,58 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N28">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S28" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA28" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD28" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="AH28" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI28" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL28" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AM28">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN28">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AO28">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AP28" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:42">
@@ -3455,58 +3572,58 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29">
-        <v>7999</v>
+        <v>7000</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S29" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA29" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AB29" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AD29" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AE29" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AH29" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AI29" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AL29" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AM29">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN29">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="AO29">
         <v>40</v>
       </c>
       <c r="AP29" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -3514,58 +3631,294 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30">
+        <v>7000</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM30">
         <v>91</v>
       </c>
-      <c r="N30">
-        <v>7999</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S30" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB30" t="s">
+      <c r="AN30">
+        <v>173</v>
+      </c>
+      <c r="AO30">
+        <v>37</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31">
+        <v>7000</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="Q31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM31">
+        <v>80</v>
+      </c>
+      <c r="AN31">
+        <v>168</v>
+      </c>
+      <c r="AO31">
+        <v>50</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32">
+        <v>7000</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="Q32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM32">
+        <v>85</v>
+      </c>
+      <c r="AN32">
+        <v>186</v>
+      </c>
+      <c r="AO32">
+        <v>50</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33">
+        <v>9999</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AE30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="Q33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE33" t="s">
         <v>144</v>
       </c>
-      <c r="AI30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM30">
-        <v>90</v>
-      </c>
-      <c r="AN30">
-        <v>207</v>
-      </c>
-      <c r="AO30">
-        <v>40</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>162</v>
+      <c r="AH33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM33">
+        <v>69</v>
+      </c>
+      <c r="AN33">
+        <v>154</v>
+      </c>
+      <c r="AO33">
+        <v>22</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34">
+        <v>4000</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM34">
+        <v>100</v>
+      </c>
+      <c r="AN34">
+        <v>200</v>
+      </c>
+      <c r="AO34">
+        <v>50</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3624,6 +3977,14 @@
     <hyperlink ref="Q29" r:id="rId52"/>
     <hyperlink ref="O30" r:id="rId53"/>
     <hyperlink ref="Q30" r:id="rId54"/>
+    <hyperlink ref="O31" r:id="rId55"/>
+    <hyperlink ref="Q31" r:id="rId56"/>
+    <hyperlink ref="O32" r:id="rId57"/>
+    <hyperlink ref="Q32" r:id="rId58"/>
+    <hyperlink ref="O33" r:id="rId59"/>
+    <hyperlink ref="Q33" r:id="rId60"/>
+    <hyperlink ref="O34" r:id="rId61"/>
+    <hyperlink ref="Q34" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF027E67-93C4-4367-A77E-1D72E93CC168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -142,21 +148,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Подробнее о параметре</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
-  </si>
-  <si>
-    <t>Одно значение из выпадающего списка в ячейке</t>
-  </si>
-  <si>
-    <t>Текст</t>
-  </si>
-  <si>
     <t>Шкаф градероб</t>
   </si>
   <si>
@@ -215,6 +206,9 @@
   </si>
   <si>
     <t>Стеллаж металлический</t>
+  </si>
+  <si>
+    <t>Шкаф старинный со стеклом</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -1027,6 +1021,32 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Шкаф старинный со стеклом
+Артикул 135233ИО
+Размер ДхШхВ: 135/42/233
+Ширина карниза- 148
+Цвет: Итальянский орех 
+Цена: 40000
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+    Шкафы для документов 2499
+    Гардеробы от 4499р
+    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+    Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -1120,15 +1140,15 @@
     <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
   </si>
   <si>
+    <t>https://yadi.sk/i/MuER73qJH5-7xA | https://yadi.sk/i/LD-DX37myvp4Pg | https://yadi.sk/i/7mCOwO1leIVWVw | https://yadi.sk/i/SCREQpgYQ1_Tkg | https://yadi.sk/i/dsIdNh4_ch2hWg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
     <t>Мебель и интерьер</t>
   </si>
   <si>
-    <t>Одно или несколько значений из выпадающего списка в ячейке</t>
-  </si>
-  <si>
     <t>Шкафы, комоды и стеллажи</t>
   </si>
   <si>
@@ -1144,10 +1164,6 @@
     <t>В наличии</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
     <t>Жёлтый</t>
   </si>
   <si>
@@ -1260,13 +1276,16 @@
   </si>
   <si>
     <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Гостиная | Прихожая | Спальня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,18 +1356,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1386,9 +1413,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,9 +1447,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1454,9 +1499,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1629,14 +1692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,703 +1829,577 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2">
+        <v>3999</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM2">
+        <v>55</v>
+      </c>
+      <c r="AN2">
+        <v>211</v>
+      </c>
+      <c r="AO2">
+        <v>47</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>5499</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM3">
+        <v>76</v>
+      </c>
+      <c r="AN3">
+        <v>211</v>
+      </c>
+      <c r="AO3">
+        <v>47</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>44</v>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4">
+        <v>5999</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM4">
+        <v>80</v>
+      </c>
+      <c r="AN4">
+        <v>199</v>
+      </c>
+      <c r="AO4">
+        <v>45</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>5999</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM5">
+        <v>80</v>
+      </c>
+      <c r="AN5">
+        <v>199</v>
+      </c>
+      <c r="AO5">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AP5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
         <v>67</v>
-      </c>
-      <c r="N4">
-        <v>3999</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM4">
-        <v>55</v>
-      </c>
-      <c r="AN4">
-        <v>211</v>
-      </c>
-      <c r="AO4">
-        <v>47</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5">
-        <v>5499</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM5">
-        <v>76</v>
-      </c>
-      <c r="AN5">
-        <v>211</v>
-      </c>
-      <c r="AO5">
-        <v>47</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>69</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM6">
+        <v>72</v>
+      </c>
+      <c r="AN6">
+        <v>197</v>
+      </c>
+      <c r="AO6">
+        <v>37</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>4499</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA7" t="s">
         <v>128</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AB7" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC7" t="s">
         <v>131</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD7" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM7">
+        <v>73</v>
+      </c>
+      <c r="AN7">
+        <v>190</v>
+      </c>
+      <c r="AO7">
+        <v>37</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8">
+        <v>14999</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE8" t="s">
         <v>134</v>
       </c>
-      <c r="AD6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AF8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK8" t="s">
         <v>153</v>
       </c>
-      <c r="AI6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AL8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM8">
+        <v>120</v>
+      </c>
+      <c r="AN8">
+        <v>148</v>
+      </c>
+      <c r="AO8">
+        <v>42</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>11999</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK9" t="s">
         <v>155</v>
       </c>
-      <c r="AK6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM6">
-        <v>80</v>
-      </c>
-      <c r="AN6">
-        <v>199</v>
-      </c>
-      <c r="AO6">
-        <v>45</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>166</v>
+      <c r="AL9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM9">
+        <v>120</v>
+      </c>
+      <c r="AN9">
+        <v>110</v>
+      </c>
+      <c r="AO9">
+        <v>42</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7">
-        <v>5999</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM7">
-        <v>80</v>
-      </c>
-      <c r="AN7">
-        <v>199</v>
-      </c>
-      <c r="AO7">
-        <v>45</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
         <v>71</v>
-      </c>
-      <c r="N8">
-        <v>5999</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM8">
-        <v>72</v>
-      </c>
-      <c r="AN8">
-        <v>197</v>
-      </c>
-      <c r="AO8">
-        <v>37</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9">
-        <v>4499</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM9">
-        <v>73</v>
-      </c>
-      <c r="AN9">
-        <v>190</v>
-      </c>
-      <c r="AO9">
-        <v>37</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA10" t="s">
         <v>128</v>
       </c>
-      <c r="S10" t="s">
+      <c r="AB10" t="s">
         <v>129</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>131</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>132</v>
       </c>
-      <c r="AC10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>135</v>
-      </c>
       <c r="AE10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK10" t="s">
         <v>156</v>
       </c>
-      <c r="AK10" t="s">
-        <v>157</v>
-      </c>
       <c r="AL10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2472,866 +2411,854 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N11">
-        <v>11999</v>
+        <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM11">
+        <v>77</v>
+      </c>
+      <c r="AN11">
+        <v>200</v>
+      </c>
+      <c r="AO11">
+        <v>37</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12">
+        <v>5499</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA12" t="s">
         <v>128</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AB12" t="s">
         <v>129</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC12" t="s">
         <v>131</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD12" t="s">
         <v>132</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM11">
-        <v>120</v>
-      </c>
-      <c r="AN11">
-        <v>110</v>
-      </c>
-      <c r="AO11">
-        <v>42</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="L12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12">
-        <v>14999</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>135</v>
       </c>
       <c r="AE12" t="s">
         <v>137</v>
       </c>
       <c r="AF12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH12" t="s">
         <v>149</v>
       </c>
-      <c r="AH12" t="s">
-        <v>153</v>
-      </c>
       <c r="AI12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM12">
+        <v>77</v>
+      </c>
+      <c r="AN12">
+        <v>182</v>
+      </c>
+      <c r="AO12">
+        <v>38</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13">
+        <v>7999</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM13">
+        <v>82</v>
+      </c>
+      <c r="AN13">
+        <v>220</v>
+      </c>
+      <c r="AO13">
+        <v>45</v>
+      </c>
+      <c r="AP13" t="s">
         <v>162</v>
       </c>
-      <c r="AM12">
-        <v>120</v>
-      </c>
-      <c r="AN12">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>6500</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF14" t="s">
         <v>148</v>
       </c>
-      <c r="AO12">
-        <v>42</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>168</v>
+      <c r="AH14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM14">
+        <v>82</v>
+      </c>
+      <c r="AN14">
+        <v>220</v>
+      </c>
+      <c r="AO14">
+        <v>45</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
-      <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13">
-        <v>3999</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM13">
-        <v>77</v>
-      </c>
-      <c r="AN13">
-        <v>200</v>
-      </c>
-      <c r="AO13">
-        <v>37</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14">
-        <v>5499</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM14">
-        <v>77</v>
-      </c>
-      <c r="AN14">
-        <v>182</v>
-      </c>
-      <c r="AO14">
-        <v>38</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="L15" t="s">
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N15">
-        <v>7999</v>
+        <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM15">
+        <v>80</v>
+      </c>
+      <c r="AN15">
+        <v>182</v>
+      </c>
+      <c r="AO15">
+        <v>50</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16">
+        <v>15000</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA16" t="s">
         <v>128</v>
       </c>
-      <c r="S15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC16" t="s">
         <v>131</v>
       </c>
-      <c r="AB15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM15">
-        <v>82</v>
-      </c>
-      <c r="AN15">
-        <v>220</v>
-      </c>
-      <c r="AO15">
-        <v>45</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>166</v>
+      <c r="AD16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM16">
+        <v>80</v>
+      </c>
+      <c r="AN16">
+        <v>182</v>
+      </c>
+      <c r="AO16">
+        <v>50</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16">
-        <v>6500</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM16">
-        <v>82</v>
-      </c>
-      <c r="AN16">
-        <v>220</v>
-      </c>
-      <c r="AO16">
-        <v>45</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N17">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA17" t="s">
         <v>128</v>
       </c>
-      <c r="S17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC17" t="s">
         <v>131</v>
       </c>
-      <c r="AB17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>134</v>
-      </c>
       <c r="AD17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AL17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM17">
+        <v>44</v>
+      </c>
+      <c r="AN17">
+        <v>186</v>
+      </c>
+      <c r="AO17">
+        <v>39</v>
+      </c>
+      <c r="AP17" t="s">
         <v>164</v>
       </c>
-      <c r="AM17">
-        <v>80</v>
-      </c>
-      <c r="AN17">
-        <v>182</v>
-      </c>
-      <c r="AO17">
-        <v>50</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA18" t="s">
         <v>128</v>
       </c>
-      <c r="S18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC18" t="s">
         <v>131</v>
       </c>
-      <c r="AB18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>134</v>
-      </c>
       <c r="AD18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM18">
+        <v>92</v>
+      </c>
+      <c r="AN18">
+        <v>183</v>
+      </c>
+      <c r="AO18">
+        <v>46</v>
+      </c>
+      <c r="AP18" t="s">
         <v>164</v>
       </c>
-      <c r="AM18">
-        <v>80</v>
-      </c>
-      <c r="AN18">
-        <v>182</v>
-      </c>
-      <c r="AO18">
-        <v>50</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N19">
-        <v>7500</v>
+        <v>6999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA19" t="s">
         <v>128</v>
       </c>
-      <c r="S19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC19" t="s">
         <v>131</v>
       </c>
-      <c r="AB19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>134</v>
-      </c>
       <c r="AD19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM19">
+        <v>91</v>
+      </c>
+      <c r="AN19">
+        <v>182</v>
+      </c>
+      <c r="AO19">
+        <v>37</v>
+      </c>
+      <c r="AP19" t="s">
         <v>164</v>
       </c>
-      <c r="AM19">
-        <v>44</v>
-      </c>
-      <c r="AN19">
-        <v>186</v>
-      </c>
-      <c r="AO19">
-        <v>39</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N20">
-        <v>15000</v>
+        <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA20" t="s">
         <v>128</v>
       </c>
-      <c r="S20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC20" t="s">
         <v>131</v>
       </c>
-      <c r="AB20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>134</v>
-      </c>
       <c r="AD20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM20">
+        <v>45</v>
+      </c>
+      <c r="AN20">
+        <v>181</v>
+      </c>
+      <c r="AO20">
+        <v>92</v>
+      </c>
+      <c r="AP20" t="s">
         <v>164</v>
       </c>
-      <c r="AM20">
-        <v>92</v>
-      </c>
-      <c r="AN20">
-        <v>183</v>
-      </c>
-      <c r="AO20">
-        <v>46</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N21">
         <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA21" t="s">
         <v>128</v>
       </c>
-      <c r="S21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC21" t="s">
         <v>131</v>
       </c>
-      <c r="AB21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>134</v>
-      </c>
       <c r="AD21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM21">
+        <v>83</v>
+      </c>
+      <c r="AN21">
+        <v>183</v>
+      </c>
+      <c r="AO21">
+        <v>50</v>
+      </c>
+      <c r="AP21" t="s">
         <v>164</v>
       </c>
-      <c r="AM21">
-        <v>91</v>
-      </c>
-      <c r="AN21">
-        <v>182</v>
-      </c>
-      <c r="AO21">
-        <v>37</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N22">
         <v>6999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA22" t="s">
         <v>128</v>
       </c>
-      <c r="S22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC22" t="s">
         <v>131</v>
       </c>
-      <c r="AB22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>134</v>
-      </c>
       <c r="AD22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM22">
+        <v>81</v>
+      </c>
+      <c r="AN22">
+        <v>183</v>
+      </c>
+      <c r="AO22">
+        <v>50</v>
+      </c>
+      <c r="AP22" t="s">
         <v>164</v>
       </c>
-      <c r="AM22">
-        <v>45</v>
-      </c>
-      <c r="AN22">
-        <v>181</v>
-      </c>
-      <c r="AO22">
-        <v>92</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N23">
-        <v>6999</v>
+        <v>20000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA23" t="s">
         <v>128</v>
       </c>
-      <c r="S23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC23" t="s">
         <v>131</v>
       </c>
-      <c r="AB23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>134</v>
-      </c>
       <c r="AD23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AH23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AM23">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AN23">
         <v>183</v>
       </c>
       <c r="AO23">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AP23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N24">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA24" t="s">
         <v>128</v>
       </c>
-      <c r="S24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC24" t="s">
         <v>131</v>
       </c>
-      <c r="AB24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>134</v>
-      </c>
       <c r="AD24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AH24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AM24">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AN24">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AO24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3339,412 +3266,412 @@
         <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N25">
-        <v>20000</v>
+        <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA25" t="s">
         <v>128</v>
       </c>
-      <c r="S25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC25" t="s">
         <v>131</v>
       </c>
-      <c r="AB25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>134</v>
-      </c>
       <c r="AD25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL25" t="s">
         <v>161</v>
       </c>
       <c r="AM25">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN25">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="AO25">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AP25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N26">
-        <v>5999</v>
+        <v>7999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA26" t="s">
         <v>128</v>
       </c>
-      <c r="S26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC26" t="s">
         <v>131</v>
       </c>
-      <c r="AB26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>134</v>
-      </c>
       <c r="AD26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL26" t="s">
         <v>161</v>
       </c>
       <c r="AM26">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN26">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AO26">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AP26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N27">
-        <v>7999</v>
+        <v>7000</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA27" t="s">
         <v>128</v>
       </c>
-      <c r="S27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC27" t="s">
         <v>131</v>
       </c>
-      <c r="AB27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>134</v>
-      </c>
       <c r="AD27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AH27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AM27">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN27">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="AO27">
         <v>40</v>
       </c>
       <c r="AP27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N28">
-        <v>7999</v>
+        <v>7000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA28" t="s">
         <v>128</v>
       </c>
-      <c r="S28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC28" t="s">
         <v>131</v>
       </c>
-      <c r="AB28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>134</v>
-      </c>
       <c r="AD28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AH28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AM28">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN28">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="AO28">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>7000</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA29" t="s">
         <v>128</v>
       </c>
-      <c r="S29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC29" t="s">
         <v>131</v>
       </c>
-      <c r="AB29" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>134</v>
-      </c>
       <c r="AD29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AM29">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN29">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="AO29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N30">
         <v>7000</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA30" t="s">
         <v>128</v>
       </c>
-      <c r="S30" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC30" t="s">
         <v>131</v>
       </c>
-      <c r="AB30" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>134</v>
-      </c>
       <c r="AD30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AM30">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AN30">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AO30">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AP30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N31">
-        <v>7000</v>
+        <v>9999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA31" t="s">
         <v>128</v>
       </c>
-      <c r="S31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC31" t="s">
         <v>131</v>
       </c>
-      <c r="AB31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>134</v>
-      </c>
       <c r="AD31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM31">
+        <v>69</v>
+      </c>
+      <c r="AN31">
         <v>154</v>
       </c>
-      <c r="AL31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM31">
-        <v>80</v>
-      </c>
-      <c r="AN31">
-        <v>168</v>
-      </c>
       <c r="AO31">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3752,239 +3679,182 @@
         <v>61</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N32">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA32" t="s">
         <v>128</v>
       </c>
-      <c r="S32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC32" t="s">
         <v>131</v>
       </c>
-      <c r="AB32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>134</v>
-      </c>
       <c r="AD32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AL32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AM32">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN32">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AO32">
         <v>50</v>
       </c>
       <c r="AP32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>135233</v>
       </c>
       <c r="L33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N33">
-        <v>9999</v>
+        <v>40000</v>
       </c>
       <c r="O33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="S33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA33" t="s">
         <v>128</v>
       </c>
-      <c r="S33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC33" t="s">
         <v>131</v>
       </c>
-      <c r="AB33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>134</v>
-      </c>
       <c r="AD33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM33">
         <v>135</v>
       </c>
-      <c r="AE33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM33">
-        <v>69</v>
-      </c>
       <c r="AN33">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="AO33">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AP33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34">
-        <v>4000</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM34">
-        <v>100</v>
-      </c>
-      <c r="AN34">
-        <v>200</v>
-      </c>
-      <c r="AO34">
-        <v>50</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1"/>
-    <hyperlink ref="Q4" r:id="rId2"/>
-    <hyperlink ref="O5" r:id="rId3"/>
-    <hyperlink ref="Q5" r:id="rId4"/>
-    <hyperlink ref="O6" r:id="rId5"/>
-    <hyperlink ref="Q6" r:id="rId6"/>
-    <hyperlink ref="O7" r:id="rId7"/>
-    <hyperlink ref="Q7" r:id="rId8"/>
-    <hyperlink ref="O8" r:id="rId9"/>
-    <hyperlink ref="Q8" r:id="rId10"/>
-    <hyperlink ref="O9" r:id="rId11"/>
-    <hyperlink ref="Q9" r:id="rId12"/>
-    <hyperlink ref="O10" r:id="rId13"/>
-    <hyperlink ref="Q10" r:id="rId14"/>
-    <hyperlink ref="O11" r:id="rId15"/>
-    <hyperlink ref="Q11" r:id="rId16"/>
-    <hyperlink ref="O12" r:id="rId17"/>
-    <hyperlink ref="Q12" r:id="rId18"/>
-    <hyperlink ref="O13" r:id="rId19"/>
-    <hyperlink ref="Q13" r:id="rId20"/>
-    <hyperlink ref="O14" r:id="rId21"/>
-    <hyperlink ref="Q14" r:id="rId22"/>
-    <hyperlink ref="O15" r:id="rId23"/>
-    <hyperlink ref="Q15" r:id="rId24"/>
-    <hyperlink ref="O16" r:id="rId25"/>
-    <hyperlink ref="Q16" r:id="rId26"/>
-    <hyperlink ref="O17" r:id="rId27"/>
-    <hyperlink ref="Q17" r:id="rId28"/>
-    <hyperlink ref="O18" r:id="rId29"/>
-    <hyperlink ref="Q18" r:id="rId30"/>
-    <hyperlink ref="O19" r:id="rId31"/>
-    <hyperlink ref="Q19" r:id="rId32"/>
-    <hyperlink ref="O20" r:id="rId33"/>
-    <hyperlink ref="Q20" r:id="rId34"/>
-    <hyperlink ref="O21" r:id="rId35"/>
-    <hyperlink ref="Q21" r:id="rId36"/>
-    <hyperlink ref="O22" r:id="rId37"/>
-    <hyperlink ref="Q22" r:id="rId38"/>
-    <hyperlink ref="O23" r:id="rId39"/>
-    <hyperlink ref="Q23" r:id="rId40"/>
-    <hyperlink ref="O24" r:id="rId41"/>
-    <hyperlink ref="Q24" r:id="rId42"/>
-    <hyperlink ref="O25" r:id="rId43"/>
-    <hyperlink ref="Q25" r:id="rId44"/>
-    <hyperlink ref="O26" r:id="rId45"/>
-    <hyperlink ref="Q26" r:id="rId46"/>
-    <hyperlink ref="O27" r:id="rId47"/>
-    <hyperlink ref="Q27" r:id="rId48"/>
-    <hyperlink ref="O28" r:id="rId49"/>
-    <hyperlink ref="Q28" r:id="rId50"/>
-    <hyperlink ref="O29" r:id="rId51"/>
-    <hyperlink ref="Q29" r:id="rId52"/>
-    <hyperlink ref="O30" r:id="rId53"/>
-    <hyperlink ref="Q30" r:id="rId54"/>
-    <hyperlink ref="O31" r:id="rId55"/>
-    <hyperlink ref="Q31" r:id="rId56"/>
-    <hyperlink ref="O32" r:id="rId57"/>
-    <hyperlink ref="Q32" r:id="rId58"/>
-    <hyperlink ref="O33" r:id="rId59"/>
-    <hyperlink ref="Q33" r:id="rId60"/>
-    <hyperlink ref="O34" r:id="rId61"/>
-    <hyperlink ref="Q34" r:id="rId62"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF027E67-93C4-4367-A77E-1D72E93CC168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65326BB0-E475-4B50-A5A9-820AA636A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,209 +209,6 @@
   </si>
   <si>
     <t>Шкаф старинный со стеклом</t>
-  </si>
-  <si>
-    <t>Офисный шкаф
-Шкаф гардероб - 76х47х211
-Цена 6 000 руб
-Количество 6 шт.
-Пенал Гардероб - 55х47х211
-Цена 4 000 руб
-Количество 1 шт
-Цвет ольха
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф для документов 76х47х211
-Цена 5500 за 1 шт 
-Количество 7 шт
-Цвет ольха
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкафы офисные
-Размеры ДхШхВ: 80х45х199
-Цвет: молочный
-Гардероб -  6000 за шт. 
-Количество 2 шт. 
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкафы офисные
-Размеры ДхШхВ: 80х45х199
-Цвет: молочный
-Шкаф для документов - 6000 за шт. 
-Количество 6 шт.
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф для документов
-Размер ДхШхВ : 72х37х197
-Цвет береза
-Цена 6 000 за шт. 
-Количество 6 шт.
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкафы офисные 
-Размеры: 73х37х190
-Гардероб - 4500
-Шкаф для документов - 4500
-Шкаф со стеклом - 5500
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф с полками
-König + Neurath
-Производство Германия
-Цвет молочный. 
-Размеры шир. 120,глуб. 42,выс.148
-В наличии: 10 шт. 
-Цена: 15000 за 1 шт.
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф с полками
-König + Neurath
-Производство Германия
-Размеры шир. 120,глуб. 42,выс.110
-Цвет песок
-В наличии: 12шт
-Цена: 12000 за 1 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Шкаф с полками
@@ -439,19 +236,249 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Шкаф для документов
-Размер ДхШхВ: 76х37х200
-Цена: 4999
-Количество: 2 шт.
-Стеллаж
-Размеры ДхШхВ: 77х35х200
-Цена: 3999
-Количество: 4 шт.
+    <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA | https://disk.yandex.ru/i/wL44abqaq9_2cg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/81VFQDyqud-SxQ | https://disk.yandex.ru/i/hNHq-HzTiu0mPg | https://disk.yandex.ru/i/8QjlEm_5nxS_bQ | https://disk.yandex.ru/i/MThB10Ws5WaLMA | https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ZBakUTDh9Z70ug | https://disk.yandex.ru/i/lAYkdBaUKfXOFQ | https://disk.yandex.ru/i/pno2scnTQ4Pr2w | https://disk.yandex.ru/i/_PnJw8BfsK2zDA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/NJsCRKrUZBVYEw | https://disk.yandex.ru/i/f8154TedpGs_Qg | https://disk.yandex.ru/i/4RJCH2m7v-3EYw | https://disk.yandex.ru/i/VBxlOl6Kxr0LSw | https://disk.yandex.ru/i/JmfHVUJ1H91sbA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/71H40nwJBg0-CQ | https://disk.yandex.ru/i/WlyyZ2T2bu7IbQ | https://disk.yandex.ru/i/4aGUWS39kSyf_w | https://disk.yandex.ru/i/x70a5_MmWzgpTg | https://disk.yandex.ru/i/H1BP8nGIZtEV-w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WbOK-2QNTpSY7g | https://disk.yandex.ru/i/BeYIl-u9gm6exQ | https://disk.yandex.ru/i/w-iyVc1z170viw | https://disk.yandex.ru/i/zvMKfcG-C5d2sA | https://disk.yandex.ru/i/TDV4MX1cCZ4P5g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/tVVjI7_eTSdGMw | https://disk.yandex.ru/i/Zk1eBuD4MXgpuw | https://disk.yandex.ru/i/uO8s28ztUQjqdQ | https://disk.yandex.ru/i/G_PatPsRYtBDig | https://disk.yandex.ru/i/wOkti9o5wRZaUQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/iNDoK2ziDwkwLg | https://disk.yandex.ru/i/Q8ehq2Nk2TBssA | https://disk.yandex.ru/i/I2F7ZODx2q8hSA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UG2Qo3jQKoHnmA | https://disk.yandex.ru/i/d6TB8_uzb53Hdg | https://disk.yandex.ru/i/iwkg7pCTkgo6kA | https://disk.yandex.ru/i/KP3GsgBPZrnaEA | https://disk.yandex.ru/i/nskffv6OpTMufA | https://disk.yandex.ru/i/PUG1AXujOFOhYA | https://disk.yandex.ru/i/QpvYNSRBa7oROA | https://disk.yandex.ru/i/R9aktkXLs3yDdQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CABgHfA6S_j9fQ | https://disk.yandex.ru/i/XIJgnufwHYlitQ | https://disk.yandex.ru/i/MTtc2zJ6lC3I6g | https://disk.yandex.ru/i/aJziOtvmIX2svw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zB3yhbmYRN768w | https://disk.yandex.ru/i/CHAZlqWZWFdfzA | https://disk.yandex.ru/i/xh6vjDOUtCSfww</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/J8owPVd0w4vFHg | https://disk.yandex.ru/i/bOJbtgzNwZzDtg | https://disk.yandex.ru/i/hMzWV0v1pqeBDg | https://disk.yandex.ru/i/NgjfqINiP6j7tQ | https://disk.yandex.ru/i/1dSNkcaopm2Pqg | https://disk.yandex.ru/i/fDRjyWqat4IcRQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/a2hNJgRj2EV2zg | https://disk.yandex.ru/i/rJx79clfQ2Q_VA | https://disk.yandex.ru/i/TVQ3xujppCsfPA | https://disk.yandex.ru/i/I6ANj3UQI7EGzw | https://disk.yandex.ru/i/cJ3CgRLjBSGyIA | https://disk.yandex.ru/i/f3jQh74fYUaTAA | https://disk.yandex.ru/i/DuLufl9uEOlfxg | https://disk.yandex.ru/i/GxuKa-a7rBGxJw | https://disk.yandex.ru/i/TqjB7WSVeYWIiA | https://disk.yandex.ru/i/-kkNNN1yFZLNUg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mwRpXBP81D_7uA | https://disk.yandex.ru/i/Pv6fRRg7J8iSOQ | https://disk.yandex.ru/i/gs_KgygZkXOoEw | https://disk.yandex.ru/i/vAwkLEQsLKb9qQ | https://disk.yandex.ru/i/L2PWJriD0NRwWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xHcYLLHdubVO3A | https://disk.yandex.ru/i/tKaDLDaoyWm6AQ | https://disk.yandex.ru/i/Omiz3e01wyUrwQ | https://disk.yandex.ru/i/jQARDAyt84PsWA | https://disk.yandex.ru/i/XAISx3K7QOrDMw | https://disk.yandex.ru/i/A3KhEt2OcKaVeQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ujh1bYIelvnJ-g | https://disk.yandex.ru/i/-l-Bli_3TGw2fg | https://disk.yandex.ru/i/da6gZY1e9wJlBw | https://disk.yandex.ru/i/I6UWgIXnfORmWw | https://disk.yandex.ru/i/sd_U5U6n5zCh6Q | https://disk.yandex.ru/i/CUpNBM9KKccDlA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yVcQWqWpDKhjXg | https://disk.yandex.ru/i/93eLQct77xHOrQ | https://disk.yandex.ru/i/lKuMu5uJeTAkqw | https://disk.yandex.ru/i/xpo3Wbgw-Y_LQw | https://disk.yandex.ru/i/GphDOLsdHLarWQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/VE3LUsx2v3FGCQ | https://disk.yandex.ru/i/vFXX1V-IOzAocQ | https://disk.yandex.ru/i/gYJpAUDTO06Wog | https://disk.yandex.ru/i/5aNR0FBLqRZGHQ | https://disk.yandex.ru/i/0aMtH2UM5u87-Q | https://disk.yandex.ru/i/ysMNCkYEq-1rOQ | https://disk.yandex.ru/i/02IUuvIbM-YNLw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/A8ksDVbVMvtvAQ | https://disk.yandex.ru/i/33BJJUm1mURW-A | https://disk.yandex.ru/i/w-JN6bohZzjORQ | https://disk.yandex.ru/i/IhE6qkZfs7SBag | https://disk.yandex.ru/i/qkT61fbH_11rgQ | https://disk.yandex.ru/i/rBSDo2hJ-So7mw | https://disk.yandex.ru/i/Dh33cPcxeJ8M5A | https://disk.yandex.ru/i/H9YS7vJ12OoKPw | https://disk.yandex.ru/i/iuVFJqFivJpJmw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qMQ0Wptl_DTHFQ | https://disk.yandex.ru/i/_FJNwWSIO1sCXw | https://disk.yandex.ru/i/v5lj_p4xO9wFfw | https://disk.yandex.ru/i/iQ6P0q7Z_JuLsA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cFC6_r3GF1uc-g | https://disk.yandex.ru/i/fn7Lh08RTRAjtQ | https://disk.yandex.ru/i/-q8quW_Ch8lmSg | https://disk.yandex.ru/i/2tzE4R-Ex1VyUg | https://disk.yandex.ru/i/_CYoTWp2ZE-0VA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/K2Lv_uhL3R8vWQ | https://disk.yandex.ru/i/M677RH_OjTvOww | https://disk.yandex.ru/i/tPVASDEksAmM_A | https://disk.yandex.ru/i/xfmkipJxT60jEw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RY0dkzQMCfgbcw | https://disk.yandex.ru/i/5pTO7mVGI26_Mw | https://disk.yandex.ru/i/37HZz9J7Hlj2XQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BTy2sAoCWCCy1A | https://disk.yandex.ru/i/eYbp_kzTGtMPbA | https://disk.yandex.ru/i/URK9Yv2vu93WYg | https://disk.yandex.ru/i/_PGzukPxvzYOSw | https://disk.yandex.ru/i/qLll1WOqPVUImA | https://disk.yandex.ru/i/PNW5blZk0UyHzA | https://disk.yandex.ru/i/hlDDa5nrQxMu_A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/L-25SeK0FljU7w | https://disk.yandex.ru/i/H6FeJj3MVPheuQ | https://disk.yandex.ru/i/T55_UGDZ4HikcA | https://disk.yandex.ru/i/alXqwJeB5mbjtA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qoPiV8dMCOx9Qw | https://disk.yandex.ru/i/qAOUIL0G5lcMbw | https://disk.yandex.ru/i/ijnNC0njFe-wPA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hcCawB3y-foy2A | https://disk.yandex.ru/i/cZ5grj-gVKt9nA | https://disk.yandex.ru/i/_Tvm6aR1h3NF_w | https://disk.yandex.ru/i/AGijfPNCES-RkA | https://disk.yandex.ru/i/M4TbyMUTSxvjVw | https://disk.yandex.ru/i/VrnLs2UNoLR8iA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/MuER73qJH5-7xA | https://yadi.sk/i/LD-DX37myvp4Pg | https://yadi.sk/i/7mCOwO1leIVWVw | https://yadi.sk/i/SCREQpgYQ1_Tkg | https://yadi.sk/i/dsIdNh4_ch2hWg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Шкафы, комоды и стеллажи</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Ольха</t>
+  </si>
+  <si>
+    <t>Береза</t>
+  </si>
+  <si>
+    <t>Клен</t>
+  </si>
+  <si>
+    <t>Груша</t>
+  </si>
+  <si>
+    <t>Дуб сонома</t>
+  </si>
+  <si>
+    <t>Венге</t>
+  </si>
+  <si>
+    <t>Берёза</t>
+  </si>
+  <si>
+    <t>Шкафы и буфеты</t>
+  </si>
+  <si>
+    <t>Шкаф</t>
+  </si>
+  <si>
+    <t>Распашные</t>
+  </si>
+  <si>
+    <t>Купе</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>МДФ | Металл | Пластик</t>
+  </si>
+  <si>
+    <t>МДФ</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>МДФ | ДСП</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая | Спальня | Гостинная</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон</t>
+  </si>
+  <si>
+    <t>Балкон</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Гостинная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Гостиная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Офисный шкаф
+Шкаф гардероб - 76х47х211
+Цена 6 000 руб
+Количество 6 шт.
+Пенал Гардероб - 55х47х211
+Цена 4 000 руб
+Количество 1 шт
+Цвет ольха
 Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
@@ -465,15 +492,11 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Шкаф гардероб
-Размеры: 77х38х182
-Цвет: венге
-Цена: 5499 - 7999 (в зависимости от размера)
+    <t>Шкаф для документов 76х47х211
+Цена 5500 за 1 шт 
+Количество 7 шт
+Цвет ольха
 Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
@@ -490,6 +513,201 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Шкафы офисные
+Размеры ДхШхВ: 80х45х199
+Цвет: молочный
+Гардероб -  6000 за шт. 
+Количество 2 шт. 
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкафы офисные
+Размеры ДхШхВ: 80х45х199
+Цвет: молочный
+Шкаф для документов - 6000 за шт. 
+Количество 6 шт.
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф для документов
+Размер ДхШхВ : 72х37х197
+Цвет береза
+Цена 6 000 за шт. 
+Количество 6 шт.
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкафы офисные 
+Размеры: 73х37х190
+Гардероб - 4500
+Шкаф для документов - 4500
+Шкаф со стеклом - 5500
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф с полками
+König + Neurath
+Производство Германия
+Цвет молочный. 
+Размеры шир. 120,глуб. 42,выс.148
+В наличии: 10 шт. 
+Цена: 15000 за 1 шт.
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф старинный со стеклом
+Артикул 135233ИО
+Размер ДхШхВ: 135/42/233
+Ширина карниза- 148
+Цвет: Итальянский орех 
+Цена: 40000
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф с полками
+König + Neurath
+Производство Германия
+Размеры шир. 120,глуб. 42,выс.110
+Цвет песок
+В наличии: 12шт
+Цена: 12000 за 1 шт.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф для документов
+Размер ДхШхВ: 76х37х200
+Цена: 4999
+Количество: 2 шт.
+Стеллаж
+Размеры ДхШхВ: 77х35х200
+Цена: 3999
+Количество: 4 шт.
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф гардероб
+Размеры: 77х38х182
+Цвет: венге
+Цена: 5499 - 7999 (в зависимости от размера)
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Шкаф офисный
 Цвет берёза. Есть несколько оттеноков тёмных и светлых
 Шкафы для документов со стеклом
@@ -502,10 +720,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
@@ -528,11 +742,7 @@
     Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.    
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
@@ -556,10 +766,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
     🔥 Система больших скидок действует при опте и в праздничные дни 
     ✔ Самовывоз
@@ -588,10 +794,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
     🔥 Система больших скидок действует при опте и в праздничные дни 
     ✔ Самовывоз
@@ -619,10 +821,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
     🔥 Система больших скидок действует при опте и в праздничные дни 
     ✔ Самовывоз
@@ -650,10 +848,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -676,10 +870,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
     🔥 Система больших скидок действует при опте и в праздничные дни 
     ✔ Самовывоз
@@ -706,10 +896,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -733,10 +919,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -759,10 +941,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
     🔥 Система больших скидок действует при опте и в праздничные дни 
     ✔ Самовывоз
@@ -789,10 +967,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
     🔥 Система больших скидок действует при опте и в праздничные дни 
     ✔ Самовывоз
@@ -819,10 +993,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -845,10 +1015,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -872,10 +1038,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -899,10 +1061,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -925,10 +1083,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -952,10 +1106,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -978,10 +1128,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -1004,10 +1150,6 @@
     Все шкафы собраны и доступны для осмотра и оценки состояния. 
     Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
     дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
@@ -1019,266 +1161,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф старинный со стеклом
-Артикул 135233ИО
-Размер ДхШхВ: 135/42/233
-Ширина карниза- 148
-Цвет: Итальянский орех 
-Цена: 40000
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-    Шкафы для документов 2499
-    Гардеробы от 4499р
-    Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-    Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA | https://disk.yandex.ru/i/wL44abqaq9_2cg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/81VFQDyqud-SxQ | https://disk.yandex.ru/i/hNHq-HzTiu0mPg | https://disk.yandex.ru/i/8QjlEm_5nxS_bQ | https://disk.yandex.ru/i/MThB10Ws5WaLMA | https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ZBakUTDh9Z70ug | https://disk.yandex.ru/i/lAYkdBaUKfXOFQ | https://disk.yandex.ru/i/pno2scnTQ4Pr2w | https://disk.yandex.ru/i/_PnJw8BfsK2zDA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/NJsCRKrUZBVYEw | https://disk.yandex.ru/i/f8154TedpGs_Qg | https://disk.yandex.ru/i/4RJCH2m7v-3EYw | https://disk.yandex.ru/i/VBxlOl6Kxr0LSw | https://disk.yandex.ru/i/JmfHVUJ1H91sbA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/71H40nwJBg0-CQ | https://disk.yandex.ru/i/WlyyZ2T2bu7IbQ | https://disk.yandex.ru/i/4aGUWS39kSyf_w | https://disk.yandex.ru/i/x70a5_MmWzgpTg | https://disk.yandex.ru/i/H1BP8nGIZtEV-w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/WbOK-2QNTpSY7g | https://disk.yandex.ru/i/BeYIl-u9gm6exQ | https://disk.yandex.ru/i/w-iyVc1z170viw | https://disk.yandex.ru/i/zvMKfcG-C5d2sA | https://disk.yandex.ru/i/TDV4MX1cCZ4P5g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/tVVjI7_eTSdGMw | https://disk.yandex.ru/i/Zk1eBuD4MXgpuw | https://disk.yandex.ru/i/uO8s28ztUQjqdQ | https://disk.yandex.ru/i/G_PatPsRYtBDig | https://disk.yandex.ru/i/wOkti9o5wRZaUQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/iNDoK2ziDwkwLg | https://disk.yandex.ru/i/Q8ehq2Nk2TBssA | https://disk.yandex.ru/i/I2F7ZODx2q8hSA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UG2Qo3jQKoHnmA | https://disk.yandex.ru/i/d6TB8_uzb53Hdg | https://disk.yandex.ru/i/iwkg7pCTkgo6kA | https://disk.yandex.ru/i/KP3GsgBPZrnaEA | https://disk.yandex.ru/i/nskffv6OpTMufA | https://disk.yandex.ru/i/PUG1AXujOFOhYA | https://disk.yandex.ru/i/QpvYNSRBa7oROA | https://disk.yandex.ru/i/R9aktkXLs3yDdQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CABgHfA6S_j9fQ | https://disk.yandex.ru/i/XIJgnufwHYlitQ | https://disk.yandex.ru/i/MTtc2zJ6lC3I6g | https://disk.yandex.ru/i/aJziOtvmIX2svw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/zB3yhbmYRN768w | https://disk.yandex.ru/i/CHAZlqWZWFdfzA | https://disk.yandex.ru/i/xh6vjDOUtCSfww</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/J8owPVd0w4vFHg | https://disk.yandex.ru/i/bOJbtgzNwZzDtg | https://disk.yandex.ru/i/hMzWV0v1pqeBDg | https://disk.yandex.ru/i/NgjfqINiP6j7tQ | https://disk.yandex.ru/i/1dSNkcaopm2Pqg | https://disk.yandex.ru/i/fDRjyWqat4IcRQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/a2hNJgRj2EV2zg | https://disk.yandex.ru/i/rJx79clfQ2Q_VA | https://disk.yandex.ru/i/TVQ3xujppCsfPA | https://disk.yandex.ru/i/I6ANj3UQI7EGzw | https://disk.yandex.ru/i/cJ3CgRLjBSGyIA | https://disk.yandex.ru/i/f3jQh74fYUaTAA | https://disk.yandex.ru/i/DuLufl9uEOlfxg | https://disk.yandex.ru/i/GxuKa-a7rBGxJw | https://disk.yandex.ru/i/TqjB7WSVeYWIiA | https://disk.yandex.ru/i/-kkNNN1yFZLNUg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/mwRpXBP81D_7uA | https://disk.yandex.ru/i/Pv6fRRg7J8iSOQ | https://disk.yandex.ru/i/gs_KgygZkXOoEw | https://disk.yandex.ru/i/vAwkLEQsLKb9qQ | https://disk.yandex.ru/i/L2PWJriD0NRwWg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/xHcYLLHdubVO3A | https://disk.yandex.ru/i/tKaDLDaoyWm6AQ | https://disk.yandex.ru/i/Omiz3e01wyUrwQ | https://disk.yandex.ru/i/jQARDAyt84PsWA | https://disk.yandex.ru/i/XAISx3K7QOrDMw | https://disk.yandex.ru/i/A3KhEt2OcKaVeQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ujh1bYIelvnJ-g | https://disk.yandex.ru/i/-l-Bli_3TGw2fg | https://disk.yandex.ru/i/da6gZY1e9wJlBw | https://disk.yandex.ru/i/I6UWgIXnfORmWw | https://disk.yandex.ru/i/sd_U5U6n5zCh6Q | https://disk.yandex.ru/i/CUpNBM9KKccDlA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yVcQWqWpDKhjXg | https://disk.yandex.ru/i/93eLQct77xHOrQ | https://disk.yandex.ru/i/lKuMu5uJeTAkqw | https://disk.yandex.ru/i/xpo3Wbgw-Y_LQw | https://disk.yandex.ru/i/GphDOLsdHLarWQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/VE3LUsx2v3FGCQ | https://disk.yandex.ru/i/vFXX1V-IOzAocQ | https://disk.yandex.ru/i/gYJpAUDTO06Wog | https://disk.yandex.ru/i/5aNR0FBLqRZGHQ | https://disk.yandex.ru/i/0aMtH2UM5u87-Q | https://disk.yandex.ru/i/ysMNCkYEq-1rOQ | https://disk.yandex.ru/i/02IUuvIbM-YNLw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/A8ksDVbVMvtvAQ | https://disk.yandex.ru/i/33BJJUm1mURW-A | https://disk.yandex.ru/i/w-JN6bohZzjORQ | https://disk.yandex.ru/i/IhE6qkZfs7SBag | https://disk.yandex.ru/i/qkT61fbH_11rgQ | https://disk.yandex.ru/i/rBSDo2hJ-So7mw | https://disk.yandex.ru/i/Dh33cPcxeJ8M5A | https://disk.yandex.ru/i/H9YS7vJ12OoKPw | https://disk.yandex.ru/i/iuVFJqFivJpJmw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qMQ0Wptl_DTHFQ | https://disk.yandex.ru/i/_FJNwWSIO1sCXw | https://disk.yandex.ru/i/v5lj_p4xO9wFfw | https://disk.yandex.ru/i/iQ6P0q7Z_JuLsA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/cFC6_r3GF1uc-g | https://disk.yandex.ru/i/fn7Lh08RTRAjtQ | https://disk.yandex.ru/i/-q8quW_Ch8lmSg | https://disk.yandex.ru/i/2tzE4R-Ex1VyUg | https://disk.yandex.ru/i/_CYoTWp2ZE-0VA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/K2Lv_uhL3R8vWQ | https://disk.yandex.ru/i/M677RH_OjTvOww | https://disk.yandex.ru/i/tPVASDEksAmM_A | https://disk.yandex.ru/i/xfmkipJxT60jEw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/RY0dkzQMCfgbcw | https://disk.yandex.ru/i/5pTO7mVGI26_Mw | https://disk.yandex.ru/i/37HZz9J7Hlj2XQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BTy2sAoCWCCy1A | https://disk.yandex.ru/i/eYbp_kzTGtMPbA | https://disk.yandex.ru/i/URK9Yv2vu93WYg | https://disk.yandex.ru/i/_PGzukPxvzYOSw | https://disk.yandex.ru/i/qLll1WOqPVUImA | https://disk.yandex.ru/i/PNW5blZk0UyHzA | https://disk.yandex.ru/i/hlDDa5nrQxMu_A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/L-25SeK0FljU7w | https://disk.yandex.ru/i/H6FeJj3MVPheuQ | https://disk.yandex.ru/i/T55_UGDZ4HikcA | https://disk.yandex.ru/i/alXqwJeB5mbjtA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qoPiV8dMCOx9Qw | https://disk.yandex.ru/i/qAOUIL0G5lcMbw | https://disk.yandex.ru/i/ijnNC0njFe-wPA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/hcCawB3y-foy2A | https://disk.yandex.ru/i/cZ5grj-gVKt9nA | https://disk.yandex.ru/i/_Tvm6aR1h3NF_w | https://disk.yandex.ru/i/AGijfPNCES-RkA | https://disk.yandex.ru/i/M4TbyMUTSxvjVw | https://disk.yandex.ru/i/VrnLs2UNoLR8iA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/MuER73qJH5-7xA | https://yadi.sk/i/LD-DX37myvp4Pg | https://yadi.sk/i/7mCOwO1leIVWVw | https://yadi.sk/i/SCREQpgYQ1_Tkg | https://yadi.sk/i/dsIdNh4_ch2hWg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Шкафы, комоды и стеллажи</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Ольха</t>
-  </si>
-  <si>
-    <t>Береза</t>
-  </si>
-  <si>
-    <t>Клен</t>
-  </si>
-  <si>
-    <t>Груша</t>
-  </si>
-  <si>
-    <t>Дуб сонома</t>
-  </si>
-  <si>
-    <t>Венге</t>
-  </si>
-  <si>
-    <t>Берёза</t>
-  </si>
-  <si>
-    <t>Шкафы и буфеты</t>
-  </si>
-  <si>
-    <t>Шкаф</t>
-  </si>
-  <si>
-    <t>Распашные</t>
-  </si>
-  <si>
-    <t>Купе</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>МДФ | Металл | Пластик</t>
-  </si>
-  <si>
-    <t>МДФ</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>МДФ | ДСП</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Прихожая | Спальня | Гостинная</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон</t>
-  </si>
-  <si>
-    <t>Балкон</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Гостинная | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Офис | Балкон | Прихожая</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Прихожая</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Гостиная | Прихожая | Спальня</t>
   </si>
 </sst>
 </file>
@@ -1348,12 +1230,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1695,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,57 +1714,57 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
-        <v>63</v>
+      <c r="M2" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="N2">
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL2" t="s">
         <v>127</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>157</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1891,60 +1776,60 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" t="s">
-        <v>64</v>
+      <c r="M3" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="N3">
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" t="s">
         <v>127</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>157</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1956,60 +1841,60 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
-        <v>65</v>
+      <c r="M4" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="N4">
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL4" t="s">
         <v>127</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>157</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -2021,60 +1906,60 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
-        <v>66</v>
+      <c r="M5" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="N5">
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="AA5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL5" t="s">
         <v>127</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>157</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -2086,60 +1971,60 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" t="s">
-        <v>67</v>
+      <c r="M6" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="AB6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL6" t="s">
         <v>127</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>157</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2151,60 +2036,60 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" t="s">
-        <v>68</v>
+      <c r="M7" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="N7">
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AC7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL7" t="s">
         <v>127</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>157</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2216,60 +2101,60 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" t="s">
-        <v>69</v>
+      <c r="M8" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="N8">
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL8" t="s">
         <v>128</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>158</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2281,60 +2166,60 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>48</v>
       </c>
-      <c r="M9" t="s">
-        <v>70</v>
+      <c r="M9" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="N9">
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC9" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL9" t="s">
         <v>128</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>158</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2346,60 +2231,60 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="M10" t="s">
-        <v>71</v>
+      <c r="M10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD10" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="AE10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK10" t="s">
         <v>126</v>
       </c>
-      <c r="S10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AL10" t="s">
         <v>128</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>158</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2411,60 +2296,60 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" t="s">
-        <v>72</v>
+      <c r="M11" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL11" t="s">
         <v>127</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>157</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2476,60 +2361,60 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>50</v>
       </c>
-      <c r="M12" t="s">
-        <v>73</v>
+      <c r="M12" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="N12">
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL12" t="s">
         <v>127</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>157</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2541,54 +2426,54 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>47</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
+      <c r="M13" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA13" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB13" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AC13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="AD13" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="AE13" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AH13" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="AI13" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2600,54 +2485,54 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>51</v>
       </c>
-      <c r="M14" t="s">
-        <v>75</v>
+      <c r="M14" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="N14">
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA14" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AC14" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="AD14" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="AE14" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AH14" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="AI14" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL14" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2659,60 +2544,60 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>52</v>
       </c>
-      <c r="M15" t="s">
-        <v>76</v>
+      <c r="M15" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="N15">
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S15" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA15" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL15" t="s">
         <v>130</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>160</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2724,54 +2609,54 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>52</v>
       </c>
-      <c r="M16" t="s">
-        <v>76</v>
+      <c r="M16" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA16" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL16" t="s">
         <v>130</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>160</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2783,54 +2668,54 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="M17" t="s">
-        <v>77</v>
+      <c r="M17" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S17" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA17" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL17" t="s">
         <v>130</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>160</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2842,54 +2727,54 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>54</v>
       </c>
-      <c r="M18" t="s">
-        <v>78</v>
+      <c r="M18" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE18" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AH18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL18" t="s">
         <v>130</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>160</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2901,54 +2786,54 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>55</v>
       </c>
-      <c r="M19" t="s">
-        <v>79</v>
+      <c r="M19" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="N19">
         <v>6999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S19" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA19" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL19" t="s">
         <v>130</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>160</v>
       </c>
       <c r="AM19">
         <v>91</v>
@@ -2960,54 +2845,54 @@
         <v>37</v>
       </c>
       <c r="AP19" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>56</v>
       </c>
-      <c r="M20" t="s">
-        <v>80</v>
+      <c r="M20" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="N20">
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S20" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA20" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL20" t="s">
         <v>130</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>160</v>
       </c>
       <c r="AM20">
         <v>45</v>
@@ -3019,54 +2904,54 @@
         <v>92</v>
       </c>
       <c r="AP20" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>57</v>
       </c>
-      <c r="M21" t="s">
-        <v>81</v>
+      <c r="M21" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="N21">
         <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S21" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA21" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL21" t="s">
         <v>130</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>160</v>
       </c>
       <c r="AM21">
         <v>83</v>
@@ -3078,54 +2963,54 @@
         <v>50</v>
       </c>
       <c r="AP21" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>58</v>
       </c>
-      <c r="M22" t="s">
-        <v>82</v>
+      <c r="M22" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="N22">
         <v>6999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S22" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA22" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL22" t="s">
         <v>130</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>160</v>
       </c>
       <c r="AM22">
         <v>81</v>
@@ -3137,54 +3022,54 @@
         <v>50</v>
       </c>
       <c r="AP22" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>46</v>
       </c>
-      <c r="M23" t="s">
-        <v>83</v>
+      <c r="M23" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="N23">
         <v>20000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL23" t="s">
         <v>127</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>157</v>
       </c>
       <c r="AM23">
         <v>120</v>
@@ -3196,54 +3081,54 @@
         <v>43</v>
       </c>
       <c r="AP23" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>59</v>
       </c>
-      <c r="M24" t="s">
-        <v>84</v>
+      <c r="M24" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="N24">
         <v>5999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL24" t="s">
         <v>127</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>157</v>
       </c>
       <c r="AM24">
         <v>60</v>
@@ -3255,54 +3140,54 @@
         <v>60</v>
       </c>
       <c r="AP24" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>51</v>
       </c>
-      <c r="M25" t="s">
-        <v>85</v>
+      <c r="M25" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="N25">
         <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S25" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA25" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB25" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AC25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL25" t="s">
         <v>131</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>161</v>
       </c>
       <c r="AM25">
         <v>90</v>
@@ -3314,54 +3199,54 @@
         <v>40</v>
       </c>
       <c r="AP25" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>43</v>
       </c>
-      <c r="M26" t="s">
-        <v>86</v>
+      <c r="M26" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="N26">
         <v>7999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S26" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA26" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB26" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AC26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL26" t="s">
         <v>131</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>161</v>
       </c>
       <c r="AM26">
         <v>90</v>
@@ -3373,54 +3258,54 @@
         <v>40</v>
       </c>
       <c r="AP26" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>55</v>
       </c>
-      <c r="M27" t="s">
-        <v>87</v>
+      <c r="M27" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="N27">
         <v>7000</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH27" t="s">
         <v>119</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AI27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL27" t="s">
         <v>130</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>160</v>
       </c>
       <c r="AM27">
         <v>85</v>
@@ -3432,54 +3317,54 @@
         <v>40</v>
       </c>
       <c r="AP27" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>56</v>
       </c>
-      <c r="M28" t="s">
-        <v>88</v>
+      <c r="M28" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="N28">
         <v>7000</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI28" t="s">
         <v>120</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="AL28" t="s">
         <v>130</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>160</v>
       </c>
       <c r="AM28">
         <v>91</v>
@@ -3491,54 +3376,54 @@
         <v>37</v>
       </c>
       <c r="AP28" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>57</v>
       </c>
-      <c r="M29" t="s">
-        <v>89</v>
+      <c r="M29" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="N29">
         <v>7000</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S29" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA29" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL29" t="s">
         <v>130</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>160</v>
       </c>
       <c r="AM29">
         <v>80</v>
@@ -3550,54 +3435,54 @@
         <v>50</v>
       </c>
       <c r="AP29" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>56</v>
       </c>
-      <c r="M30" t="s">
-        <v>90</v>
+      <c r="M30" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="N30">
         <v>7000</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S30" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA30" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL30" t="s">
         <v>130</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>160</v>
       </c>
       <c r="AM30">
         <v>85</v>
@@ -3609,54 +3494,54 @@
         <v>50</v>
       </c>
       <c r="AP30" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>60</v>
       </c>
-      <c r="M31" t="s">
-        <v>91</v>
+      <c r="M31" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="N31">
         <v>9999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S31" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA31" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL31" t="s">
         <v>130</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>160</v>
       </c>
       <c r="AM31">
         <v>69</v>
@@ -3668,54 +3553,54 @@
         <v>22</v>
       </c>
       <c r="AP31" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>61</v>
       </c>
-      <c r="M32" t="s">
-        <v>92</v>
+      <c r="M32" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N32">
         <v>4000</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S32" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AA32" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AB32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL32" t="s">
         <v>130</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>160</v>
       </c>
       <c r="AM32">
         <v>100</v>
@@ -3727,54 +3612,54 @@
         <v>50</v>
       </c>
       <c r="AP32" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>135233</v>
       </c>
       <c r="L33" t="s">
         <v>62</v>
       </c>
-      <c r="M33" t="s">
-        <v>93</v>
+      <c r="M33" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="N33">
         <v>40000</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="S33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL33" t="s">
         <v>127</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>157</v>
       </c>
       <c r="AM33">
         <v>135</v>
@@ -3786,7 +3671,7 @@
         <v>42</v>
       </c>
       <c r="AP33" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65326BB0-E475-4B50-A5A9-820AA636A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594CBA7-78F5-4033-A5B4-B7341C0E49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="180">
   <si>
     <t>Id</t>
   </si>
@@ -148,6 +148,9 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Шкаф градероб</t>
   </si>
   <si>
@@ -211,263 +214,10 @@
     <t>Шкаф старинный со стеклом</t>
   </si>
   <si>
-    <t>Шкаф с полками
-König + Neurath
-Производство Германия
-Размеры шир. 120,глуб. 42,выс.148
-Цвет: песок
-В наличии: 5 шт. 
-Цена: 15000 за 1 шт.
-Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Шкафы для документов 2499
-Гардеробы от 4499р
-Шкафы с небольшими изъянами и открытые стеллажи от 2499р
-Железный с полочками 9999
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA | https://disk.yandex.ru/i/wL44abqaq9_2cg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/81VFQDyqud-SxQ | https://disk.yandex.ru/i/hNHq-HzTiu0mPg | https://disk.yandex.ru/i/8QjlEm_5nxS_bQ | https://disk.yandex.ru/i/MThB10Ws5WaLMA | https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ZBakUTDh9Z70ug | https://disk.yandex.ru/i/lAYkdBaUKfXOFQ | https://disk.yandex.ru/i/pno2scnTQ4Pr2w | https://disk.yandex.ru/i/_PnJw8BfsK2zDA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/NJsCRKrUZBVYEw | https://disk.yandex.ru/i/f8154TedpGs_Qg | https://disk.yandex.ru/i/4RJCH2m7v-3EYw | https://disk.yandex.ru/i/VBxlOl6Kxr0LSw | https://disk.yandex.ru/i/JmfHVUJ1H91sbA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/71H40nwJBg0-CQ | https://disk.yandex.ru/i/WlyyZ2T2bu7IbQ | https://disk.yandex.ru/i/4aGUWS39kSyf_w | https://disk.yandex.ru/i/x70a5_MmWzgpTg | https://disk.yandex.ru/i/H1BP8nGIZtEV-w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/WbOK-2QNTpSY7g | https://disk.yandex.ru/i/BeYIl-u9gm6exQ | https://disk.yandex.ru/i/w-iyVc1z170viw | https://disk.yandex.ru/i/zvMKfcG-C5d2sA | https://disk.yandex.ru/i/TDV4MX1cCZ4P5g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/tVVjI7_eTSdGMw | https://disk.yandex.ru/i/Zk1eBuD4MXgpuw | https://disk.yandex.ru/i/uO8s28ztUQjqdQ | https://disk.yandex.ru/i/G_PatPsRYtBDig | https://disk.yandex.ru/i/wOkti9o5wRZaUQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/iNDoK2ziDwkwLg | https://disk.yandex.ru/i/Q8ehq2Nk2TBssA | https://disk.yandex.ru/i/I2F7ZODx2q8hSA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UG2Qo3jQKoHnmA | https://disk.yandex.ru/i/d6TB8_uzb53Hdg | https://disk.yandex.ru/i/iwkg7pCTkgo6kA | https://disk.yandex.ru/i/KP3GsgBPZrnaEA | https://disk.yandex.ru/i/nskffv6OpTMufA | https://disk.yandex.ru/i/PUG1AXujOFOhYA | https://disk.yandex.ru/i/QpvYNSRBa7oROA | https://disk.yandex.ru/i/R9aktkXLs3yDdQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CABgHfA6S_j9fQ | https://disk.yandex.ru/i/XIJgnufwHYlitQ | https://disk.yandex.ru/i/MTtc2zJ6lC3I6g | https://disk.yandex.ru/i/aJziOtvmIX2svw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/zB3yhbmYRN768w | https://disk.yandex.ru/i/CHAZlqWZWFdfzA | https://disk.yandex.ru/i/xh6vjDOUtCSfww</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/J8owPVd0w4vFHg | https://disk.yandex.ru/i/bOJbtgzNwZzDtg | https://disk.yandex.ru/i/hMzWV0v1pqeBDg | https://disk.yandex.ru/i/NgjfqINiP6j7tQ | https://disk.yandex.ru/i/1dSNkcaopm2Pqg | https://disk.yandex.ru/i/fDRjyWqat4IcRQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/a2hNJgRj2EV2zg | https://disk.yandex.ru/i/rJx79clfQ2Q_VA | https://disk.yandex.ru/i/TVQ3xujppCsfPA | https://disk.yandex.ru/i/I6ANj3UQI7EGzw | https://disk.yandex.ru/i/cJ3CgRLjBSGyIA | https://disk.yandex.ru/i/f3jQh74fYUaTAA | https://disk.yandex.ru/i/DuLufl9uEOlfxg | https://disk.yandex.ru/i/GxuKa-a7rBGxJw | https://disk.yandex.ru/i/TqjB7WSVeYWIiA | https://disk.yandex.ru/i/-kkNNN1yFZLNUg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/mwRpXBP81D_7uA | https://disk.yandex.ru/i/Pv6fRRg7J8iSOQ | https://disk.yandex.ru/i/gs_KgygZkXOoEw | https://disk.yandex.ru/i/vAwkLEQsLKb9qQ | https://disk.yandex.ru/i/L2PWJriD0NRwWg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/xHcYLLHdubVO3A | https://disk.yandex.ru/i/tKaDLDaoyWm6AQ | https://disk.yandex.ru/i/Omiz3e01wyUrwQ | https://disk.yandex.ru/i/jQARDAyt84PsWA | https://disk.yandex.ru/i/XAISx3K7QOrDMw | https://disk.yandex.ru/i/A3KhEt2OcKaVeQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ujh1bYIelvnJ-g | https://disk.yandex.ru/i/-l-Bli_3TGw2fg | https://disk.yandex.ru/i/da6gZY1e9wJlBw | https://disk.yandex.ru/i/I6UWgIXnfORmWw | https://disk.yandex.ru/i/sd_U5U6n5zCh6Q | https://disk.yandex.ru/i/CUpNBM9KKccDlA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yVcQWqWpDKhjXg | https://disk.yandex.ru/i/93eLQct77xHOrQ | https://disk.yandex.ru/i/lKuMu5uJeTAkqw | https://disk.yandex.ru/i/xpo3Wbgw-Y_LQw | https://disk.yandex.ru/i/GphDOLsdHLarWQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/VE3LUsx2v3FGCQ | https://disk.yandex.ru/i/vFXX1V-IOzAocQ | https://disk.yandex.ru/i/gYJpAUDTO06Wog | https://disk.yandex.ru/i/5aNR0FBLqRZGHQ | https://disk.yandex.ru/i/0aMtH2UM5u87-Q | https://disk.yandex.ru/i/ysMNCkYEq-1rOQ | https://disk.yandex.ru/i/02IUuvIbM-YNLw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/A8ksDVbVMvtvAQ | https://disk.yandex.ru/i/33BJJUm1mURW-A | https://disk.yandex.ru/i/w-JN6bohZzjORQ | https://disk.yandex.ru/i/IhE6qkZfs7SBag | https://disk.yandex.ru/i/qkT61fbH_11rgQ | https://disk.yandex.ru/i/rBSDo2hJ-So7mw | https://disk.yandex.ru/i/Dh33cPcxeJ8M5A | https://disk.yandex.ru/i/H9YS7vJ12OoKPw | https://disk.yandex.ru/i/iuVFJqFivJpJmw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qMQ0Wptl_DTHFQ | https://disk.yandex.ru/i/_FJNwWSIO1sCXw | https://disk.yandex.ru/i/v5lj_p4xO9wFfw | https://disk.yandex.ru/i/iQ6P0q7Z_JuLsA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/cFC6_r3GF1uc-g | https://disk.yandex.ru/i/fn7Lh08RTRAjtQ | https://disk.yandex.ru/i/-q8quW_Ch8lmSg | https://disk.yandex.ru/i/2tzE4R-Ex1VyUg | https://disk.yandex.ru/i/_CYoTWp2ZE-0VA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/K2Lv_uhL3R8vWQ | https://disk.yandex.ru/i/M677RH_OjTvOww | https://disk.yandex.ru/i/tPVASDEksAmM_A | https://disk.yandex.ru/i/xfmkipJxT60jEw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/RY0dkzQMCfgbcw | https://disk.yandex.ru/i/5pTO7mVGI26_Mw | https://disk.yandex.ru/i/37HZz9J7Hlj2XQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BTy2sAoCWCCy1A | https://disk.yandex.ru/i/eYbp_kzTGtMPbA | https://disk.yandex.ru/i/URK9Yv2vu93WYg | https://disk.yandex.ru/i/_PGzukPxvzYOSw | https://disk.yandex.ru/i/qLll1WOqPVUImA | https://disk.yandex.ru/i/PNW5blZk0UyHzA | https://disk.yandex.ru/i/hlDDa5nrQxMu_A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/L-25SeK0FljU7w | https://disk.yandex.ru/i/H6FeJj3MVPheuQ | https://disk.yandex.ru/i/T55_UGDZ4HikcA | https://disk.yandex.ru/i/alXqwJeB5mbjtA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qoPiV8dMCOx9Qw | https://disk.yandex.ru/i/qAOUIL0G5lcMbw | https://disk.yandex.ru/i/ijnNC0njFe-wPA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/hcCawB3y-foy2A | https://disk.yandex.ru/i/cZ5grj-gVKt9nA | https://disk.yandex.ru/i/_Tvm6aR1h3NF_w | https://disk.yandex.ru/i/AGijfPNCES-RkA | https://disk.yandex.ru/i/M4TbyMUTSxvjVw | https://disk.yandex.ru/i/VrnLs2UNoLR8iA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/MuER73qJH5-7xA | https://yadi.sk/i/LD-DX37myvp4Pg | https://yadi.sk/i/7mCOwO1leIVWVw | https://yadi.sk/i/SCREQpgYQ1_Tkg | https://yadi.sk/i/dsIdNh4_ch2hWg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Шкафы, комоды и стеллажи</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Ольха</t>
-  </si>
-  <si>
-    <t>Береза</t>
-  </si>
-  <si>
-    <t>Клен</t>
-  </si>
-  <si>
-    <t>Груша</t>
-  </si>
-  <si>
-    <t>Дуб сонома</t>
-  </si>
-  <si>
-    <t>Венге</t>
-  </si>
-  <si>
-    <t>Берёза</t>
-  </si>
-  <si>
-    <t>Шкафы и буфеты</t>
-  </si>
-  <si>
-    <t>Шкаф</t>
-  </si>
-  <si>
-    <t>Распашные</t>
-  </si>
-  <si>
-    <t>Купе</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>МДФ | Металл | Пластик</t>
-  </si>
-  <si>
-    <t>МДФ</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>МДФ | ДСП</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Прихожая | Спальня | Гостинная</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон</t>
-  </si>
-  <si>
-    <t>Балкон</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Гостинная | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Офис | Балкон | Прихожая</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Прихожая</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
-  </si>
-  <si>
-    <t>Кабинет | Офис | Гостиная | Прихожая | Спальня</t>
+    <t>Стеллаж для документов</t>
+  </si>
+  <si>
+    <t>Шкаф металликий</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -622,28 +372,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Шкаф старинный со стеклом
-Артикул 135233ИО
-Размер ДхШхВ: 135/42/233
-Ширина карниза- 148
-Цвет: Итальянский орех 
-Цена: 40000
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Шкаф с полками
 König + Neurath
 Производство Германия
@@ -658,6 +386,31 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф с полками
+König + Neurath
+Производство Германия
+Размеры шир. 120,глуб. 42,выс.148
+Цвет: песок
+В наличии: 5 шт. 
+Цена: 15000 за 1 шт.
+Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. Все шкафы собраны и доступны для осмотра и оценки состояния. Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Шкафы для документов 2499
+Гардеробы от 4499р
+Шкафы с небольшими изъянами и открытые стеллажи от 2499р
+Железный с полочками 9999
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
@@ -1161,6 +914,339 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф старинный со стеклом
+Артикул 135233ИО
+Размер ДхШхВ: 135/42/233
+Ширина карниза- 148
+Цвет: Итальянский орех 
+Цена: 40000
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф для документов
+Артикул 140
+Размеры ДхШхВ: 41х44х210
+Цвет бук
+Цена 3 999
+Количество 23
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стеллаж для документов
+Артикул 2210
+Размеры ДхШхВ: 82х42х210
+Цвет бук
+Цена 4 499
+Количество 13
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф металликий
+Артикул 454450ШР
+Шкафы бу с дефектами
+Размеры: 45х42х181 , 81х50х183 , 44х39х186
+Цвет серый
+Цена 4000
+Количество 4 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA | https://disk.yandex.ru/i/wL44abqaq9_2cg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/81VFQDyqud-SxQ | https://disk.yandex.ru/i/hNHq-HzTiu0mPg | https://disk.yandex.ru/i/8QjlEm_5nxS_bQ | https://disk.yandex.ru/i/MThB10Ws5WaLMA | https://disk.yandex.ru/i/IsRM-FcWm4IujA | https://disk.yandex.ru/i/dv0A5LdFlhZPfA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ZBakUTDh9Z70ug | https://disk.yandex.ru/i/lAYkdBaUKfXOFQ | https://disk.yandex.ru/i/pno2scnTQ4Pr2w | https://disk.yandex.ru/i/_PnJw8BfsK2zDA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/NJsCRKrUZBVYEw | https://disk.yandex.ru/i/f8154TedpGs_Qg | https://disk.yandex.ru/i/4RJCH2m7v-3EYw | https://disk.yandex.ru/i/VBxlOl6Kxr0LSw | https://disk.yandex.ru/i/JmfHVUJ1H91sbA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/71H40nwJBg0-CQ | https://disk.yandex.ru/i/WlyyZ2T2bu7IbQ | https://disk.yandex.ru/i/4aGUWS39kSyf_w | https://disk.yandex.ru/i/x70a5_MmWzgpTg | https://disk.yandex.ru/i/H1BP8nGIZtEV-w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WbOK-2QNTpSY7g | https://disk.yandex.ru/i/BeYIl-u9gm6exQ | https://disk.yandex.ru/i/w-iyVc1z170viw | https://disk.yandex.ru/i/zvMKfcG-C5d2sA | https://disk.yandex.ru/i/TDV4MX1cCZ4P5g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/tVVjI7_eTSdGMw | https://disk.yandex.ru/i/Zk1eBuD4MXgpuw | https://disk.yandex.ru/i/uO8s28ztUQjqdQ | https://disk.yandex.ru/i/G_PatPsRYtBDig | https://disk.yandex.ru/i/wOkti9o5wRZaUQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/iNDoK2ziDwkwLg | https://disk.yandex.ru/i/Q8ehq2Nk2TBssA | https://disk.yandex.ru/i/I2F7ZODx2q8hSA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UG2Qo3jQKoHnmA | https://disk.yandex.ru/i/d6TB8_uzb53Hdg | https://disk.yandex.ru/i/iwkg7pCTkgo6kA | https://disk.yandex.ru/i/KP3GsgBPZrnaEA | https://disk.yandex.ru/i/nskffv6OpTMufA | https://disk.yandex.ru/i/PUG1AXujOFOhYA | https://disk.yandex.ru/i/QpvYNSRBa7oROA | https://disk.yandex.ru/i/R9aktkXLs3yDdQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CABgHfA6S_j9fQ | https://disk.yandex.ru/i/XIJgnufwHYlitQ | https://disk.yandex.ru/i/MTtc2zJ6lC3I6g | https://disk.yandex.ru/i/aJziOtvmIX2svw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/zB3yhbmYRN768w | https://disk.yandex.ru/i/CHAZlqWZWFdfzA | https://disk.yandex.ru/i/xh6vjDOUtCSfww</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/J8owPVd0w4vFHg | https://disk.yandex.ru/i/bOJbtgzNwZzDtg | https://disk.yandex.ru/i/hMzWV0v1pqeBDg | https://disk.yandex.ru/i/NgjfqINiP6j7tQ | https://disk.yandex.ru/i/1dSNkcaopm2Pqg | https://disk.yandex.ru/i/fDRjyWqat4IcRQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/a2hNJgRj2EV2zg | https://disk.yandex.ru/i/rJx79clfQ2Q_VA | https://disk.yandex.ru/i/TVQ3xujppCsfPA | https://disk.yandex.ru/i/I6ANj3UQI7EGzw | https://disk.yandex.ru/i/cJ3CgRLjBSGyIA | https://disk.yandex.ru/i/f3jQh74fYUaTAA | https://disk.yandex.ru/i/DuLufl9uEOlfxg | https://disk.yandex.ru/i/GxuKa-a7rBGxJw | https://disk.yandex.ru/i/TqjB7WSVeYWIiA | https://disk.yandex.ru/i/-kkNNN1yFZLNUg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/mwRpXBP81D_7uA | https://disk.yandex.ru/i/Pv6fRRg7J8iSOQ | https://disk.yandex.ru/i/gs_KgygZkXOoEw | https://disk.yandex.ru/i/vAwkLEQsLKb9qQ | https://disk.yandex.ru/i/L2PWJriD0NRwWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xHcYLLHdubVO3A | https://disk.yandex.ru/i/tKaDLDaoyWm6AQ | https://disk.yandex.ru/i/Omiz3e01wyUrwQ | https://disk.yandex.ru/i/jQARDAyt84PsWA | https://disk.yandex.ru/i/XAISx3K7QOrDMw | https://disk.yandex.ru/i/A3KhEt2OcKaVeQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ujh1bYIelvnJ-g | https://disk.yandex.ru/i/-l-Bli_3TGw2fg | https://disk.yandex.ru/i/da6gZY1e9wJlBw | https://disk.yandex.ru/i/I6UWgIXnfORmWw | https://disk.yandex.ru/i/sd_U5U6n5zCh6Q | https://disk.yandex.ru/i/CUpNBM9KKccDlA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yVcQWqWpDKhjXg | https://disk.yandex.ru/i/93eLQct77xHOrQ | https://disk.yandex.ru/i/lKuMu5uJeTAkqw | https://disk.yandex.ru/i/xpo3Wbgw-Y_LQw | https://disk.yandex.ru/i/GphDOLsdHLarWQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/VE3LUsx2v3FGCQ | https://disk.yandex.ru/i/vFXX1V-IOzAocQ | https://disk.yandex.ru/i/gYJpAUDTO06Wog | https://disk.yandex.ru/i/5aNR0FBLqRZGHQ | https://disk.yandex.ru/i/0aMtH2UM5u87-Q | https://disk.yandex.ru/i/ysMNCkYEq-1rOQ | https://disk.yandex.ru/i/02IUuvIbM-YNLw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/A8ksDVbVMvtvAQ | https://disk.yandex.ru/i/33BJJUm1mURW-A | https://disk.yandex.ru/i/w-JN6bohZzjORQ | https://disk.yandex.ru/i/IhE6qkZfs7SBag | https://disk.yandex.ru/i/qkT61fbH_11rgQ | https://disk.yandex.ru/i/rBSDo2hJ-So7mw | https://disk.yandex.ru/i/Dh33cPcxeJ8M5A | https://disk.yandex.ru/i/H9YS7vJ12OoKPw | https://disk.yandex.ru/i/iuVFJqFivJpJmw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qMQ0Wptl_DTHFQ | https://disk.yandex.ru/i/_FJNwWSIO1sCXw | https://disk.yandex.ru/i/v5lj_p4xO9wFfw | https://disk.yandex.ru/i/iQ6P0q7Z_JuLsA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cFC6_r3GF1uc-g | https://disk.yandex.ru/i/fn7Lh08RTRAjtQ | https://disk.yandex.ru/i/-q8quW_Ch8lmSg | https://disk.yandex.ru/i/2tzE4R-Ex1VyUg | https://disk.yandex.ru/i/_CYoTWp2ZE-0VA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/K2Lv_uhL3R8vWQ | https://disk.yandex.ru/i/M677RH_OjTvOww | https://disk.yandex.ru/i/tPVASDEksAmM_A | https://disk.yandex.ru/i/xfmkipJxT60jEw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RY0dkzQMCfgbcw | https://disk.yandex.ru/i/5pTO7mVGI26_Mw | https://disk.yandex.ru/i/37HZz9J7Hlj2XQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BTy2sAoCWCCy1A | https://disk.yandex.ru/i/eYbp_kzTGtMPbA | https://disk.yandex.ru/i/URK9Yv2vu93WYg | https://disk.yandex.ru/i/_PGzukPxvzYOSw | https://disk.yandex.ru/i/qLll1WOqPVUImA | https://disk.yandex.ru/i/PNW5blZk0UyHzA | https://disk.yandex.ru/i/hlDDa5nrQxMu_A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/L-25SeK0FljU7w | https://disk.yandex.ru/i/H6FeJj3MVPheuQ | https://disk.yandex.ru/i/T55_UGDZ4HikcA | https://disk.yandex.ru/i/alXqwJeB5mbjtA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qoPiV8dMCOx9Qw | https://disk.yandex.ru/i/qAOUIL0G5lcMbw | https://disk.yandex.ru/i/ijnNC0njFe-wPA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hcCawB3y-foy2A | https://disk.yandex.ru/i/cZ5grj-gVKt9nA | https://disk.yandex.ru/i/_Tvm6aR1h3NF_w | https://disk.yandex.ru/i/AGijfPNCES-RkA | https://disk.yandex.ru/i/M4TbyMUTSxvjVw | https://disk.yandex.ru/i/VrnLs2UNoLR8iA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/MuER73qJH5-7xA | https://yadi.sk/i/LD-DX37myvp4Pg | https://yadi.sk/i/7mCOwO1leIVWVw | https://yadi.sk/i/SCREQpgYQ1_Tkg | https://yadi.sk/i/dsIdNh4_ch2hWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/13wI29LEZ0cVvA | https://disk.yandex.ru/i/TUuSRVHEJ9vNNw | https://disk.yandex.ru/i/3BsYlr33AdXy1A | https://disk.yandex.ru/i/lbDr1Y6Xkj43hA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/HICIPT6iYCzHUA | https://disk.yandex.ru/i/wtEKKJPO9hqD6A | https://disk.yandex.ru/i/uZli7ik6sgFvsw | https://disk.yandex.ru/i/WITH0ireFh6xJw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/COR1x8-N-vu1Xg | https://disk.yandex.ru/i/rigb8kcIw39ybA | https://disk.yandex.ru/i/VePdPT2PiZANVQ | https://disk.yandex.ru/i/AoiS96ieIG9sdw | https://disk.yandex.ru/i/MWGbfH1zNMBH_A | https://disk.yandex.ru/i/BImL89iFOexuag | https://disk.yandex.ru/i/kpou1cOltyuJpw | https://disk.yandex.ru/i/DobN1qGngY1lgA | https://disk.yandex.ru/i/u6jZzodrN4h-DQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Шкафы, комоды и стеллажи</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Ольха</t>
+  </si>
+  <si>
+    <t>Береза</t>
+  </si>
+  <si>
+    <t>Клен</t>
+  </si>
+  <si>
+    <t>Груша</t>
+  </si>
+  <si>
+    <t>Дуб сонома</t>
+  </si>
+  <si>
+    <t>Венге</t>
+  </si>
+  <si>
+    <t>Берёза</t>
+  </si>
+  <si>
+    <t>Шкафы и буфеты</t>
+  </si>
+  <si>
+    <t>Шкаф</t>
+  </si>
+  <si>
+    <t>Распашные</t>
+  </si>
+  <si>
+    <t>Купе</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>МДФ | Металл | Пластик</t>
+  </si>
+  <si>
+    <t>МДФ</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>МДФ | ДСП</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая | Спальня | Гостинная</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон</t>
+  </si>
+  <si>
+    <t>Балкон</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Гостинная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Гостиная | Прихожая | Спальня</t>
+  </si>
+  <si>
+    <t>Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -1230,15 +1316,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1578,15 +1661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,58 +1794,61 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
       </c>
       <c r="N2">
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AF2" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>123</v>
+        <v>160</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1776,60 +1860,63 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>143</v>
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
       </c>
       <c r="N3">
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S3" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC3" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE3" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AF3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>124</v>
+        <v>160</v>
+      </c>
+      <c r="AK3">
+        <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1841,60 +1928,63 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>144</v>
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
       </c>
       <c r="N4">
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB4" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC4" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD4" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE4" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AF4" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="AH4" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI4" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1906,60 +1996,63 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>145</v>
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
       </c>
       <c r="N5">
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA5" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD5" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE5" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AF5" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="AH5" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI5" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -1971,60 +2064,63 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>146</v>
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA6" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB6" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC6" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD6" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE6" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AF6" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="AH6" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI6" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2036,60 +2132,63 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>147</v>
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
       </c>
       <c r="N7">
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA7" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD7" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE7" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AF7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="AH7" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2101,60 +2200,63 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>148</v>
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
       </c>
       <c r="N8">
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA8" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD8" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE8" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AF8" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="AH8" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI8" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>123</v>
+        <v>161</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2166,60 +2268,63 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>150</v>
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
       </c>
       <c r="N9">
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD9" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE9" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="AH9" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI9" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>125</v>
+        <v>161</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2231,60 +2336,63 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>74</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA10" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB10" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC10" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD10" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE10" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="AH10" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI10" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>126</v>
+        <v>161</v>
+      </c>
+      <c r="AK10">
+        <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2296,60 +2404,63 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>151</v>
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA11" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB11" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD11" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE11" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="AH11" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI11" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2361,60 +2472,63 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>152</v>
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
       </c>
       <c r="N12">
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD12" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE12" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="AH12" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI12" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2426,54 +2540,57 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>153</v>
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA13" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB13" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AF13" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="AH13" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI13" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2485,54 +2602,57 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>154</v>
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
       </c>
       <c r="N14">
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S14" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB14" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD14" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE14" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="AF14" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="AH14" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI14" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2544,60 +2664,63 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>155</v>
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
       </c>
       <c r="N15">
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA15" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB15" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE15" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH15" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI15" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AJ15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2609,54 +2732,57 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>135</v>
+        <v>170</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>155</v>
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA16" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB16" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD16" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE16" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH16" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI16" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL16" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2668,54 +2794,57 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA17" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB17" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC17" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD17" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE17" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH17" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI17" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2727,54 +2856,57 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>157</v>
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>81</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA18" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB18" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC18" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD18" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH18" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL18" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2786,54 +2918,57 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>158</v>
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>82</v>
       </c>
       <c r="N19">
         <v>6999</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA19" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB19" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC19" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD19" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE19" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH19" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI19" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL19" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM19">
         <v>91</v>
@@ -2845,54 +2980,57 @@
         <v>37</v>
       </c>
       <c r="AP19" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>159</v>
+        <v>57</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
       </c>
       <c r="N20">
         <v>6999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA20" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB20" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC20" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD20" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE20" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH20" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI20" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL20" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM20">
         <v>45</v>
@@ -2904,54 +3042,57 @@
         <v>92</v>
       </c>
       <c r="AP20" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>160</v>
+        <v>58</v>
+      </c>
+      <c r="M21" t="s">
+        <v>84</v>
       </c>
       <c r="N21">
         <v>6999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA21" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB21" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD21" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE21" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH21" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI21" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM21">
         <v>83</v>
@@ -2963,54 +3104,57 @@
         <v>50</v>
       </c>
       <c r="AP21" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
       </c>
       <c r="N22">
         <v>6999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA22" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB22" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC22" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD22" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE22" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH22" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI22" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM22">
         <v>81</v>
@@ -3022,54 +3166,57 @@
         <v>50</v>
       </c>
       <c r="AP22" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>162</v>
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>86</v>
       </c>
       <c r="N23">
         <v>20000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S23" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA23" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB23" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD23" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE23" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AH23" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI23" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM23">
         <v>120</v>
@@ -3081,54 +3228,57 @@
         <v>43</v>
       </c>
       <c r="AP23" t="s">
-        <v>136</v>
+        <v>171</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>163</v>
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
       </c>
       <c r="N24">
         <v>5999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S24" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA24" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB24" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC24" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD24" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE24" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AH24" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL24" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM24">
         <v>60</v>
@@ -3140,54 +3290,57 @@
         <v>60</v>
       </c>
       <c r="AP24" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>164</v>
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
+        <v>88</v>
       </c>
       <c r="N25">
         <v>7999</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA25" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB25" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD25" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE25" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="AH25" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI25" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL25" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AM25">
         <v>90</v>
@@ -3199,54 +3352,57 @@
         <v>40</v>
       </c>
       <c r="AP25" t="s">
-        <v>137</v>
+        <v>172</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>165</v>
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>89</v>
       </c>
       <c r="N26">
         <v>7999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S26" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA26" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB26" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE26" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI26" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL26" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AM26">
         <v>90</v>
@@ -3258,54 +3414,57 @@
         <v>40</v>
       </c>
       <c r="AP26" t="s">
-        <v>137</v>
+        <v>172</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>166</v>
+        <v>56</v>
+      </c>
+      <c r="M27" t="s">
+        <v>90</v>
       </c>
       <c r="N27">
         <v>7000</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S27" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA27" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB27" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC27" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD27" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE27" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH27" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI27" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL27" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM27">
         <v>85</v>
@@ -3317,54 +3476,57 @@
         <v>40</v>
       </c>
       <c r="AP27" t="s">
-        <v>138</v>
+        <v>173</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>167</v>
+        <v>57</v>
+      </c>
+      <c r="M28" t="s">
+        <v>91</v>
       </c>
       <c r="N28">
         <v>7000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA28" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB28" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC28" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD28" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE28" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH28" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI28" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL28" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM28">
         <v>91</v>
@@ -3376,54 +3538,57 @@
         <v>37</v>
       </c>
       <c r="AP28" t="s">
-        <v>139</v>
+        <v>174</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>168</v>
+        <v>58</v>
+      </c>
+      <c r="M29" t="s">
+        <v>92</v>
       </c>
       <c r="N29">
         <v>7000</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA29" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB29" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC29" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD29" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE29" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH29" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI29" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL29" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM29">
         <v>80</v>
@@ -3435,54 +3600,57 @@
         <v>50</v>
       </c>
       <c r="AP29" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>169</v>
+        <v>57</v>
+      </c>
+      <c r="M30" t="s">
+        <v>93</v>
       </c>
       <c r="N30">
         <v>7000</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S30" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA30" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB30" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC30" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD30" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE30" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH30" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI30" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM30">
         <v>85</v>
@@ -3494,54 +3662,57 @@
         <v>50</v>
       </c>
       <c r="AP30" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>170</v>
+        <v>61</v>
+      </c>
+      <c r="M31" t="s">
+        <v>94</v>
       </c>
       <c r="N31">
         <v>9999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S31" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA31" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB31" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC31" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD31" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE31" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH31" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI31" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM31">
         <v>69</v>
@@ -3553,54 +3724,57 @@
         <v>22</v>
       </c>
       <c r="AP31" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>171</v>
+        <v>62</v>
+      </c>
+      <c r="M32" t="s">
+        <v>95</v>
       </c>
       <c r="N32">
         <v>4000</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S32" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA32" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB32" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC32" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD32" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE32" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AH32" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI32" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL32" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM32">
         <v>100</v>
@@ -3612,54 +3786,57 @@
         <v>50</v>
       </c>
       <c r="AP32" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>135233</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>149</v>
+        <v>63</v>
+      </c>
+      <c r="M33" t="s">
+        <v>96</v>
       </c>
       <c r="N33">
         <v>40000</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="S33" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AA33" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AB33" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC33" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AD33" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AE33" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="AH33" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AI33" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="AL33" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AM33">
         <v>135</v>
@@ -3671,7 +3848,196 @@
         <v>42</v>
       </c>
       <c r="AP33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34">
+        <v>3999</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD34" t="s">
         <v>141</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM34">
+        <v>41</v>
+      </c>
+      <c r="AN34">
+        <v>210</v>
+      </c>
+      <c r="AO34">
+        <v>44</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2210</v>
+      </c>
+      <c r="L35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35">
+        <v>4499</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM35">
+        <v>82</v>
+      </c>
+      <c r="AN35">
+        <v>210</v>
+      </c>
+      <c r="AO35">
+        <v>42</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>454450</v>
+      </c>
+      <c r="L36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36">
+        <v>4000</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM36">
+        <v>45</v>
+      </c>
+      <c r="AN36">
+        <v>181</v>
+      </c>
+      <c r="AO36">
+        <v>42</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3740,6 +4106,12 @@
     <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594CBA7-78F5-4033-A5B4-B7341C0E49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -233,7 +227,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -254,7 +247,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -276,7 +268,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -298,7 +289,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -320,7 +310,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -342,7 +331,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -363,7 +351,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -409,7 +396,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -431,7 +417,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -452,7 +437,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -1252,8 +1236,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,26 +1308,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1381,9 +1357,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1415,27 +1391,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1467,27 +1425,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1660,14 +1600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="L2" t="s">
         <v>43</v>
       </c>
@@ -1866,7 +1806,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -1934,7 +1874,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="L4" t="s">
         <v>45</v>
       </c>
@@ -2002,7 +1942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="L5" t="s">
         <v>46</v>
       </c>
@@ -2070,7 +2010,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="L6" t="s">
         <v>47</v>
       </c>
@@ -2138,7 +2078,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="L7" t="s">
         <v>48</v>
       </c>
@@ -2206,7 +2146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="L8" t="s">
         <v>48</v>
       </c>
@@ -2274,7 +2214,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="L9" t="s">
         <v>49</v>
       </c>
@@ -2342,7 +2282,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="L10" t="s">
         <v>50</v>
       </c>
@@ -2410,7 +2350,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="L11" t="s">
         <v>47</v>
       </c>
@@ -2478,7 +2418,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -2546,7 +2486,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="L13" t="s">
         <v>48</v>
       </c>
@@ -2608,7 +2548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="L14" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2610,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2738,7 +2678,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2800,7 +2740,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2862,7 +2802,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2924,7 +2864,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2986,7 +2926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3048,7 +2988,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3110,7 +3050,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3172,7 +3112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3234,7 +3174,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3296,7 +3236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3358,7 +3298,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3420,7 +3360,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3482,7 +3422,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3544,7 +3484,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3606,7 +3546,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3668,7 +3608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3730,7 +3670,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3792,7 +3732,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33">
         <v>135233</v>
       </c>
@@ -3854,7 +3794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34">
         <v>140</v>
       </c>
@@ -3916,7 +3856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35">
         <v>2210</v>
       </c>
@@ -3978,7 +3918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36">
         <v>454450</v>
       </c>
@@ -4042,76 +3982,76 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O32" r:id="rId61"/>
+    <hyperlink ref="Q32" r:id="rId62"/>
+    <hyperlink ref="O33" r:id="rId63"/>
+    <hyperlink ref="Q33" r:id="rId64"/>
+    <hyperlink ref="O34" r:id="rId65"/>
+    <hyperlink ref="Q34" r:id="rId66"/>
+    <hyperlink ref="O35" r:id="rId67"/>
+    <hyperlink ref="Q35" r:id="rId68"/>
+    <hyperlink ref="O36" r:id="rId69"/>
+    <hyperlink ref="Q36" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C098DF08-1427-420A-9C95-538D6462839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -185,15 +191,6 @@
   </si>
   <si>
     <t>Шкаф металлический</t>
-  </si>
-  <si>
-    <t>Шкаф металлический с полками</t>
-  </si>
-  <si>
-    <t>Шкаф гардероб металлический</t>
-  </si>
-  <si>
-    <t>Шкаф металлический Практик</t>
   </si>
   <si>
     <t>Шкаф гардероб для раздевалки</t>
@@ -575,100 +572,6 @@
     </t>
   </si>
   <si>
-    <t>Шкаф металлический
-Шкаф с 4 полками от отечественного производителя 'Практик'.
-Размер ДхШхВ: 91х37х182
-Цвет: серый
-Цена: 6 999
-Количество 3
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкаф металлический с полками
-Размер ДхШхВ: 45х92х181
-Цвет: серый
-Цена: 6999 
-Количество: 1 шт
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>Шкаф гардероб металлический
-Размеры ДхШхВ: 83х50х183
-Цвет серый
-Цена 6 999
-Количество 1 шт.
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф металлический Практик
-Шкаф-гардероб с полками
-Размер ДхШхВ: 81х50х183
-Цвет : серый 
-Цена: 6999 
-Количество 1
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Шкаф офисный для документов
 Размер: 120х43х183
 Цвет: 
@@ -788,74 +691,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Шкаф металлический с полками
-Шкаф с 4 полками практик, производство России 
-Размер ДхШхВ: 91х37х173
-Цвет серый
-Цена 7 000
-Количество более 1
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф гардероб металлический
-Размер ДхШхВ: 80х50х168
-Цвет серый
-Цена 7 000
-Количество более 1
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Шкаф металлический с полками
-Шкаф с 4 полками практик, производство России 
-Размер ДхШхВ: 85х50х186
-Цвет серый
-Цена 7 000
-Количество более 1
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Шкаф с ячейкми металлический
 Размеры ДхШхВ: 69х22х154
 Цвет серый
@@ -993,6 +828,53 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стеллаж металлический
+Артикул 75204ПСМС
+Размеры ДхШхВ: 70х50х220
+Цена 3 499
+Количество 3
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стеллаж металлический
+Артикул 6001ПСМС
+Высокий стеллажи с 6 полками в отличном состоянии. 
+Размеры ДхШхВ: 100х30х201 - 1 шт. 
+Цена 2 999
+Количество 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -1044,18 +926,6 @@
     <t>https://disk.yandex.ru/i/xHcYLLHdubVO3A | https://disk.yandex.ru/i/tKaDLDaoyWm6AQ | https://disk.yandex.ru/i/Omiz3e01wyUrwQ | https://disk.yandex.ru/i/jQARDAyt84PsWA | https://disk.yandex.ru/i/XAISx3K7QOrDMw | https://disk.yandex.ru/i/A3KhEt2OcKaVeQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/ujh1bYIelvnJ-g | https://disk.yandex.ru/i/-l-Bli_3TGw2fg | https://disk.yandex.ru/i/da6gZY1e9wJlBw | https://disk.yandex.ru/i/I6UWgIXnfORmWw | https://disk.yandex.ru/i/sd_U5U6n5zCh6Q | https://disk.yandex.ru/i/CUpNBM9KKccDlA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yVcQWqWpDKhjXg | https://disk.yandex.ru/i/93eLQct77xHOrQ | https://disk.yandex.ru/i/lKuMu5uJeTAkqw | https://disk.yandex.ru/i/xpo3Wbgw-Y_LQw | https://disk.yandex.ru/i/GphDOLsdHLarWQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/VE3LUsx2v3FGCQ | https://disk.yandex.ru/i/vFXX1V-IOzAocQ | https://disk.yandex.ru/i/gYJpAUDTO06Wog | https://disk.yandex.ru/i/5aNR0FBLqRZGHQ | https://disk.yandex.ru/i/0aMtH2UM5u87-Q | https://disk.yandex.ru/i/ysMNCkYEq-1rOQ | https://disk.yandex.ru/i/02IUuvIbM-YNLw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/A8ksDVbVMvtvAQ | https://disk.yandex.ru/i/33BJJUm1mURW-A | https://disk.yandex.ru/i/w-JN6bohZzjORQ | https://disk.yandex.ru/i/IhE6qkZfs7SBag | https://disk.yandex.ru/i/qkT61fbH_11rgQ | https://disk.yandex.ru/i/rBSDo2hJ-So7mw | https://disk.yandex.ru/i/Dh33cPcxeJ8M5A | https://disk.yandex.ru/i/H9YS7vJ12OoKPw | https://disk.yandex.ru/i/iuVFJqFivJpJmw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/qMQ0Wptl_DTHFQ | https://disk.yandex.ru/i/_FJNwWSIO1sCXw | https://disk.yandex.ru/i/v5lj_p4xO9wFfw | https://disk.yandex.ru/i/iQ6P0q7Z_JuLsA</t>
   </si>
   <si>
@@ -1071,24 +941,12 @@
     <t>https://disk.yandex.ru/i/BTy2sAoCWCCy1A | https://disk.yandex.ru/i/eYbp_kzTGtMPbA | https://disk.yandex.ru/i/URK9Yv2vu93WYg | https://disk.yandex.ru/i/_PGzukPxvzYOSw | https://disk.yandex.ru/i/qLll1WOqPVUImA | https://disk.yandex.ru/i/PNW5blZk0UyHzA | https://disk.yandex.ru/i/hlDDa5nrQxMu_A</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/L-25SeK0FljU7w | https://disk.yandex.ru/i/H6FeJj3MVPheuQ | https://disk.yandex.ru/i/T55_UGDZ4HikcA | https://disk.yandex.ru/i/alXqwJeB5mbjtA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qoPiV8dMCOx9Qw | https://disk.yandex.ru/i/qAOUIL0G5lcMbw | https://disk.yandex.ru/i/ijnNC0njFe-wPA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/hcCawB3y-foy2A | https://disk.yandex.ru/i/cZ5grj-gVKt9nA | https://disk.yandex.ru/i/_Tvm6aR1h3NF_w | https://disk.yandex.ru/i/AGijfPNCES-RkA | https://disk.yandex.ru/i/M4TbyMUTSxvjVw | https://disk.yandex.ru/i/VrnLs2UNoLR8iA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/MuER73qJH5-7xA | https://yadi.sk/i/LD-DX37myvp4Pg | https://yadi.sk/i/7mCOwO1leIVWVw | https://yadi.sk/i/SCREQpgYQ1_Tkg | https://yadi.sk/i/dsIdNh4_ch2hWg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/13wI29LEZ0cVvA | https://disk.yandex.ru/i/TUuSRVHEJ9vNNw | https://disk.yandex.ru/i/3BsYlr33AdXy1A | https://disk.yandex.ru/i/lbDr1Y6Xkj43hA</t>
   </si>
   <si>
@@ -1098,6 +956,12 @@
     <t>https://disk.yandex.ru/i/COR1x8-N-vu1Xg | https://disk.yandex.ru/i/rigb8kcIw39ybA | https://disk.yandex.ru/i/VePdPT2PiZANVQ | https://disk.yandex.ru/i/AoiS96ieIG9sdw | https://disk.yandex.ru/i/MWGbfH1zNMBH_A | https://disk.yandex.ru/i/BImL89iFOexuag | https://disk.yandex.ru/i/kpou1cOltyuJpw | https://disk.yandex.ru/i/DobN1qGngY1lgA | https://disk.yandex.ru/i/u6jZzodrN4h-DQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/xi2w0gDxLZCxbw | https://disk.yandex.ru/i/WLkmePuqwhcijA | https://disk.yandex.ru/i/j2KAfEhqKjgrMA | https://disk.yandex.ru/i/0JudAClzxyrmjQ | https://disk.yandex.ru/i/e7YOnsEF__M_Ew</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/S-Z6BY73Mi-hYA | https://disk.yandex.ru/i/Wrwr_6q3ePsy-A | https://disk.yandex.ru/i/vL55X-bHq2Qjew | https://disk.yandex.ru/i/M7vHanTIgwwjDQ | https://disk.yandex.ru/i/sHfGIfIWSe7b9A</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1215,9 +1079,6 @@
     <t>Офис | Балкон | Прихожая</t>
   </si>
   <si>
-    <t>Кабинет | Офис | Балкон | Прихожая</t>
-  </si>
-  <si>
     <t>Кабинет | Офис | Балкон | Гостиная | Прихожая | Спальня</t>
   </si>
   <si>
@@ -1227,17 +1088,50 @@
     <t>Балкон | Прихожая</t>
   </si>
   <si>
+    <t>Офис | Балкон</t>
+  </si>
+  <si>
     <t>b''</t>
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф металлический гардероб
+ (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421
+Размер: 80/50/182
+Цвет серый
+Цена: 15000 за 1 шт.
+Количество: 18 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QHn-7kaeqvDKMg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,26 +1194,37 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1357,9 +1262,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1391,9 +1296,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1425,9 +1348,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1600,14 +1541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,57 +1684,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N2">
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF2" t="s">
         <v>137</v>
       </c>
-      <c r="AB2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>151</v>
-      </c>
       <c r="AH2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1800,63 +1746,63 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AQ2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N3">
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF3" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>151</v>
-      </c>
       <c r="AH3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK3">
         <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1868,63 +1814,63 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AQ3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N4">
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" t="s">
         <v>138</v>
       </c>
-      <c r="AC4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>152</v>
-      </c>
       <c r="AH4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1936,63 +1882,63 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AQ4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF5" t="s">
         <v>138</v>
       </c>
-      <c r="AC5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>152</v>
-      </c>
       <c r="AH5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK5">
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -2004,63 +1950,63 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AQ5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF6" t="s">
         <v>138</v>
       </c>
-      <c r="AC6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>152</v>
-      </c>
       <c r="AH6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK6">
         <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2072,63 +2018,63 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AQ6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AC7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AE7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH7" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>158</v>
-      </c>
       <c r="AI7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2140,63 +2086,63 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AQ7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF8" t="s">
         <v>138</v>
       </c>
-      <c r="AC8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>152</v>
-      </c>
       <c r="AH8" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI8" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2208,63 +2154,63 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AQ8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AC9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF9" t="s">
         <v>140</v>
       </c>
-      <c r="AD9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>154</v>
-      </c>
       <c r="AH9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2276,63 +2222,63 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AQ9" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S10" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA10" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB10" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AC10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF10" t="s">
         <v>140</v>
       </c>
-      <c r="AD10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>154</v>
-      </c>
       <c r="AH10" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2344,63 +2290,63 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AQ10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AC11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF11" t="s">
         <v>141</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AH11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI11" t="s">
         <v>145</v>
       </c>
-      <c r="AF11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>159</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2412,63 +2358,63 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AQ11" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB12" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AC12" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD12" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AE12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>146</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>160</v>
       </c>
       <c r="AK12">
         <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2480,57 +2426,57 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AQ12" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AC13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AE13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AH13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2542,57 +2488,57 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AQ13" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S14" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AC14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AE14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AH14" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI14" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2604,13 +2550,13 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AQ14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2618,49 +2564,49 @@
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE15" t="s">
         <v>135</v>
       </c>
-      <c r="S15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>149</v>
-      </c>
       <c r="AH15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK15">
         <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2672,57 +2618,57 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AQ15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" t="s">
-        <v>79</v>
+      <c r="M16" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE16" t="s">
         <v>135</v>
       </c>
-      <c r="S16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>149</v>
-      </c>
       <c r="AH16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2734,13 +2680,13 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AQ16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2748,43 +2694,43 @@
         <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE17" t="s">
         <v>135</v>
       </c>
-      <c r="S17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>149</v>
-      </c>
       <c r="AH17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2796,13 +2742,13 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AQ17" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2810,43 +2756,43 @@
         <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE18" t="s">
         <v>135</v>
       </c>
-      <c r="S18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>149</v>
-      </c>
       <c r="AH18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL18" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2858,75 +2804,75 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AQ18" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N19">
-        <v>6999</v>
+        <v>20000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA19" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB19" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AC19" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AE19" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="AH19" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI19" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL19" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AM19">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AN19">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO19">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AQ19" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2934,1124 +2880,803 @@
         <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N20">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA20" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AB20" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AC20" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AD20" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AE20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="AH20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI20" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AM20">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AN20">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AO20">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="AP20" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="AQ20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N21">
-        <v>6999</v>
+        <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE21" t="s">
         <v>136</v>
       </c>
-      <c r="AA21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>149</v>
-      </c>
       <c r="AH21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM21">
+        <v>90</v>
+      </c>
+      <c r="AN21">
+        <v>207</v>
+      </c>
+      <c r="AO21">
+        <v>40</v>
+      </c>
+      <c r="AP21" t="s">
         <v>158</v>
       </c>
-      <c r="AI21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM21">
-        <v>83</v>
-      </c>
-      <c r="AN21">
-        <v>183</v>
-      </c>
-      <c r="AO21">
-        <v>50</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>169</v>
-      </c>
       <c r="AQ21" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N22">
-        <v>6999</v>
+        <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE22" t="s">
         <v>136</v>
       </c>
-      <c r="AA22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>149</v>
-      </c>
       <c r="AH22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM22">
+        <v>90</v>
+      </c>
+      <c r="AN22">
+        <v>207</v>
+      </c>
+      <c r="AO22">
+        <v>40</v>
+      </c>
+      <c r="AP22" t="s">
         <v>158</v>
       </c>
-      <c r="AI22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM22">
-        <v>81</v>
-      </c>
-      <c r="AN22">
-        <v>183</v>
-      </c>
-      <c r="AO22">
-        <v>50</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>169</v>
-      </c>
       <c r="AQ22" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N23">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="S23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE23" t="s">
         <v>135</v>
       </c>
-      <c r="S23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AH23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI23" t="s">
         <v>145</v>
       </c>
-      <c r="AH23" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AL23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM23">
+        <v>85</v>
+      </c>
+      <c r="AN23">
+        <v>186</v>
+      </c>
+      <c r="AO23">
+        <v>40</v>
+      </c>
+      <c r="AP23" t="s">
         <v>159</v>
       </c>
-      <c r="AL23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM23">
-        <v>120</v>
-      </c>
-      <c r="AN23">
-        <v>183</v>
-      </c>
-      <c r="AO23">
-        <v>43</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>171</v>
-      </c>
       <c r="AQ23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N24">
-        <v>5999</v>
+        <v>9999</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S24" t="s">
         <v>122</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="AA24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE24" t="s">
         <v>135</v>
       </c>
-      <c r="S24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AH24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI24" t="s">
         <v>145</v>
       </c>
-      <c r="AH24" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>159</v>
-      </c>
       <c r="AL24" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AM24">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AN24">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="AO24">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AQ24" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25">
+        <v>4000</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM25">
+        <v>100</v>
+      </c>
+      <c r="AN25">
+        <v>200</v>
+      </c>
+      <c r="AO25">
+        <v>50</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>135233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26">
+        <v>40000</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM26">
+        <v>135</v>
+      </c>
+      <c r="AN26">
+        <v>233</v>
+      </c>
+      <c r="AO26">
+        <v>42</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>140</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27">
+        <v>3999</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM27">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>210</v>
+      </c>
+      <c r="AO27">
+        <v>44</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" t="s">
         <v>88</v>
       </c>
-      <c r="N25">
-        <v>7999</v>
-      </c>
-      <c r="O25" s="2" t="s">
+      <c r="N28">
+        <v>4499</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA28" t="s">
         <v>123</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="AB28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM28">
+        <v>82</v>
+      </c>
+      <c r="AN28">
+        <v>210</v>
+      </c>
+      <c r="AO28">
+        <v>42</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>454450</v>
+      </c>
+      <c r="L29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29">
+        <v>4000</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE29" t="s">
         <v>135</v>
       </c>
-      <c r="S25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM25">
+      <c r="AH29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM29">
+        <v>45</v>
+      </c>
+      <c r="AN29">
+        <v>181</v>
+      </c>
+      <c r="AO29">
+        <v>42</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>75204</v>
+      </c>
+      <c r="L30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" t="s">
         <v>90</v>
       </c>
-      <c r="AN25">
-        <v>207</v>
-      </c>
-      <c r="AO25">
-        <v>40</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26">
-        <v>7999</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="2" t="s">
+      <c r="N30">
+        <v>3499</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE30" t="s">
         <v>135</v>
       </c>
-      <c r="S26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM26">
-        <v>90</v>
-      </c>
-      <c r="AN26">
-        <v>207</v>
-      </c>
-      <c r="AO26">
-        <v>40</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27">
-        <v>7000</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM27">
-        <v>85</v>
-      </c>
-      <c r="AN27">
-        <v>186</v>
-      </c>
-      <c r="AO27">
-        <v>40</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28">
-        <v>7000</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S28" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM28">
-        <v>91</v>
-      </c>
-      <c r="AN28">
-        <v>173</v>
-      </c>
-      <c r="AO28">
-        <v>37</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29">
-        <v>7000</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S29" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM29">
-        <v>80</v>
-      </c>
-      <c r="AN29">
-        <v>168</v>
-      </c>
-      <c r="AO29">
-        <v>50</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30">
-        <v>7000</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>149</v>
-      </c>
       <c r="AH30" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI30" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AM30">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN30">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AO30">
         <v>50</v>
       </c>
       <c r="AP30" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AQ30" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>6001</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N31">
-        <v>9999</v>
+        <v>2999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE31" t="s">
         <v>135</v>
       </c>
-      <c r="S31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>149</v>
-      </c>
       <c r="AH31" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AI31" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM31">
+        <v>100</v>
+      </c>
+      <c r="AN31">
+        <v>201</v>
+      </c>
+      <c r="AO31">
+        <v>30</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ31" t="s">
         <v>165</v>
-      </c>
-      <c r="AM31">
-        <v>69</v>
-      </c>
-      <c r="AN31">
-        <v>154</v>
-      </c>
-      <c r="AO31">
-        <v>22</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M32" t="s">
-        <v>95</v>
-      </c>
-      <c r="N32">
-        <v>4000</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S32" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM32">
-        <v>100</v>
-      </c>
-      <c r="AN32">
-        <v>200</v>
-      </c>
-      <c r="AO32">
-        <v>50</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
-      <c r="A33">
-        <v>135233</v>
-      </c>
-      <c r="L33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N33">
-        <v>40000</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM33">
-        <v>135</v>
-      </c>
-      <c r="AN33">
-        <v>233</v>
-      </c>
-      <c r="AO33">
-        <v>42</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
-      <c r="A34">
-        <v>140</v>
-      </c>
-      <c r="L34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34">
-        <v>3999</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM34">
-        <v>41</v>
-      </c>
-      <c r="AN34">
-        <v>210</v>
-      </c>
-      <c r="AO34">
-        <v>44</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43">
-      <c r="A35">
-        <v>2210</v>
-      </c>
-      <c r="L35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M35" t="s">
-        <v>98</v>
-      </c>
-      <c r="N35">
-        <v>4499</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM35">
-        <v>82</v>
-      </c>
-      <c r="AN35">
-        <v>210</v>
-      </c>
-      <c r="AO35">
-        <v>42</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43">
-      <c r="A36">
-        <v>454450</v>
-      </c>
-      <c r="L36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" t="s">
-        <v>99</v>
-      </c>
-      <c r="N36">
-        <v>4000</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S36" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM36">
-        <v>45</v>
-      </c>
-      <c r="AN36">
-        <v>181</v>
-      </c>
-      <c r="AO36">
-        <v>42</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
-    <hyperlink ref="O31" r:id="rId59"/>
-    <hyperlink ref="Q31" r:id="rId60"/>
-    <hyperlink ref="O32" r:id="rId61"/>
-    <hyperlink ref="Q32" r:id="rId62"/>
-    <hyperlink ref="O33" r:id="rId63"/>
-    <hyperlink ref="Q33" r:id="rId64"/>
-    <hyperlink ref="O34" r:id="rId65"/>
-    <hyperlink ref="Q34" r:id="rId66"/>
-    <hyperlink ref="O35" r:id="rId67"/>
-    <hyperlink ref="Q35" r:id="rId68"/>
-    <hyperlink ref="O36" r:id="rId69"/>
-    <hyperlink ref="Q36" r:id="rId70"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="Q26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C098DF08-1427-420A-9C95-538D6462839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -190,10 +184,10 @@
     <t>Сейф-шкаф</t>
   </si>
   <si>
+    <t>Шкаф гардероб для раздевалки</t>
+  </si>
+  <si>
     <t>Шкаф металлический</t>
-  </si>
-  <si>
-    <t>Шкаф гардероб для раздевалки</t>
   </si>
   <si>
     <t>Шкаф с ячейкми металлический</t>
@@ -458,7 +452,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -481,7 +474,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -507,7 +499,32 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф металлический гардероб
+ (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421
+Размер: 80/50/182
+Цвет серый
+Цена: 15000 за 1 шт.
+Количество: 18 шт
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -535,7 +552,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -562,7 +578,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -588,7 +603,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -614,7 +628,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -637,7 +650,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -659,7 +671,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -682,7 +693,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -704,7 +714,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -726,7 +735,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -947,6 +955,9 @@
     <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/QHn-7kaeqvDKMg</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/13wI29LEZ0cVvA | https://disk.yandex.ru/i/TUuSRVHEJ9vNNw | https://disk.yandex.ru/i/3BsYlr33AdXy1A | https://disk.yandex.ru/i/lbDr1Y6Xkj43hA</t>
   </si>
   <si>
@@ -1095,43 +1106,13 @@
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкаф металлический гардероб
- (новые в упаковке) Гардеробный шкаф ДиКом Рационал ОД-421
-Размер: 80/50/182
-Цвет серый
-Цена: 15000 за 1 шт.
-Количество: 18 шт
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/QHn-7kaeqvDKMg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,37 +1175,26 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1262,9 +1232,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,27 +1266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,27 +1300,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1541,19 +1475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="L2" t="s">
         <v>43</v>
       </c>
@@ -1695,46 +1624,46 @@
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1746,13 +1675,13 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -1763,46 +1692,46 @@
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK3">
         <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1814,13 +1743,13 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="L4" t="s">
         <v>45</v>
       </c>
@@ -1831,46 +1760,46 @@
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1882,13 +1811,13 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="L5" t="s">
         <v>46</v>
       </c>
@@ -1899,46 +1828,46 @@
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK5">
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -1950,13 +1879,13 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="L6" t="s">
         <v>47</v>
       </c>
@@ -1967,46 +1896,46 @@
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK6">
         <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2018,13 +1947,13 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="L7" t="s">
         <v>48</v>
       </c>
@@ -2035,46 +1964,46 @@
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AH7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2086,13 +2015,13 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="L8" t="s">
         <v>48</v>
       </c>
@@ -2103,46 +2032,46 @@
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2154,13 +2083,13 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="L9" t="s">
         <v>49</v>
       </c>
@@ -2171,46 +2100,46 @@
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AH9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2222,13 +2151,13 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="L10" t="s">
         <v>50</v>
       </c>
@@ -2239,46 +2168,46 @@
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AH10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2290,13 +2219,13 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="L11" t="s">
         <v>47</v>
       </c>
@@ -2307,46 +2236,46 @@
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2358,13 +2287,13 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -2375,46 +2304,46 @@
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK12">
         <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2426,13 +2355,13 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="L13" t="s">
         <v>48</v>
       </c>
@@ -2443,40 +2372,40 @@
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2488,13 +2417,13 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="L14" t="s">
         <v>52</v>
       </c>
@@ -2505,40 +2434,40 @@
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2550,13 +2479,13 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2570,43 +2499,43 @@
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK15">
         <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2618,57 +2547,57 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AQ15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>166</v>
+      <c r="M16" t="s">
+        <v>77</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2680,13 +2609,13 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2694,43 +2623,43 @@
         <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2742,13 +2671,13 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2756,43 +2685,43 @@
         <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2804,13 +2733,13 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2818,43 +2747,43 @@
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>20000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM19">
         <v>120</v>
@@ -2866,57 +2795,57 @@
         <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AQ19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM20">
         <v>60</v>
@@ -2928,13 +2857,13 @@
         <v>60</v>
       </c>
       <c r="AP20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2942,43 +2871,43 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N21">
         <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM21">
         <v>90</v>
@@ -2990,13 +2919,13 @@
         <v>40</v>
       </c>
       <c r="AP21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AQ21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3004,43 +2933,43 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM22">
         <v>90</v>
@@ -3052,57 +2981,57 @@
         <v>40</v>
       </c>
       <c r="AP22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AQ22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N23">
         <v>7000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM23">
         <v>85</v>
@@ -3114,13 +3043,13 @@
         <v>40</v>
       </c>
       <c r="AP23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3128,43 +3057,43 @@
         <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N24">
         <v>9999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM24">
         <v>69</v>
@@ -3176,13 +3105,13 @@
         <v>22</v>
       </c>
       <c r="AP24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3190,43 +3119,43 @@
         <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N25">
         <v>4000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM25">
         <v>100</v>
@@ -3238,13 +3167,13 @@
         <v>50</v>
       </c>
       <c r="AP25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>135233</v>
       </c>
@@ -3252,43 +3181,43 @@
         <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N26">
         <v>40000</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM26">
         <v>135</v>
@@ -3300,13 +3229,13 @@
         <v>42</v>
       </c>
       <c r="AP26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>140</v>
       </c>
@@ -3314,43 +3243,43 @@
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N27">
         <v>3999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM27">
         <v>41</v>
@@ -3362,13 +3291,13 @@
         <v>44</v>
       </c>
       <c r="AP27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>2210</v>
       </c>
@@ -3376,43 +3305,43 @@
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N28">
         <v>4499</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM28">
         <v>82</v>
@@ -3424,13 +3353,13 @@
         <v>42</v>
       </c>
       <c r="AP28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>454450</v>
       </c>
@@ -3438,43 +3367,43 @@
         <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N29">
         <v>4000</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM29">
         <v>45</v>
@@ -3486,13 +3415,13 @@
         <v>42</v>
       </c>
       <c r="AP29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AQ29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>75204</v>
       </c>
@@ -3500,43 +3429,43 @@
         <v>59</v>
       </c>
       <c r="M30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N30">
         <v>3499</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM30">
         <v>70</v>
@@ -3548,13 +3477,13 @@
         <v>50</v>
       </c>
       <c r="AP30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AQ30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>6001</v>
       </c>
@@ -3562,43 +3491,43 @@
         <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N31">
         <v>2999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AE31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM31">
         <v>100</v>
@@ -3610,73 +3539,74 @@
         <v>30</v>
       </c>
       <c r="AP31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AQ31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="Q26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O30" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="O31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="Q31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21487AFC-00E7-4230-AD18-56B65AFB331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="167">
   <si>
     <t>Id</t>
   </si>
@@ -1102,17 +1108,14 @@
     <t>Офис | Балкон</t>
   </si>
   <si>
-    <t>b''</t>
-  </si>
-  <si>
     <t>Нет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,18 +1186,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1232,9 +1243,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1266,9 +1277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,9 +1329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,14 +1522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>43</v>
       </c>
@@ -1681,7 +1730,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -1749,7 +1798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>45</v>
       </c>
@@ -1817,7 +1866,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>46</v>
       </c>
@@ -1885,7 +1934,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>47</v>
       </c>
@@ -1953,7 +2002,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>48</v>
       </c>
@@ -2021,7 +2070,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>48</v>
       </c>
@@ -2089,7 +2138,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>49</v>
       </c>
@@ -2157,7 +2206,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>50</v>
       </c>
@@ -2225,7 +2274,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -2361,7 +2410,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>48</v>
       </c>
@@ -2423,7 +2472,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>52</v>
       </c>
@@ -2485,7 +2534,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2553,7 +2602,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2615,7 +2664,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2677,7 +2726,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2739,7 +2788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2801,7 +2850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2863,7 +2912,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2925,7 +2974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2987,7 +3036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3049,7 +3098,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3111,7 +3160,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3173,7 +3222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>135233</v>
       </c>
@@ -3235,7 +3284,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>140</v>
       </c>
@@ -3294,10 +3343,10 @@
         <v>162</v>
       </c>
       <c r="AQ27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2210</v>
       </c>
@@ -3356,10 +3405,10 @@
         <v>162</v>
       </c>
       <c r="AQ28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>454450</v>
       </c>
@@ -3418,10 +3467,10 @@
         <v>164</v>
       </c>
       <c r="AQ29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>75204</v>
       </c>
@@ -3480,10 +3529,10 @@
         <v>165</v>
       </c>
       <c r="AQ30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6001</v>
       </c>
@@ -3542,71 +3591,71 @@
         <v>165</v>
       </c>
       <c r="AQ31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
-    <hyperlink ref="O31" r:id="rId59"/>
-    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21487AFC-00E7-4230-AD18-56B65AFB331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -961,7 +955,7 @@
     <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/QHn-7kaeqvDKMg</t>
+    <t>https://disk.yandex.ru/i/MuER73qJH5-7xA | https://disk.yandex.ru/i/LD-DX37myvp4Pg | https://disk.yandex.ru/i/7mCOwO1leIVWVw | https://disk.yandex.ru/i/SCREQpgYQ1_Tkg | https://disk.yandex.ru/i/dsIdNh4_ch2hWg</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/13wI29LEZ0cVvA | https://disk.yandex.ru/i/TUuSRVHEJ9vNNw | https://disk.yandex.ru/i/3BsYlr33AdXy1A | https://disk.yandex.ru/i/lbDr1Y6Xkj43hA</t>
@@ -1114,8 +1108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,26 +1180,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1243,9 +1229,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,27 +1263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1329,27 +1297,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1522,16 +1472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="L2" t="s">
         <v>43</v>
       </c>
@@ -1730,7 +1678,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -1798,7 +1746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="L4" t="s">
         <v>45</v>
       </c>
@@ -1866,7 +1814,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="L5" t="s">
         <v>46</v>
       </c>
@@ -1934,7 +1882,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="L6" t="s">
         <v>47</v>
       </c>
@@ -2002,7 +1950,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="L7" t="s">
         <v>48</v>
       </c>
@@ -2070,7 +2018,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="L8" t="s">
         <v>48</v>
       </c>
@@ -2138,7 +2086,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="L9" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2154,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="L10" t="s">
         <v>50</v>
       </c>
@@ -2274,7 +2222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="L11" t="s">
         <v>47</v>
       </c>
@@ -2342,7 +2290,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -2410,7 +2358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="L13" t="s">
         <v>48</v>
       </c>
@@ -2472,7 +2420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="L14" t="s">
         <v>52</v>
       </c>
@@ -2534,7 +2482,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2602,7 +2550,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2664,7 +2612,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2726,7 +2674,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2788,7 +2736,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2850,7 +2798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2912,7 +2860,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2974,7 +2922,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3036,7 +2984,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3098,7 +3046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3160,7 +3108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3222,7 +3170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>135233</v>
       </c>
@@ -3284,7 +3232,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>140</v>
       </c>
@@ -3346,7 +3294,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>2210</v>
       </c>
@@ -3408,7 +3356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>454450</v>
       </c>
@@ -3470,7 +3418,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>75204</v>
       </c>
@@ -3532,7 +3480,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>6001</v>
       </c>
@@ -3596,66 +3544,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC1113-85C7-4F91-BAB1-F12B9D6C8347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="175">
   <si>
     <t>Id</t>
   </si>
@@ -203,6 +209,9 @@
   </si>
   <si>
     <t>Шкаф металликий</t>
+  </si>
+  <si>
+    <t>Шкаф офисный гардероб</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -883,6 +892,85 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Шкаф гардероб для раздевалки
+Артикул 2369БГП2369
+Шкаф гардероб для офиса и раздевалки в хорошем состоянии. Имеется большое количество гардеробов за хорошую цену 2 999, а при покупке от 5 штук цена 2 499
+Размеры ДхШхВ: 30х60х190
+Цвет берёза
+Цена 2 999
+Количество 10 (уточняйте)
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф офисный гардероб
+Артикул 28222БГП28222
+Размеры ДхШхВ: 82х44х220 
+Цвет белый
+Цена 7 999
+Количество 16 (уточняйте)
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф для документов
+Артикул 68222БП68222
+Размеры ДхШхВ: 82х45х220
+Цвет белый
+Цена 7 999
+Количество 10 (уточняйте)
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -1102,14 +1190,26 @@
     <t>Офис | Балкон</t>
   </si>
   <si>
+    <t>Кабинет | Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7sTTRccq16sbdw | https://disk.yandex.ru/i/xCcQ2JuZ6ZORKQ | https://disk.yandex.ru/i/sAnUER20Ngdn2w | https://disk.yandex.ru/i/RG7sDLWFN10fbg | https://disk.yandex.ru/i/ECMZsZ3HqNf5SA | https://disk.yandex.ru/i/64B2Lf5fwC3WoQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Qe64LRZcITNc8g | https://disk.yandex.ru/i/8z6kGsk_SUYzhA | https://disk.yandex.ru/i/vi5Ycmikb76WKQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xGq5prE7b08TXA | https://disk.yandex.ru/i/qd2iNrfOQ3cH0g | https://disk.yandex.ru/i/d4_v-Zd0qTybYw | https://disk.yandex.ru/i/kYkNn5XGus8KVw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,18 +1280,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1229,9 +1337,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,9 +1371,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1297,9 +1423,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1472,14 +1616,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,57 +1756,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2">
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AH2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1672,63 +1818,63 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AQ2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3">
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AH3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK3">
         <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1740,63 +1886,63 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AQ3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AH4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1808,63 +1954,63 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AH5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK5">
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -1876,63 +2022,63 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AH6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK6">
         <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -1944,63 +2090,63 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AQ6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AH7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2012,63 +2158,63 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AQ7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AH8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2080,63 +2226,63 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AQ8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9">
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2148,63 +2294,63 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AQ9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2216,63 +2362,63 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AQ10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2284,63 +2430,63 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AQ11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N12">
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AH12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK12">
         <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2352,57 +2498,57 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AQ12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AH13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2414,57 +2560,57 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AQ13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AH14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2476,13 +2622,13 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2490,49 +2636,49 @@
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK15">
         <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2544,13 +2690,13 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AQ15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2558,43 +2704,43 @@
         <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2606,13 +2752,13 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AQ16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2620,43 +2766,43 @@
         <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2668,13 +2814,13 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AQ17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2682,43 +2828,43 @@
         <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2730,13 +2876,13 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AQ18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2744,43 +2890,43 @@
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N19">
         <v>20000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM19">
         <v>120</v>
@@ -2792,13 +2938,13 @@
         <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AQ19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2806,43 +2952,43 @@
         <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM20">
         <v>60</v>
@@ -2854,13 +3000,13 @@
         <v>60</v>
       </c>
       <c r="AP20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AQ20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2868,43 +3014,43 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N21">
         <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AH21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AM21">
         <v>90</v>
@@ -2916,13 +3062,13 @@
         <v>40</v>
       </c>
       <c r="AP21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AQ21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2930,43 +3076,43 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB22" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AH22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AM22">
         <v>90</v>
@@ -2978,13 +3124,13 @@
         <v>40</v>
       </c>
       <c r="AP22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AQ22" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2992,43 +3138,43 @@
         <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23">
         <v>7000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB23" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE23" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM23">
         <v>85</v>
@@ -3040,13 +3186,13 @@
         <v>40</v>
       </c>
       <c r="AP23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AQ23" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3054,43 +3200,43 @@
         <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N24">
         <v>9999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM24">
         <v>69</v>
@@ -3102,13 +3248,13 @@
         <v>22</v>
       </c>
       <c r="AP24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AQ24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3116,43 +3262,43 @@
         <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N25">
         <v>4000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM25">
         <v>100</v>
@@ -3164,13 +3310,13 @@
         <v>50</v>
       </c>
       <c r="AP25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AQ25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>135233</v>
       </c>
@@ -3178,43 +3324,43 @@
         <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N26">
         <v>40000</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD26" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AH26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM26">
         <v>135</v>
@@ -3226,13 +3372,13 @@
         <v>42</v>
       </c>
       <c r="AP26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>140</v>
       </c>
@@ -3240,43 +3386,43 @@
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N27">
         <v>3999</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB27" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AH27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AM27">
         <v>41</v>
@@ -3288,13 +3434,13 @@
         <v>44</v>
       </c>
       <c r="AP27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AQ27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2210</v>
       </c>
@@ -3302,43 +3448,43 @@
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N28">
         <v>4499</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC28" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AH28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AM28">
         <v>82</v>
@@ -3350,13 +3496,13 @@
         <v>42</v>
       </c>
       <c r="AP28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AQ28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>454450</v>
       </c>
@@ -3364,43 +3510,43 @@
         <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29">
         <v>4000</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL29" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM29">
         <v>45</v>
@@ -3412,13 +3558,13 @@
         <v>42</v>
       </c>
       <c r="AP29" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AQ29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>75204</v>
       </c>
@@ -3426,43 +3572,43 @@
         <v>59</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N30">
         <v>3499</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM30">
         <v>70</v>
@@ -3474,13 +3620,13 @@
         <v>50</v>
       </c>
       <c r="AP30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AQ30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6001</v>
       </c>
@@ -3488,43 +3634,43 @@
         <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N31">
         <v>2999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AB31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AM31">
         <v>100</v>
@@ -3536,74 +3682,263 @@
         <v>30</v>
       </c>
       <c r="AP31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AQ31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2369</v>
+      </c>
+      <c r="L32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32">
+        <v>2499</v>
+      </c>
+      <c r="O32" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM32">
+        <v>30</v>
+      </c>
+      <c r="AN32">
+        <v>190</v>
+      </c>
+      <c r="AO32">
+        <v>60</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28222</v>
+      </c>
+      <c r="L33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33">
+        <v>7999</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM33">
+        <v>82</v>
+      </c>
+      <c r="AN33">
+        <v>220</v>
+      </c>
+      <c r="AO33">
+        <v>44</v>
+      </c>
+      <c r="AP33" t="s">
         <v>166</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>68222</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34">
+        <v>7999</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM34">
+        <v>82</v>
+      </c>
+      <c r="AN34">
+        <v>220</v>
+      </c>
+      <c r="AO34">
+        <v>45</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="O6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="O7" r:id="rId11"/>
-    <hyperlink ref="Q7" r:id="rId12"/>
-    <hyperlink ref="O8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="O9" r:id="rId15"/>
-    <hyperlink ref="Q9" r:id="rId16"/>
-    <hyperlink ref="O10" r:id="rId17"/>
-    <hyperlink ref="Q10" r:id="rId18"/>
-    <hyperlink ref="O11" r:id="rId19"/>
-    <hyperlink ref="Q11" r:id="rId20"/>
-    <hyperlink ref="O12" r:id="rId21"/>
-    <hyperlink ref="Q12" r:id="rId22"/>
-    <hyperlink ref="O13" r:id="rId23"/>
-    <hyperlink ref="Q13" r:id="rId24"/>
-    <hyperlink ref="O14" r:id="rId25"/>
-    <hyperlink ref="Q14" r:id="rId26"/>
-    <hyperlink ref="O15" r:id="rId27"/>
-    <hyperlink ref="Q15" r:id="rId28"/>
-    <hyperlink ref="O16" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30"/>
-    <hyperlink ref="O17" r:id="rId31"/>
-    <hyperlink ref="Q17" r:id="rId32"/>
-    <hyperlink ref="O18" r:id="rId33"/>
-    <hyperlink ref="Q18" r:id="rId34"/>
-    <hyperlink ref="O19" r:id="rId35"/>
-    <hyperlink ref="Q19" r:id="rId36"/>
-    <hyperlink ref="O20" r:id="rId37"/>
-    <hyperlink ref="Q20" r:id="rId38"/>
-    <hyperlink ref="O21" r:id="rId39"/>
-    <hyperlink ref="Q21" r:id="rId40"/>
-    <hyperlink ref="O22" r:id="rId41"/>
-    <hyperlink ref="Q22" r:id="rId42"/>
-    <hyperlink ref="O23" r:id="rId43"/>
-    <hyperlink ref="Q23" r:id="rId44"/>
-    <hyperlink ref="O24" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="O25" r:id="rId47"/>
-    <hyperlink ref="Q25" r:id="rId48"/>
-    <hyperlink ref="O26" r:id="rId49"/>
-    <hyperlink ref="Q26" r:id="rId50"/>
-    <hyperlink ref="O27" r:id="rId51"/>
-    <hyperlink ref="Q27" r:id="rId52"/>
-    <hyperlink ref="O28" r:id="rId53"/>
-    <hyperlink ref="Q28" r:id="rId54"/>
-    <hyperlink ref="O29" r:id="rId55"/>
-    <hyperlink ref="Q29" r:id="rId56"/>
-    <hyperlink ref="O30" r:id="rId57"/>
-    <hyperlink ref="Q30" r:id="rId58"/>
-    <hyperlink ref="O31" r:id="rId59"/>
-    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Q32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC1113-85C7-4F91-BAB1-F12B9D6C8347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA0E0F-8676-4DBF-84E6-64503793039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Шкаф с ячейкми металлический</t>
   </si>
   <si>
-    <t>Стеллаж металлический</t>
-  </si>
-  <si>
     <t>Шкаф старинный со стеклом</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
   </si>
   <si>
     <t>Шкаф офисный гардероб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф металлический с полками "Haworth" </t>
+  </si>
+  <si>
+    <t>Шкаф для раздевалки</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -731,27 +734,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стеллаж металлический
-Размеры ДхШхВ: 100х50х200
-Цвет: серый
-Наличии: 3 шт
-Цена: 4 000 руб
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Шкаф старинный со стеклом
 Артикул 135233ИО
 Размер ДхШхВ: 135/42/233
@@ -843,53 +825,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стеллаж металлический
-Артикул 75204ПСМС
-Размеры ДхШхВ: 70х50х220
-Цена 3 499
-Количество 3
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стеллаж металлический
-Артикул 6001ПСМС
-Высокий стеллажи с 6 полками в отличном состоянии. 
-Размеры ДхШхВ: 100х30х201 - 1 шт. 
-Цена 2 999
-Количество 1
-    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
-    Все шкафы собраны и доступны для осмотра и оценки состояния. 
-    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
-    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t xml:space="preserve">Шкаф гардероб для раздевалки
@@ -971,6 +906,50 @@
     </t>
   </si>
   <si>
+    <t>Шкаф металлический с полками "Haworth" 
+Артикул 125123ПМШ
+Размеры ДхШхВ: 120х45х112
+Цвет серый
+Цена 9999
+Количество 5
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Шкаф для раздевалки
+Артикул 46202ПГШ
+Размеры ДхШхВ: 43х60х220
+Цвет
+Цена 3 999
+Количество 10
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -1040,9 +1019,6 @@
     <t>https://disk.yandex.ru/i/S64C33h-goj_ig | https://disk.yandex.ru/i/Ejeg7F25qAsKlg | https://disk.yandex.ru/i/JOmVWIIbNzrXnQ | https://disk.yandex.ru/i/gpiE4YEo1pCZJQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/aFOQh8_DYVIsPg | https://disk.yandex.ru/i/bvilyqVJnTcQWA | https://disk.yandex.ru/i/qmsQDI-z69wPMA | https://disk.yandex.ru/i/iKCn5LUDrooxbw | https://disk.yandex.ru/i/-8KD4oo_lP3CDg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/MuER73qJH5-7xA | https://disk.yandex.ru/i/LD-DX37myvp4Pg | https://disk.yandex.ru/i/7mCOwO1leIVWVw | https://disk.yandex.ru/i/SCREQpgYQ1_Tkg | https://disk.yandex.ru/i/dsIdNh4_ch2hWg</t>
   </si>
   <si>
@@ -1055,10 +1031,19 @@
     <t>https://disk.yandex.ru/i/COR1x8-N-vu1Xg | https://disk.yandex.ru/i/rigb8kcIw39ybA | https://disk.yandex.ru/i/VePdPT2PiZANVQ | https://disk.yandex.ru/i/AoiS96ieIG9sdw | https://disk.yandex.ru/i/MWGbfH1zNMBH_A | https://disk.yandex.ru/i/BImL89iFOexuag | https://disk.yandex.ru/i/kpou1cOltyuJpw | https://disk.yandex.ru/i/DobN1qGngY1lgA | https://disk.yandex.ru/i/u6jZzodrN4h-DQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/xi2w0gDxLZCxbw | https://disk.yandex.ru/i/WLkmePuqwhcijA | https://disk.yandex.ru/i/j2KAfEhqKjgrMA | https://disk.yandex.ru/i/0JudAClzxyrmjQ | https://disk.yandex.ru/i/e7YOnsEF__M_Ew</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/S-Z6BY73Mi-hYA | https://disk.yandex.ru/i/Wrwr_6q3ePsy-A | https://disk.yandex.ru/i/vL55X-bHq2Qjew | https://disk.yandex.ru/i/M7vHanTIgwwjDQ | https://disk.yandex.ru/i/sHfGIfIWSe7b9A</t>
+    <t>https://disk.yandex.ru/i/7sTTRccq16sbdw | https://disk.yandex.ru/i/xCcQ2JuZ6ZORKQ | https://disk.yandex.ru/i/sAnUER20Ngdn2w | https://disk.yandex.ru/i/RG7sDLWFN10fbg | https://disk.yandex.ru/i/ECMZsZ3HqNf5SA | https://disk.yandex.ru/i/64B2Lf5fwC3WoQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Qe64LRZcITNc8g | https://disk.yandex.ru/i/8z6kGsk_SUYzhA | https://disk.yandex.ru/i/vi5Ycmikb76WKQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xGq5prE7b08TXA | https://disk.yandex.ru/i/qd2iNrfOQ3cH0g | https://disk.yandex.ru/i/d4_v-Zd0qTybYw | https://disk.yandex.ru/i/kYkNn5XGus8KVw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qMPOJD6X_9-upw | https://disk.yandex.ru/i/gEDeK1jTliYW-w | https://disk.yandex.ru/i/jpXv1i2hTYifuA | https://disk.yandex.ru/i/Amv8uzvCQxKJWA | https://disk.yandex.ru/i/U8JFbjV2WD3x0w | https://disk.yandex.ru/i/zcR8TczUDochxg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0tmvff4zG42M6g | https://disk.yandex.ru/i/6EYGqbCCvFeuRQ | https://disk.yandex.ru/i/QTo6oXvayGsz9g | https://disk.yandex.ru/i/HqtWFB_Rfae4ww | https://disk.yandex.ru/i/W6VOvUnpouO2lA | https://disk.yandex.ru/i/JnooWLbU2-HU4Q | https://disk.yandex.ru/i/1wP_Cp8TXvO76g | https://disk.yandex.ru/i/8QajX2zIcfbFTw | https://disk.yandex.ru/i/oiltoriD-yhbCQ</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1187,22 +1172,10 @@
     <t>Балкон | Прихожая</t>
   </si>
   <si>
-    <t>Офис | Балкон</t>
-  </si>
-  <si>
     <t>Кабинет | Офис | Балкон | Прихожая</t>
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/7sTTRccq16sbdw | https://disk.yandex.ru/i/xCcQ2JuZ6ZORKQ | https://disk.yandex.ru/i/sAnUER20Ngdn2w | https://disk.yandex.ru/i/RG7sDLWFN10fbg | https://disk.yandex.ru/i/ECMZsZ3HqNf5SA | https://disk.yandex.ru/i/64B2Lf5fwC3WoQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Qe64LRZcITNc8g | https://disk.yandex.ru/i/8z6kGsk_SUYzhA | https://disk.yandex.ru/i/vi5Ycmikb76WKQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/xGq5prE7b08TXA | https://disk.yandex.ru/i/qd2iNrfOQ3cH0g | https://disk.yandex.ru/i/d4_v-Zd0qTybYw | https://disk.yandex.ru/i/kYkNn5XGus8KVw</t>
   </si>
 </sst>
 </file>
@@ -1617,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2">
         <v>3999</v>
@@ -1770,43 +1743,43 @@
         <v>97</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1818,10 +1791,10 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -1829,7 +1802,7 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>5499</v>
@@ -1838,43 +1811,43 @@
         <v>98</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK3">
         <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1886,10 +1859,10 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -1897,7 +1870,7 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4">
         <v>5999</v>
@@ -1906,43 +1879,43 @@
         <v>99</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1954,10 +1927,10 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -1965,7 +1938,7 @@
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>5999</v>
@@ -1974,43 +1947,43 @@
         <v>100</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK5">
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -2022,10 +1995,10 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -2033,7 +2006,7 @@
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>5999</v>
@@ -2042,43 +2015,43 @@
         <v>101</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK6">
         <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2090,10 +2063,10 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2101,7 +2074,7 @@
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>4499</v>
@@ -2110,43 +2083,43 @@
         <v>102</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AH7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2158,10 +2131,10 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -2169,7 +2142,7 @@
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <v>14999</v>
@@ -2178,43 +2151,43 @@
         <v>103</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2226,10 +2199,10 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -2237,7 +2210,7 @@
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>11999</v>
@@ -2246,43 +2219,43 @@
         <v>104</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2294,10 +2267,10 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -2305,7 +2278,7 @@
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10">
         <v>14999</v>
@@ -2314,43 +2287,43 @@
         <v>105</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2362,10 +2335,10 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2373,7 +2346,7 @@
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N11">
         <v>3999</v>
@@ -2382,43 +2355,43 @@
         <v>106</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2430,10 +2403,10 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2441,7 +2414,7 @@
         <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>5499</v>
@@ -2450,43 +2423,43 @@
         <v>107</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AH12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK12">
         <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2498,10 +2471,10 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2509,7 +2482,7 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>7999</v>
@@ -2518,37 +2491,37 @@
         <v>108</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2560,10 +2533,10 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -2571,7 +2544,7 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>6500</v>
@@ -2580,37 +2553,37 @@
         <v>109</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2622,10 +2595,10 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -2636,7 +2609,7 @@
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>15000</v>
@@ -2645,40 +2618,40 @@
         <v>110</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK15">
         <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2690,10 +2663,10 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AQ15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -2704,7 +2677,7 @@
         <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>15000</v>
@@ -2713,34 +2686,34 @@
         <v>111</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2752,10 +2725,10 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -2766,7 +2739,7 @@
         <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>7500</v>
@@ -2775,34 +2748,34 @@
         <v>112</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2814,10 +2787,10 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -2828,7 +2801,7 @@
         <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18">
         <v>15000</v>
@@ -2837,34 +2810,34 @@
         <v>113</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2876,10 +2849,10 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AQ18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -2890,7 +2863,7 @@
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>20000</v>
@@ -2899,34 +2872,34 @@
         <v>114</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM19">
         <v>120</v>
@@ -2938,10 +2911,10 @@
         <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AQ19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -2952,7 +2925,7 @@
         <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>5999</v>
@@ -2961,34 +2934,34 @@
         <v>115</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM20">
         <v>60</v>
@@ -3000,10 +2973,10 @@
         <v>60</v>
       </c>
       <c r="AP20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3014,7 +2987,7 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N21">
         <v>7999</v>
@@ -3023,34 +2996,34 @@
         <v>116</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM21">
         <v>90</v>
@@ -3062,10 +3035,10 @@
         <v>40</v>
       </c>
       <c r="AP21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3076,7 +3049,7 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N22">
         <v>7999</v>
@@ -3085,34 +3058,34 @@
         <v>117</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM22">
         <v>90</v>
@@ -3124,10 +3097,10 @@
         <v>40</v>
       </c>
       <c r="AP22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3138,7 +3111,7 @@
         <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N23">
         <v>7000</v>
@@ -3147,34 +3120,34 @@
         <v>118</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM23">
         <v>85</v>
@@ -3186,10 +3159,10 @@
         <v>40</v>
       </c>
       <c r="AP23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AQ23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3200,7 +3173,7 @@
         <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N24">
         <v>9999</v>
@@ -3209,34 +3182,34 @@
         <v>119</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AH24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM24">
         <v>69</v>
@@ -3248,630 +3221,568 @@
         <v>22</v>
       </c>
       <c r="AP24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>135233</v>
       </c>
       <c r="L25" t="s">
         <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N25">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>120</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM25">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="AN25">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AO25">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AP25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>135233</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26">
-        <v>40000</v>
+        <v>3999</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>121</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AM26">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="AN26">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="AO26">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>140</v>
+        <v>2210</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N27">
-        <v>3999</v>
+        <v>4499</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>122</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL27" t="s">
         <v>156</v>
       </c>
       <c r="AM27">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AN27">
         <v>210</v>
       </c>
       <c r="AO27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2210</v>
+        <v>454450</v>
       </c>
       <c r="L28" t="s">
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N28">
-        <v>4499</v>
+        <v>4000</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>123</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AM28">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AN28">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AO28">
         <v>42</v>
       </c>
       <c r="AP28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AQ28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>454450</v>
+        <v>2369</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N29">
-        <v>4000</v>
+        <v>2499</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>124</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AH29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM29">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AN29">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AO29">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AP29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AQ29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>75204</v>
+        <v>28222</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N30">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AH30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM30">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AN30">
         <v>220</v>
       </c>
       <c r="AO30">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AP30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AQ30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6001</v>
+        <v>68222</v>
       </c>
       <c r="L31" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N31">
-        <v>2999</v>
+        <v>7999</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>126</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AH31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM31">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AN31">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="AO31">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AP31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AQ31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2369</v>
+        <v>125123</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N32">
-        <v>2499</v>
-      </c>
-      <c r="O32" t="s">
+        <v>9999</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM32">
+        <v>120</v>
+      </c>
+      <c r="AN32">
+        <v>112</v>
+      </c>
+      <c r="AO32">
+        <v>45</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ32" t="s">
         <v>172</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM32">
-        <v>30</v>
-      </c>
-      <c r="AN32">
-        <v>190</v>
-      </c>
-      <c r="AO32">
-        <v>60</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28222</v>
+        <v>46202</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N33">
-        <v>7999</v>
+        <v>3999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AH33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM33">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AN33">
         <v>220</v>
       </c>
       <c r="AO33">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AP33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>68222</v>
-      </c>
-      <c r="L34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34">
-        <v>7999</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM34">
-        <v>82</v>
-      </c>
-      <c r="AN34">
-        <v>220</v>
-      </c>
-      <c r="AO34">
-        <v>45</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3922,23 +3833,24 @@
     <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="Q32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA0E0F-8676-4DBF-84E6-64503793039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB96AF5-FE7C-44CB-BFB1-420D7384967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="179">
   <si>
     <t>Id</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Шкаф для раздевалки</t>
+  </si>
+  <si>
+    <t>Металлический шкаф ДиКом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф металлический Практик </t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -950,6 +956,56 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Металлический шкаф ДиКом
+Артикул 105904ПМШ
+Металлический шкаф ДиКом в хорошем состоянии
+Размеры ДхШхВ: 100x50x190
+Цвет: Серый
+Цена: 11999
+Количество: 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Шкаф металлический Практик 
+Артикул 92504ПМШ
+Металлический шкаф Практик с 4 полками в хорошем состоянии
+Размеры ДхШхВ: 92x45x200
+Цвет: Серый
+Цена: 11999
+Количество: 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+    Можем подобрать к шкафу компьютерное кресло или стул с письменным столом, 
+    дополнительно в магазине большой выбор тумб для оргтехники, выкатных тумб на колесиках и приставных тумб к столу.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -1044,6 +1100,12 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/0tmvff4zG42M6g | https://disk.yandex.ru/i/6EYGqbCCvFeuRQ | https://disk.yandex.ru/i/QTo6oXvayGsz9g | https://disk.yandex.ru/i/HqtWFB_Rfae4ww | https://disk.yandex.ru/i/W6VOvUnpouO2lA | https://disk.yandex.ru/i/JnooWLbU2-HU4Q | https://disk.yandex.ru/i/1wP_Cp8TXvO76g | https://disk.yandex.ru/i/8QajX2zIcfbFTw | https://disk.yandex.ru/i/oiltoriD-yhbCQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xbwj_wapTMulNg | https://disk.yandex.ru/i/-roGNsYbSFQjTg | https://disk.yandex.ru/i/TJqgXPWgiQj_bg | https://disk.yandex.ru/i/4nKvQPFQ4OX4gA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/jW9CMEZSFapRfQ | https://disk.yandex.ru/i/WDtLpr5q54jnCA | https://disk.yandex.ru/i/gmMetY7ml5xaHQ | https://disk.yandex.ru/i/fEOnevo0bMjfEw | https://disk.yandex.ru/i/2YotZYIiVYILfg | https://disk.yandex.ru/i/duYOHDY6UoRUpQ</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1590,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ33"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A34:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,52 +1796,52 @@
         <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N2">
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1791,10 +1853,10 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AQ2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -1802,52 +1864,52 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N3">
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK3">
         <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1859,10 +1921,10 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AQ3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -1870,52 +1932,52 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4">
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AF4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AH4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1927,10 +1989,10 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AQ4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -1938,52 +2000,52 @@
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AF5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AH5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK5">
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -1995,10 +2057,10 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AQ5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -2006,52 +2068,52 @@
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AF6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AH6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK6">
         <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2063,10 +2125,10 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AQ6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2074,52 +2136,52 @@
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N7">
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AF7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AH7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2131,10 +2193,10 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AQ7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -2142,52 +2204,52 @@
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N8">
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AF8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AH8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2199,10 +2261,10 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -2210,52 +2272,52 @@
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9">
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2267,10 +2329,10 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -2278,52 +2340,52 @@
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2335,10 +2397,10 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2346,52 +2408,52 @@
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AH11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2403,10 +2465,10 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AQ11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2414,52 +2476,52 @@
         <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N12">
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AH12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK12">
         <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2471,10 +2533,10 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AQ12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2482,46 +2544,46 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AF13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2533,10 +2595,10 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AQ13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -2544,46 +2606,46 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AF14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2595,10 +2657,10 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AQ14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -2609,49 +2671,49 @@
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI15" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AK15">
         <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2663,10 +2725,10 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AQ15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -2677,43 +2739,43 @@
         <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI16" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2725,10 +2787,10 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -2739,43 +2801,43 @@
         <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH17" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2787,10 +2849,10 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -2801,43 +2863,43 @@
         <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB18" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL18" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2849,10 +2911,10 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -2863,43 +2925,43 @@
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>20000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S19" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AH19" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM19">
         <v>120</v>
@@ -2911,10 +2973,10 @@
         <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AQ19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -2925,43 +2987,43 @@
         <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE20" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AH20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM20">
         <v>60</v>
@@ -2973,10 +3035,10 @@
         <v>60</v>
       </c>
       <c r="AP20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AQ20" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -2987,43 +3049,43 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N21">
         <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD21" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AM21">
         <v>90</v>
@@ -3035,10 +3097,10 @@
         <v>40</v>
       </c>
       <c r="AP21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AQ21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3049,43 +3111,43 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB22" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD22" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI22" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AM22">
         <v>90</v>
@@ -3097,10 +3159,10 @@
         <v>40</v>
       </c>
       <c r="AP22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AQ22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3111,43 +3173,43 @@
         <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N23">
         <v>7000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA23" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB23" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD23" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH23" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI23" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM23">
         <v>85</v>
@@ -3159,10 +3221,10 @@
         <v>40</v>
       </c>
       <c r="AP23" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AQ23" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3173,43 +3235,43 @@
         <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N24">
         <v>9999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB24" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM24">
         <v>69</v>
@@ -3221,10 +3283,10 @@
         <v>22</v>
       </c>
       <c r="AP24" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -3235,43 +3297,43 @@
         <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N25">
         <v>40000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD25" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE25" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM25">
         <v>135</v>
@@ -3283,10 +3345,10 @@
         <v>42</v>
       </c>
       <c r="AP25" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AQ25" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -3297,43 +3359,43 @@
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N26">
         <v>3999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AM26">
         <v>41</v>
@@ -3345,10 +3407,10 @@
         <v>44</v>
       </c>
       <c r="AP26" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ26" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -3359,43 +3421,43 @@
         <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N27">
         <v>4499</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB27" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH27" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI27" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL27" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM27">
         <v>82</v>
@@ -3407,10 +3469,10 @@
         <v>42</v>
       </c>
       <c r="AP27" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ27" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -3421,43 +3483,43 @@
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N28">
         <v>4000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD28" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE28" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH28" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI28" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM28">
         <v>45</v>
@@ -3469,10 +3531,10 @@
         <v>42</v>
       </c>
       <c r="AP28" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AQ28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -3483,43 +3545,43 @@
         <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N29">
         <v>2499</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA29" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB29" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD29" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AH29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI29" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL29" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM29">
         <v>30</v>
@@ -3531,10 +3593,10 @@
         <v>60</v>
       </c>
       <c r="AP29" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AQ29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -3545,43 +3607,43 @@
         <v>62</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N30">
         <v>7999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA30" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC30" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH30" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM30">
         <v>82</v>
@@ -3593,10 +3655,10 @@
         <v>44</v>
       </c>
       <c r="AP30" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ30" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -3607,43 +3669,43 @@
         <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N31">
         <v>7999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB31" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC31" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE31" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AH31" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI31" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM31">
         <v>82</v>
@@ -3655,10 +3717,10 @@
         <v>45</v>
       </c>
       <c r="AP31" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -3669,43 +3731,43 @@
         <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N32">
         <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB32" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC32" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AH32" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI32" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL32" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM32">
         <v>120</v>
@@ -3717,10 +3779,10 @@
         <v>45</v>
       </c>
       <c r="AP32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ32" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
@@ -3731,43 +3793,43 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N33">
         <v>3999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AA33" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AB33" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD33" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE33" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AH33" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI33" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL33" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AM33">
         <v>43</v>
@@ -3779,10 +3841,134 @@
         <v>60</v>
       </c>
       <c r="AP33" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AQ33" t="s">
-        <v>172</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>105904</v>
+      </c>
+      <c r="L34" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34">
+        <v>11999</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM34">
+        <v>100</v>
+      </c>
+      <c r="AN34">
+        <v>190</v>
+      </c>
+      <c r="AO34">
+        <v>50</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>92504</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35">
+        <v>11999</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM35">
+        <v>92</v>
+      </c>
+      <c r="AN35">
+        <v>200</v>
+      </c>
+      <c r="AO35">
+        <v>45</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3833,24 +4019,28 @@
     <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/closet.xlsx
+++ b/make_xl/data_xl/closet.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB96AF5-FE7C-44CB-BFB1-420D7384967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -221,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">Шкаф металлический Практик </t>
+  </si>
+  <si>
+    <t>Шкаф с полками Konig Neurath</t>
+  </si>
+  <si>
+    <t>Металлический шкаф</t>
   </si>
   <si>
     <t>Офисный шкаф
@@ -1006,6 +1006,121 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Шкаф с полками
+Артикул 124248П3РШ
+Офисный шкаф с рольставнями от Немецкого произовдителя Konig Neurath. Шкаф на замке с металлическими полками, выдерживающими большой вес.
+Размеры ДхШхВ: 120x42x148
+Цвет: Шимо
+Цена: 14999
+Количество: 4
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Шкаф с полками
+Артикул 124248П3РМ
+Офисный шкаф с рольставнями от Немецкого произовдителя Konig Neurath. Шкаф на замке с металлическими полками, выдерживающими большой вес.
+Размеры ДхШхВ: 120x48x148
+Цвет: Молочный
+Цена: 14999
+Количество: 4
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Шкаф с полками
+Артикул 124248П3РДП
+Офисный шкаф с рольставнями от Немецкого произовдителя Konig Neurath. Шкаф с металлическими полками, выдерживающими большой вес
+Размеры ДхШхВ: 120x48x148
+Цвет: Песок
+Цена: 14999
+Количество: 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Шкаф с полками Konig Neurath
+Артикул 124206П2ДРП
+Офисный шкаф на замке от Немецкого произовдителя Konig Neurath. Шкаф с металлическими полками, выдерживающими большой вес.
+Размеры ДхШхВ: 120x42x106
+Цвет: Песок
+Цена: 11999
+Количество: 5
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Металлический шкаф
+Артикул 8489П5МБ
+Металлический шкаф с полками на замке.
+Размеры ДхШхВ: 80x40x189
+Цвет: Белый
+Цена: 12999
+Количество: 1
+    Широкий ассортимент офисных шкафов для одежды и стеллажей для докуменетов, в разном исполнении материала и декоров. 
+    Все шкафы собраны и доступны для осмотра и оценки состояния. 
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/c7wV-lCpHxFw8Q | https://disk.yandex.ru/i/e_q_F7DceXMYEQ | https://disk.yandex.ru/i/KxTcRAiTZWc63g | https://disk.yandex.ru/i/_q9CI4L5ufzBTg</t>
   </si>
   <si>
@@ -1108,6 +1223,21 @@
     <t>https://disk.yandex.ru/i/jW9CMEZSFapRfQ | https://disk.yandex.ru/i/WDtLpr5q54jnCA | https://disk.yandex.ru/i/gmMetY7ml5xaHQ | https://disk.yandex.ru/i/fEOnevo0bMjfEw | https://disk.yandex.ru/i/2YotZYIiVYILfg | https://disk.yandex.ru/i/duYOHDY6UoRUpQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/d/QR8nYj3EFB7zCQ | https://disk.yandex.ru/d/VnxDZ-FLaUc_hg | https://disk.yandex.ru/d/3nC3T9kG3wzonQ | https://disk.yandex.ru/d/7iHqGnbpgpe9-w | https://disk.yandex.ru/d/XwsR3YkMFJvLYw | https://disk.yandex.ru/d/xJ5-wg7L58G1nw | https://disk.yandex.ru/d/WDfbU8yjNrcnug | https://disk.yandex.ru/d/UAyi0IimpRt9pg | https://disk.yandex.ru/i/4SIDTaGUMyVhVg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/hBf3GKeaCc3qqw | https://disk.yandex.ru/d/BiYB1B0a1-YBWw | https://disk.yandex.ru/d/GMGS_VUoHDtxKQ | https://disk.yandex.ru/d/3ezdjHfKsK1qyw | https://disk.yandex.ru/d/rWqcU2At0vSfEw | https://disk.yandex.ru/d/EJhOjmFdzXQcOA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/BBhOqs9ayDsZQQ | https://disk.yandex.ru/d/JgQT3VXTAnDmlg | https://disk.yandex.ru/d/cZJxYtRa_Ga2Wg | https://disk.yandex.ru/i/U_xjWv9cYUZyxw | https://disk.yandex.ru/d/gFtQzWzVEslheQ | https://disk.yandex.ru/d/j2Y07AtW0J_zDQ | https://disk.yandex.ru/d/l6kaIX_TzHOjJQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/9KgOocGfEWUI9Q | https://disk.yandex.ru/d/Nnzwgg3aj1ArFg | https://disk.yandex.ru/d/uaqvQ_ooVL6Blw | https://disk.yandex.ru/i/O4wTDkqA9XZnTQ | https://disk.yandex.ru/d/BLCiXwMf6ElOaA | https://disk.yandex.ru/d/JlNvJr4YZ1qJvA | https://disk.yandex.ru/d/anPXVBU77dH0EA | https://disk.yandex.ru/d/S_uKYBW3uCp3qw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/UgwSvCYmFTis4w | https://disk.yandex.ru/d/0zrfHWETOIKi7Q | https://disk.yandex.ru/d/Gh6mbxWCgEOw8Q | https://disk.yandex.ru/d/VZSuvuWMtMkXWA | https://disk.yandex.ru/d/TPKKckeraeEyzQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1235,6 +1365,9 @@
   </si>
   <si>
     <t>Кабинет | Офис | Балкон | Прихожая</t>
+  </si>
+  <si>
+    <t>Кабинет | Офис | Балкон | Спальня</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1243,8 +1376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,26 +1448,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1372,9 +1497,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1406,27 +1531,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1458,27 +1565,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1651,16 +1740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A34:XFD35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,57 +1878,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="L2" t="s">
         <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2">
         <v>3999</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AF2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AH2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM2">
         <v>55</v>
@@ -1853,63 +1940,63 @@
         <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AQ2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3">
         <v>5499</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AF3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AH3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK3">
         <v>4</v>
       </c>
       <c r="AL3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM3">
         <v>76</v>
@@ -1921,63 +2008,63 @@
         <v>47</v>
       </c>
       <c r="AP3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AQ3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="L4" t="s">
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>5999</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AF4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AH4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM4">
         <v>80</v>
@@ -1989,63 +2076,63 @@
         <v>45</v>
       </c>
       <c r="AP4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AQ4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="L5" t="s">
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N5">
         <v>5999</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S5" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AF5" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AH5" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK5">
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM5">
         <v>80</v>
@@ -2057,63 +2144,63 @@
         <v>45</v>
       </c>
       <c r="AP5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AQ5" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="L6" t="s">
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N6">
         <v>5999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC6" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AF6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AH6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK6">
         <v>2</v>
       </c>
       <c r="AL6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM6">
         <v>72</v>
@@ -2125,63 +2212,63 @@
         <v>37</v>
       </c>
       <c r="AP6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AQ6" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="L7" t="s">
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>4499</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="AF7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AH7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM7">
         <v>73</v>
@@ -2193,63 +2280,63 @@
         <v>37</v>
       </c>
       <c r="AP7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AQ7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="L8" t="s">
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N8">
         <v>14999</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S8" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA8" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD8" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AF8" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AH8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
       <c r="AL8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2261,63 +2348,63 @@
         <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AQ8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="L9" t="s">
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N9">
         <v>11999</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S9" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA9" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB9" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC9" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD9" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AF9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AH9" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ9" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AM9">
         <v>120</v>
@@ -2329,63 +2416,63 @@
         <v>42</v>
       </c>
       <c r="AP9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AQ9" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N10">
         <v>14999</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S10" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA10" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB10" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD10" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE10" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AF10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AH10" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI10" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ10" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AM10">
         <v>120</v>
@@ -2397,63 +2484,63 @@
         <v>42</v>
       </c>
       <c r="AP10" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AQ10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="L11" t="s">
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N11">
         <v>3999</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC11" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD11" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AF11" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="AH11" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ11" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM11">
         <v>77</v>
@@ -2465,63 +2552,63 @@
         <v>37</v>
       </c>
       <c r="AP11" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AQ11" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="L12" t="s">
         <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N12">
         <v>5499</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA12" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB12" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AC12" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD12" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE12" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AH12" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI12" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ12" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK12">
         <v>2</v>
       </c>
       <c r="AL12" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM12">
         <v>77</v>
@@ -2533,57 +2620,57 @@
         <v>38</v>
       </c>
       <c r="AP12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AQ12" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="L13" t="s">
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>7999</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AH13" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI13" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AM13">
         <v>82</v>
@@ -2595,57 +2682,57 @@
         <v>45</v>
       </c>
       <c r="AP13" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AQ13" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="L14" t="s">
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N14">
         <v>6500</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AH14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AM14">
         <v>82</v>
@@ -2657,13 +2744,13 @@
         <v>45</v>
       </c>
       <c r="AP14" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AQ14" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2671,49 +2758,49 @@
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>15000</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD15" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI15" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AJ15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK15">
         <v>2</v>
       </c>
       <c r="AL15" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM15">
         <v>80</v>
@@ -2725,13 +2812,13 @@
         <v>50</v>
       </c>
       <c r="AP15" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AQ15" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2739,43 +2826,43 @@
         <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>15000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA16" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB16" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC16" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI16" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -2787,13 +2874,13 @@
         <v>50</v>
       </c>
       <c r="AP16" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AQ16" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2801,43 +2888,43 @@
         <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N17">
         <v>7500</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S17" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA17" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB17" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC17" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD17" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE17" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH17" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI17" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL17" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM17">
         <v>44</v>
@@ -2849,13 +2936,13 @@
         <v>39</v>
       </c>
       <c r="AP17" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AQ17" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2863,43 +2950,43 @@
         <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N18">
         <v>15000</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA18" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB18" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC18" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD18" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE18" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH18" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI18" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM18">
         <v>92</v>
@@ -2911,13 +2998,13 @@
         <v>46</v>
       </c>
       <c r="AP18" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AQ18" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2925,43 +3012,43 @@
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N19">
         <v>20000</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB19" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC19" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD19" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE19" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AH19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM19">
         <v>120</v>
@@ -2973,13 +3060,13 @@
         <v>43</v>
       </c>
       <c r="AP19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AQ19" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2987,43 +3074,43 @@
         <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N20">
         <v>5999</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA20" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB20" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC20" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD20" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE20" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AH20" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI20" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM20">
         <v>60</v>
@@ -3035,13 +3122,13 @@
         <v>60</v>
       </c>
       <c r="AP20" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AQ20" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3049,43 +3136,43 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N21">
         <v>7999</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S21" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA21" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC21" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD21" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AH21" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI21" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL21" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AM21">
         <v>90</v>
@@ -3097,13 +3184,13 @@
         <v>40</v>
       </c>
       <c r="AP21" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AQ21" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3111,43 +3198,43 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N22">
         <v>7999</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S22" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA22" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB22" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD22" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AH22" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI22" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL22" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AM22">
         <v>90</v>
@@ -3159,13 +3246,13 @@
         <v>40</v>
       </c>
       <c r="AP22" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AQ22" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3173,43 +3260,43 @@
         <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N23">
         <v>7000</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S23" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA23" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB23" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC23" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD23" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE23" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH23" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI23" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL23" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM23">
         <v>85</v>
@@ -3221,13 +3308,13 @@
         <v>40</v>
       </c>
       <c r="AP23" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AQ23" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3235,43 +3322,43 @@
         <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N24">
         <v>9999</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S24" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA24" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB24" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC24" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD24" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE24" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH24" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI24" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL24" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM24">
         <v>69</v>
@@ -3283,13 +3370,13 @@
         <v>22</v>
       </c>
       <c r="AP24" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ24" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>135233</v>
       </c>
@@ -3297,43 +3384,43 @@
         <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N25">
         <v>40000</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S25" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA25" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB25" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC25" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD25" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE25" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AH25" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI25" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM25">
         <v>135</v>
@@ -3345,13 +3432,13 @@
         <v>42</v>
       </c>
       <c r="AP25" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AQ25" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>140</v>
       </c>
@@ -3359,43 +3446,43 @@
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N26">
         <v>3999</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S26" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA26" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD26" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE26" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AH26" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI26" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AM26">
         <v>41</v>
@@ -3407,13 +3494,13 @@
         <v>44</v>
       </c>
       <c r="AP26" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ26" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>2210</v>
       </c>
@@ -3421,43 +3508,43 @@
         <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N27">
         <v>4499</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S27" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA27" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB27" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC27" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD27" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE27" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AH27" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI27" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM27">
         <v>82</v>
@@ -3469,13 +3556,13 @@
         <v>42</v>
       </c>
       <c r="AP27" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ27" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>454450</v>
       </c>
@@ -3483,43 +3570,43 @@
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N28">
         <v>4000</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S28" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA28" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB28" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC28" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD28" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE28" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH28" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI28" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL28" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM28">
         <v>45</v>
@@ -3531,13 +3618,13 @@
         <v>42</v>
       </c>
       <c r="AP28" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AQ28" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>2369</v>
       </c>
@@ -3545,43 +3632,43 @@
         <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N29">
         <v>2499</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S29" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA29" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC29" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD29" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE29" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AH29" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI29" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL29" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM29">
         <v>30</v>
@@ -3593,13 +3680,13 @@
         <v>60</v>
       </c>
       <c r="AP29" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AQ29" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>28222</v>
       </c>
@@ -3607,43 +3694,43 @@
         <v>62</v>
       </c>
       <c r="M30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N30">
         <v>7999</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S30" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA30" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB30" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC30" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD30" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE30" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AH30" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI30" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL30" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM30">
         <v>82</v>
@@ -3655,13 +3742,13 @@
         <v>44</v>
       </c>
       <c r="AP30" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ30" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>68222</v>
       </c>
@@ -3669,43 +3756,43 @@
         <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N31">
         <v>7999</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S31" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA31" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB31" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC31" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD31" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE31" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AH31" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI31" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL31" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM31">
         <v>82</v>
@@ -3717,13 +3804,13 @@
         <v>45</v>
       </c>
       <c r="AP31" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ31" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32">
         <v>125123</v>
       </c>
@@ -3731,43 +3818,43 @@
         <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N32">
         <v>9999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S32" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA32" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB32" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC32" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD32" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE32" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH32" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI32" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL32" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM32">
         <v>120</v>
@@ -3779,13 +3866,13 @@
         <v>45</v>
       </c>
       <c r="AP32" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ32" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33">
         <v>46202</v>
       </c>
@@ -3793,43 +3880,43 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N33">
         <v>3999</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S33" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA33" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB33" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC33" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD33" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE33" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AH33" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI33" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL33" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM33">
         <v>43</v>
@@ -3841,13 +3928,13 @@
         <v>60</v>
       </c>
       <c r="AP33" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ33" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34">
         <v>105904</v>
       </c>
@@ -3855,43 +3942,43 @@
         <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N34">
         <v>11999</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S34" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA34" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB34" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC34" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD34" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE34" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH34" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI34" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL34" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM34">
         <v>100</v>
@@ -3903,13 +3990,13 @@
         <v>50</v>
       </c>
       <c r="AP34" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AQ34" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35">
         <v>92504</v>
       </c>
@@ -3917,43 +4004,43 @@
         <v>66</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N35">
         <v>11999</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S35" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AA35" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AB35" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC35" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AD35" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AE35" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH35" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI35" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL35" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM35">
         <v>92</v>
@@ -3965,82 +4052,402 @@
         <v>45</v>
       </c>
       <c r="AP35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36">
+        <v>124248</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>103</v>
+      </c>
+      <c r="N36">
+        <v>14999</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL36" t="s">
         <v>174</v>
       </c>
-      <c r="AQ35" t="s">
-        <v>178</v>
+      <c r="AM36">
+        <v>120</v>
+      </c>
+      <c r="AN36">
+        <v>148</v>
+      </c>
+      <c r="AO36">
+        <v>42</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37">
+        <v>124248</v>
+      </c>
+      <c r="L37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37">
+        <v>14999</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM37">
+        <v>120</v>
+      </c>
+      <c r="AN37">
+        <v>148</v>
+      </c>
+      <c r="AO37">
+        <v>48</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38">
+        <v>124248</v>
+      </c>
+      <c r="L38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38">
+        <v>14999</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM38">
+        <v>120</v>
+      </c>
+      <c r="AN38">
+        <v>148</v>
+      </c>
+      <c r="AO38">
+        <v>48</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39">
+        <v>124206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39">
+        <v>11999</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM39">
+        <v>120</v>
+      </c>
+      <c r="AN39">
+        <v>106</v>
+      </c>
+      <c r="AO39">
+        <v>42</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40">
+        <v>8489</v>
+      </c>
+      <c r="L40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" t="s">
+        <v>107</v>
+      </c>
+      <c r="N40">
+        <v>12999</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM40">
+        <v>80</v>
+      </c>
+      <c r="AN40">
+        <v>189</v>
+      </c>
+      <c r="AO40">
+        <v>40</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="O7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Q13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Q14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Q15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Q17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="O19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="O20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="O23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="O24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="O25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="O30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="O4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="O6" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="O7" r:id="rId11"/>
+    <hyperlink ref="Q7" r:id="rId12"/>
+    <hyperlink ref="O8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="O9" r:id="rId15"/>
+    <hyperlink ref="Q9" r:id="rId16"/>
+    <hyperlink ref="O10" r:id="rId17"/>
+    <hyperlink ref="Q10" r:id="rId18"/>
+    <hyperlink ref="O11" r:id="rId19"/>
+    <hyperlink ref="Q11" r:id="rId20"/>
+    <hyperlink ref="O12" r:id="rId21"/>
+    <hyperlink ref="Q12" r:id="rId22"/>
+    <hyperlink ref="O13" r:id="rId23"/>
+    <hyperlink ref="Q13" r:id="rId24"/>
+    <hyperlink ref="O14" r:id="rId25"/>
+    <hyperlink ref="Q14" r:id="rId26"/>
+    <hyperlink ref="O15" r:id="rId27"/>
+    <hyperlink ref="Q15" r:id="rId28"/>
+    <hyperlink ref="O16" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
+    <hyperlink ref="Q17" r:id="rId32"/>
+    <hyperlink ref="O18" r:id="rId33"/>
+    <hyperlink ref="Q18" r:id="rId34"/>
+    <hyperlink ref="O19" r:id="rId35"/>
+    <hyperlink ref="Q19" r:id="rId36"/>
+    <hyperlink ref="O20" r:id="rId37"/>
+    <hyperlink ref="Q20" r:id="rId38"/>
+    <hyperlink ref="O21" r:id="rId39"/>
+    <hyperlink ref="Q21" r:id="rId40"/>
+    <hyperlink ref="O22" r:id="rId41"/>
+    <hyperlink ref="Q22" r:id="rId42"/>
+    <hyperlink ref="O23" r:id="rId43"/>
+    <hyperlink ref="Q23" r:id="rId44"/>
+    <hyperlink ref="O24" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="Q25" r:id="rId48"/>
+    <hyperlink ref="O26" r:id="rId49"/>
+    <hyperlink ref="Q26" r:id="rId50"/>
+    <hyperlink ref="O27" r:id="rId51"/>
+    <hyperlink ref="Q27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="Q28" r:id="rId54"/>
+    <hyperlink ref="O29" r:id="rId55"/>
+    <hyperlink ref="Q29" r:id="rId56"/>
+    <hyperlink ref="O30" r:id="rId57"/>
+    <hyperlink ref="Q30" r:id="rId58"/>
+    <hyperlink ref="O31" r:id="rId59"/>
+    <hyperlink ref="Q31" r:id="rId60"/>
+    <hyperlink ref="O32" r:id="rId61"/>
+    <hyperlink ref="Q32" r:id="rId62"/>
+    <hyperlink ref="O33" r:id="rId63"/>
+    <hyperlink ref="Q33" r:id="rId64"/>
+    <hyperlink ref="O34" r:id="rId65"/>
+    <hyperlink ref="Q34" r:id="rId66"/>
+    <hyperlink ref="O35" r:id="rId67"/>
+    <hyperlink ref="Q35" r:id="rId68"/>
+    <hyperlink ref="O36" r:id="rId69"/>
+    <hyperlink ref="Q36" r:id="rId70"/>
+    <hyperlink ref="O37" r:id="rId71"/>
+    <hyperlink ref="Q37" r:id="rId72"/>
+    <hyperlink ref="O38" r:id="rId73"/>
+    <hyperlink ref="Q38" r:id="rId74"/>
+    <hyperlink ref="O39" r:id="rId75"/>
+    <hyperlink ref="Q39" r:id="rId76"/>
+    <hyperlink ref="O40" r:id="rId77"/>
+    <hyperlink ref="Q40" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
